--- a/your_workbook.xlsx
+++ b/your_workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidklein/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidklein/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{463EE9E8-1042-2542-AC21-5E0B9CCAC113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35237283-6DD3-DE4D-A2D3-955B951C1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{36F495BE-100C-4C23-B769-2E8998AD6DE9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="438">
   <si>
     <t>Handle</t>
   </si>
@@ -1550,6 +1550,9 @@
   </si>
   <si>
     <t>Sterling Silver Chopped Solder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTE SOLDER </t>
   </si>
 </sst>
 </file>
@@ -2732,8 +2735,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="142" workbookViewId="0">
+      <selection activeCell="X483" sqref="X483:X486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3030,8 +3033,8 @@
         <v>87</v>
       </c>
       <c r="X2" s="97">
-        <f>VLOOKUP(J2,References!$A$25:$B$29,2,0)*VLOOKUP(M2,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>1.8620833333333338</v>
+        <f>VLOOKUP(J2,References!$A$25:$B$29,2,0)*VLOOKUP(M2,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>2.0278541666666672</v>
       </c>
       <c r="Z2" t="b">
         <v>1</v>
@@ -3075,8 +3078,8 @@
         <v>87</v>
       </c>
       <c r="X3" s="97">
-        <f>VLOOKUP(J3,References!$A$25:$B$29,2,0)*VLOOKUP(M3,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>2.7931250000000003</v>
+        <f>VLOOKUP(J3,References!$A$25:$B$29,2,0)*VLOOKUP(M3,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>3.0417812500000001</v>
       </c>
       <c r="Z3" t="b">
         <v>1</v>
@@ -3111,8 +3114,8 @@
         <v>87</v>
       </c>
       <c r="X4" s="97">
-        <f>VLOOKUP(J4,References!$A$25:$B$29,2,0)*VLOOKUP(M4,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>3.7241666666666675</v>
+        <f>VLOOKUP(J4,References!$A$25:$B$29,2,0)*VLOOKUP(M4,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>4.0557083333333344</v>
       </c>
       <c r="Z4" t="b">
         <v>1</v>
@@ -3147,8 +3150,8 @@
         <v>87</v>
       </c>
       <c r="X5" s="97">
-        <f>VLOOKUP(J5,References!$A$25:$B$29,2,0)*VLOOKUP(M5,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>5.5862500000000006</v>
+        <f>VLOOKUP(J5,References!$A$25:$B$29,2,0)*VLOOKUP(M5,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>6.0835625000000002</v>
       </c>
       <c r="Z5" t="b">
         <v>1</v>
@@ -3183,8 +3186,8 @@
         <v>87</v>
       </c>
       <c r="X6" s="97">
-        <f>VLOOKUP(J6,References!$A$25:$B$29,2,0)*VLOOKUP(M6,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>11.638020833333336</v>
+        <f>VLOOKUP(J6,References!$A$25:$B$29,2,0)*VLOOKUP(M6,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>12.674088541666668</v>
       </c>
       <c r="Z6" t="b">
         <v>1</v>
@@ -3219,8 +3222,8 @@
         <v>87</v>
       </c>
       <c r="X7" s="97">
-        <f>VLOOKUP(J7,References!$A$25:$B$29,2,0)*VLOOKUP(M7,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>5.5862500000000006</v>
+        <f>VLOOKUP(J7,References!$A$25:$B$29,2,0)*VLOOKUP(M7,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>6.0835625000000002</v>
       </c>
       <c r="Z7" t="b">
         <v>1</v>
@@ -3255,8 +3258,8 @@
         <v>87</v>
       </c>
       <c r="X8" s="97">
-        <f>VLOOKUP(J8,References!$A$25:$B$29,2,0)*VLOOKUP(M8,References!$A$1:$B$23,2,0)*Prices!$D$103*5.45</f>
-        <v>7.448333333333335</v>
+        <f>VLOOKUP(J8,References!$A$25:$B$29,2,0)*VLOOKUP(M8,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
+        <v>8.1114166666666687</v>
       </c>
       <c r="Z8" t="b">
         <v>1</v>
@@ -4434,8 +4437,8 @@
         <v>87</v>
       </c>
       <c r="X37" s="97">
-        <f>VLOOKUP(J37,References!$A$25:$B$27,2,0)*0.01*Prices!$G$103*5.5</f>
-        <v>0.46979166666666677</v>
+        <f>VLOOKUP(J37,References!$A$25:$B$27,2,0)*0.01*Prices!$G$104*5.5</f>
+        <v>0.51161458333333343</v>
       </c>
       <c r="Z37" t="b">
         <v>1</v>
@@ -4473,8 +4476,8 @@
         <v>87</v>
       </c>
       <c r="X38" s="97">
-        <f>VLOOKUP(J38,References!$A$25:$B$27,2,0)*0.01*Prices!$G$103*5.5</f>
-        <v>0.93958333333333355</v>
+        <f>VLOOKUP(J38,References!$A$25:$B$27,2,0)*0.01*Prices!$G$104*5.5</f>
+        <v>1.0232291666666669</v>
       </c>
       <c r="Z38" t="b">
         <v>1</v>
@@ -4506,8 +4509,8 @@
         <v>87</v>
       </c>
       <c r="X39" s="97">
-        <f>VLOOKUP(J39,References!$A$25:$B$27,2,0)*0.01*Prices!$G$103*5.5</f>
-        <v>1.8791666666666671</v>
+        <f>VLOOKUP(J39,References!$A$25:$B$27,2,0)*0.01*Prices!$G$104*5.5</f>
+        <v>2.0464583333333337</v>
       </c>
       <c r="Z39" t="b">
         <v>1</v>
@@ -4567,7 +4570,7 @@
       </c>
       <c r="X40" s="97">
         <f>0.1*Prices!$D$84</f>
-        <v>7.8846153846153841</v>
+        <v>8.5865384615384617</v>
       </c>
       <c r="Z40" t="b">
         <v>1</v>
@@ -4618,7 +4621,7 @@
       </c>
       <c r="X41" s="97">
         <f>0.1425*Prices!$D$84</f>
-        <v>11.235576923076922</v>
+        <v>12.235817307692306</v>
       </c>
       <c r="Z41" t="b">
         <v>1</v>
@@ -4654,7 +4657,7 @@
       </c>
       <c r="X42" s="97">
         <f>0.285*Prices!$D$84</f>
-        <v>22.471153846153843</v>
+        <v>24.471634615384612</v>
       </c>
       <c r="Z42" t="b">
         <v>1</v>
@@ -4690,7 +4693,7 @@
       </c>
       <c r="X43" s="97">
         <f>0.178*Prices!$D$84</f>
-        <v>14.034615384615384</v>
+        <v>15.28403846153846</v>
       </c>
       <c r="Z43" t="b">
         <v>1</v>
@@ -4726,7 +4729,7 @@
       </c>
       <c r="X44" s="97">
         <f>0.231*Prices!$D$84</f>
-        <v>18.213461538461537</v>
+        <v>19.834903846153846</v>
       </c>
       <c r="Z44" t="b">
         <v>1</v>
@@ -4762,7 +4765,7 @@
       </c>
       <c r="X45" s="97">
         <f>0.462*Prices!$D$84</f>
-        <v>36.426923076923075</v>
+        <v>39.669807692307693</v>
       </c>
       <c r="Z45" t="b">
         <v>1</v>
@@ -4798,7 +4801,7 @@
       </c>
       <c r="X46" s="97">
         <f>0.324*Prices!$D$84</f>
-        <v>25.546153846153846</v>
+        <v>27.820384615384615</v>
       </c>
       <c r="Z46" t="b">
         <v>1</v>
@@ -4834,7 +4837,7 @@
       </c>
       <c r="X47" s="97">
         <f>0.648*Prices!$D$84</f>
-        <v>51.092307692307692</v>
+        <v>55.64076923076923</v>
       </c>
       <c r="Z47" t="b">
         <v>1</v>
@@ -4870,7 +4873,7 @@
       </c>
       <c r="X48" s="97">
         <f>0.392*Prices!$D$84</f>
-        <v>30.907692307692308</v>
+        <v>33.659230769230767</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -4906,7 +4909,7 @@
       </c>
       <c r="X49" s="97">
         <f>0.4*Prices!$D$84</f>
-        <v>31.538461538461537</v>
+        <v>34.346153846153847</v>
       </c>
       <c r="Z49" t="b">
         <v>1</v>
@@ -4942,7 +4945,7 @@
       </c>
       <c r="X50" s="97">
         <f>0.8*Prices!$D$84</f>
-        <v>63.076923076923073</v>
+        <v>68.692307692307693</v>
       </c>
       <c r="Z50" t="b">
         <v>1</v>
@@ -4978,7 +4981,7 @@
       </c>
       <c r="X51" s="97">
         <f>0.486*Prices!$D$84</f>
-        <v>38.319230769230764</v>
+        <v>41.730576923076924</v>
       </c>
       <c r="Z51" t="b">
         <v>1</v>
@@ -5014,7 +5017,7 @@
       </c>
       <c r="X52" s="97">
         <f>0.972*Prices!$D$84</f>
-        <v>76.638461538461527</v>
+        <v>83.461153846153849</v>
       </c>
       <c r="Z52" t="b">
         <v>1</v>
@@ -5050,7 +5053,7 @@
       </c>
       <c r="X53" s="97">
         <f>0.635*Prices!$D$84</f>
-        <v>50.067307692307686</v>
+        <v>54.524519230769229</v>
       </c>
       <c r="Z53" t="b">
         <v>1</v>
@@ -5086,7 +5089,7 @@
       </c>
       <c r="X54" s="97">
         <f>1.27*Prices!$D$84</f>
-        <v>100.13461538461537</v>
+        <v>109.04903846153846</v>
       </c>
       <c r="Z54" t="b">
         <v>1</v>
@@ -5122,7 +5125,7 @@
       </c>
       <c r="X55" s="97">
         <f>1.575*Prices!$D$84</f>
-        <v>124.18269230769229</v>
+        <v>135.23798076923077</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -5158,7 +5161,7 @@
       </c>
       <c r="X56" s="97">
         <f>2.03*Prices!$D$84</f>
-        <v>160.05769230769229</v>
+        <v>174.30673076923074</v>
       </c>
       <c r="Z56" t="b">
         <v>1</v>
@@ -5208,8 +5211,8 @@
         <v>87</v>
       </c>
       <c r="X57" s="97">
-        <f>(VLOOKUP(J57,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>0.335175</v>
+        <f>(VLOOKUP(J57,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>0.36501374999999997</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -5256,8 +5259,8 @@
         <v>87</v>
       </c>
       <c r="X58" s="97">
-        <f>(VLOOKUP(J58,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>0.45621041666666678</v>
+        <f>(VLOOKUP(J58,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>0.49682427083333341</v>
       </c>
       <c r="Z58" t="b">
         <v>1</v>
@@ -5289,8 +5292,8 @@
         <v>87</v>
       </c>
       <c r="X59" s="97">
-        <f>(VLOOKUP(J59,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>0.59586666666666677</v>
+        <f>(VLOOKUP(J59,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>0.64891333333333345</v>
       </c>
       <c r="Z59" t="b">
         <v>1</v>
@@ -5322,8 +5325,8 @@
         <v>87</v>
       </c>
       <c r="X60" s="97">
-        <f>(VLOOKUP(J60,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>0.93104166666666699</v>
+        <f>(VLOOKUP(J60,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>1.0139270833333336</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
@@ -5355,8 +5358,8 @@
         <v>87</v>
       </c>
       <c r="X61" s="97">
-        <f>(VLOOKUP(J61,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>1.3407</v>
+        <f>(VLOOKUP(J61,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>1.4600549999999999</v>
       </c>
       <c r="Z61" t="b">
         <v>1</v>
@@ -5388,8 +5391,8 @@
         <v>87</v>
       </c>
       <c r="X62" s="97">
-        <f>(VLOOKUP(J62,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>2.0948437500000003</v>
+        <f>(VLOOKUP(J62,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>2.2813359375000002</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
@@ -5421,8 +5424,8 @@
         <v>87</v>
       </c>
       <c r="X63" s="97">
-        <f>(VLOOKUP(J63,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>3.016575</v>
+        <f>(VLOOKUP(J63,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>3.2851237499999999</v>
       </c>
       <c r="Z63" t="b">
         <v>1</v>
@@ -5454,8 +5457,8 @@
         <v>87</v>
       </c>
       <c r="X64" s="97">
-        <f>(VLOOKUP(J64,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>3.724166666666668</v>
+        <f>(VLOOKUP(J64,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>4.0557083333333344</v>
       </c>
       <c r="Z64" t="b">
         <v>1</v>
@@ -5487,8 +5490,8 @@
         <v>87</v>
       </c>
       <c r="X65" s="97">
-        <f>(VLOOKUP(J65,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$103</f>
-        <v>9.5338666666666683</v>
+        <f>(VLOOKUP(J65,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
+        <v>10.382613333333335</v>
       </c>
       <c r="Z65" t="b">
         <v>1</v>
@@ -5547,8 +5550,8 @@
         <v>87</v>
       </c>
       <c r="X66" s="96">
-        <f>((VLOOKUP(J66,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>0.52649165883347948</v>
+        <f>((VLOOKUP(J66,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>0.57336225772963068</v>
       </c>
       <c r="Z66" t="b">
         <v>1</v>
@@ -5599,7 +5602,7 @@
       </c>
       <c r="X67" s="96">
         <f>X66*12</f>
-        <v>6.3178999060017542</v>
+        <v>6.8803470927555681</v>
       </c>
       <c r="Z67" t="b">
         <v>1</v>
@@ -5634,8 +5637,8 @@
         <v>87</v>
       </c>
       <c r="X68" s="96">
-        <f>((VLOOKUP(J68,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>0.93598517125951919</v>
+        <f>((VLOOKUP(J68,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>1.0193106804082324</v>
       </c>
       <c r="Z68" t="b">
         <v>1</v>
@@ -5671,7 +5674,7 @@
       </c>
       <c r="X69" s="96">
         <f t="shared" ref="X69" si="0">X68*12</f>
-        <v>11.231822055114231</v>
+        <v>12.231728164898788</v>
       </c>
       <c r="Z69" t="b">
         <v>1</v>
@@ -5706,8 +5709,8 @@
         <v>87</v>
       </c>
       <c r="X70" s="96">
-        <f>((VLOOKUP(J70,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>1.4624768300929987</v>
+        <f>((VLOOKUP(J70,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>1.5926729381378633</v>
       </c>
       <c r="Z70" t="b">
         <v>1</v>
@@ -5743,7 +5746,7 @@
       </c>
       <c r="X71" s="96">
         <f t="shared" ref="X71" si="1">X70*12</f>
-        <v>17.549721961115985</v>
+        <v>19.112075257654361</v>
       </c>
       <c r="Z71" t="b">
         <v>1</v>
@@ -5778,8 +5781,8 @@
         <v>87</v>
       </c>
       <c r="X72" s="96">
-        <f>((VLOOKUP(J72,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>2.1059666353339179</v>
+        <f>((VLOOKUP(J72,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>2.2934490309185227</v>
       </c>
       <c r="Z72" t="b">
         <v>1</v>
@@ -5815,7 +5818,7 @@
       </c>
       <c r="X73" s="96">
         <f t="shared" ref="X73" si="2">X72*12</f>
-        <v>25.271599624007017</v>
+        <v>27.521388371022272</v>
       </c>
       <c r="Z73" t="b">
         <v>1</v>
@@ -5850,8 +5853,8 @@
         <v>87</v>
       </c>
       <c r="X74" s="96">
-        <f>((VLOOKUP(J74,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>3.7439406850380768</v>
+        <f>((VLOOKUP(J74,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>4.0772427216329294</v>
       </c>
       <c r="Z74" t="b">
         <v>1</v>
@@ -5887,7 +5890,7 @@
       </c>
       <c r="X75" s="96">
         <f t="shared" ref="X75" si="3">X74*12</f>
-        <v>44.927288220456923</v>
+        <v>48.926912659595153</v>
       </c>
       <c r="Z75" t="b">
         <v>1</v>
@@ -5922,8 +5925,8 @@
         <v>87</v>
       </c>
       <c r="X76" s="96">
-        <f>((VLOOKUP(J76,References!$A$31:$B$37,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>5.8499073203719947</v>
+        <f>((VLOOKUP(J76,References!$A$31:$B$37,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>6.370691752551453</v>
       </c>
       <c r="Z76" t="b">
         <v>1</v>
@@ -5959,7 +5962,7 @@
       </c>
       <c r="X77" s="96">
         <f t="shared" ref="X77" si="4">X76*12</f>
-        <v>70.19888784446394</v>
+        <v>76.448301030617444</v>
       </c>
       <c r="Z77" t="b">
         <v>1</v>
@@ -5994,8 +5997,8 @@
         <v>87</v>
       </c>
       <c r="X78" s="96">
-        <f>((VLOOKUP(J78,References!$A$31:$B$37,2,0)/2)^2)*PI()*5.45*Prices!$D$103*0.5</f>
-        <v>8.4238665413356717</v>
+        <f>((VLOOKUP(J78,References!$A$31:$B$37,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
+        <v>9.1737961236740908</v>
       </c>
       <c r="Z78" t="b">
         <v>1</v>
@@ -6031,7 +6034,7 @@
       </c>
       <c r="X79" s="96">
         <f t="shared" ref="X79" si="5">X78*12</f>
-        <v>101.08639849602807</v>
+        <v>110.08555348408909</v>
       </c>
       <c r="Z79" t="b">
         <v>1</v>
@@ -6085,7 +6088,7 @@
       </c>
       <c r="X80" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z80" t="b">
         <v>1</v>
@@ -6133,7 +6136,7 @@
       </c>
       <c r="X81" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z81" t="b">
         <v>1</v>
@@ -6166,7 +6169,7 @@
       </c>
       <c r="X82" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z82" t="b">
         <v>1</v>
@@ -6199,7 +6202,7 @@
       </c>
       <c r="X83" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z83" t="b">
         <v>1</v>
@@ -6232,7 +6235,7 @@
       </c>
       <c r="X84" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z84" t="b">
         <v>1</v>
@@ -6265,7 +6268,7 @@
       </c>
       <c r="X85" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z85" t="b">
         <v>1</v>
@@ -6298,7 +6301,7 @@
       </c>
       <c r="X86" s="97">
         <f>Prices!$D$83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="Z86" t="b">
         <v>1</v>
@@ -10181,9 +10184,9 @@
       <c r="W183" t="s">
         <v>87</v>
       </c>
-      <c r="X183" s="97" t="e">
-        <f>((VLOOKUP(#REF!,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$J$10*114.844</f>
-        <v>#REF!</v>
+      <c r="X183" s="97">
+        <f>((VLOOKUP(J183,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$J$10*114.844</f>
+        <v>11.364981601329283</v>
       </c>
       <c r="Z183" t="b">
         <v>1</v>
@@ -10232,9 +10235,9 @@
       <c r="W184" t="s">
         <v>87</v>
       </c>
-      <c r="X184" s="97" t="e">
-        <f>((VLOOKUP(#REF!,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$J$10*114.844</f>
-        <v>#REF!</v>
+      <c r="X184" s="97">
+        <f>((VLOOKUP(J184,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$J$10*114.844</f>
+        <v>11.364981601329283</v>
       </c>
       <c r="Z184" t="b">
         <v>1</v>
@@ -10302,8 +10305,8 @@
         <v>87</v>
       </c>
       <c r="X185" s="97">
-        <f>((VLOOKUP(J185,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>83.198681889735013</v>
+        <f>((VLOOKUP(J185,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>90.605393814065081</v>
       </c>
       <c r="Z185" t="b">
         <v>1</v>
@@ -10356,8 +10359,8 @@
         <v>87</v>
       </c>
       <c r="X186" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z186" t="b">
         <v>1</v>
@@ -10395,8 +10398,8 @@
         <v>87</v>
       </c>
       <c r="X187" s="97">
-        <f>((VLOOKUP(J187,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>83.198681889735013</v>
+        <f>((VLOOKUP(J187,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>90.605393814065081</v>
       </c>
       <c r="Z187" t="b">
         <v>1</v>
@@ -10434,8 +10437,8 @@
         <v>87</v>
       </c>
       <c r="X188" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z188" t="b">
         <v>1</v>
@@ -10473,8 +10476,8 @@
         <v>87</v>
       </c>
       <c r="X189" s="97">
-        <f>((VLOOKUP(J189,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>50.780445489340224</v>
+        <f>((VLOOKUP(J189,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>55.301143685342467</v>
       </c>
       <c r="Z189" t="b">
         <v>1</v>
@@ -10512,8 +10515,8 @@
         <v>87</v>
       </c>
       <c r="X190" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z190" t="b">
         <v>1</v>
@@ -10551,8 +10554,8 @@
         <v>87</v>
       </c>
       <c r="X191" s="97">
-        <f>((VLOOKUP(J191,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>50.780445489340224</v>
+        <f>((VLOOKUP(J191,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>55.301143685342467</v>
       </c>
       <c r="Z191" t="b">
         <v>1</v>
@@ -10590,8 +10593,8 @@
         <v>87</v>
       </c>
       <c r="X192" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z192" t="b">
         <v>1</v>
@@ -10629,8 +10632,8 @@
         <v>87</v>
       </c>
       <c r="X193" s="97">
-        <f>((VLOOKUP(J193,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>32.499485113177748</v>
+        <f>((VLOOKUP(J193,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>35.39273195861918</v>
       </c>
       <c r="Z193" t="b">
         <v>1</v>
@@ -10668,8 +10671,8 @@
         <v>87</v>
       </c>
       <c r="X194" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z194" t="b">
         <v>1</v>
@@ -10707,8 +10710,8 @@
         <v>87</v>
       </c>
       <c r="X195" s="97">
-        <f>((VLOOKUP(J195,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>32.499485113177748</v>
+        <f>((VLOOKUP(J195,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>35.39273195861918</v>
       </c>
       <c r="Z195" t="b">
         <v>1</v>
@@ -10746,8 +10749,8 @@
         <v>87</v>
       </c>
       <c r="X196" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z196" t="b">
         <v>1</v>
@@ -10785,8 +10788,8 @@
         <v>87</v>
       </c>
       <c r="X197" s="97">
-        <f>((VLOOKUP(J197,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>26.324582941673974</v>
+        <f>((VLOOKUP(J197,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>28.668112886481531</v>
       </c>
       <c r="Z197" t="b">
         <v>1</v>
@@ -10824,8 +10827,8 @@
         <v>87</v>
       </c>
       <c r="X198" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z198" t="b">
         <v>1</v>
@@ -10863,8 +10866,8 @@
         <v>87</v>
       </c>
       <c r="X199" s="97">
-        <f>((VLOOKUP(J199,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>26.324582941673974</v>
+        <f>((VLOOKUP(J199,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>28.668112886481531</v>
       </c>
       <c r="Z199" t="b">
         <v>1</v>
@@ -10902,8 +10905,8 @@
         <v>87</v>
       </c>
       <c r="X200" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z200" t="b">
         <v>1</v>
@@ -10941,8 +10944,8 @@
         <v>87</v>
       </c>
       <c r="X201" s="97">
-        <f>((VLOOKUP(J201,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>20.799670472433753</v>
+        <f>((VLOOKUP(J201,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>22.65134845351627</v>
       </c>
       <c r="Z201" t="b">
         <v>1</v>
@@ -10980,8 +10983,8 @@
         <v>87</v>
       </c>
       <c r="X202" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z202" t="b">
         <v>1</v>
@@ -11019,8 +11022,8 @@
         <v>87</v>
       </c>
       <c r="X203" s="97">
-        <f>((VLOOKUP(J203,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>20.799670472433753</v>
+        <f>((VLOOKUP(J203,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>22.65134845351627</v>
       </c>
       <c r="Z203" t="b">
         <v>1</v>
@@ -11058,8 +11061,8 @@
         <v>87</v>
       </c>
       <c r="X204" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z204" t="b">
         <v>1</v>
@@ -11097,8 +11100,8 @@
         <v>87</v>
       </c>
       <c r="X205" s="97">
-        <f>((VLOOKUP(J205,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>15.924747705457095</v>
+        <f>((VLOOKUP(J205,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>17.342438659723399</v>
       </c>
       <c r="Z205" t="b">
         <v>1</v>
@@ -11136,8 +11139,8 @@
         <v>87</v>
       </c>
       <c r="X206" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z206" t="b">
         <v>1</v>
@@ -11175,8 +11178,8 @@
         <v>87</v>
       </c>
       <c r="X207" s="97">
-        <f>((VLOOKUP(J207,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>15.924747705457095</v>
+        <f>((VLOOKUP(J207,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>17.342438659723399</v>
       </c>
       <c r="Z207" t="b">
         <v>1</v>
@@ -11214,8 +11217,8 @@
         <v>87</v>
       </c>
       <c r="X208" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z208" t="b">
         <v>1</v>
@@ -11253,8 +11256,8 @@
         <v>87</v>
       </c>
       <c r="X209" s="97">
-        <f>((VLOOKUP(J209,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>11.699814640743986</v>
+        <f>((VLOOKUP(J209,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>12.741383505102903</v>
       </c>
       <c r="Z209" t="b">
         <v>1</v>
@@ -11292,8 +11295,8 @@
         <v>87</v>
       </c>
       <c r="X210" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z210" t="b">
         <v>1</v>
@@ -11331,8 +11334,8 @@
         <v>87</v>
       </c>
       <c r="X211" s="97">
-        <f>((VLOOKUP(J211,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>11.699814640743986</v>
+        <f>((VLOOKUP(J211,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>12.741383505102903</v>
       </c>
       <c r="Z211" t="b">
         <v>1</v>
@@ -11370,8 +11373,8 @@
         <v>87</v>
       </c>
       <c r="X212" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z212" t="b">
         <v>1</v>
@@ -11409,8 +11412,8 @@
         <v>87</v>
       </c>
       <c r="X213" s="97">
-        <f>((VLOOKUP(J213,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>8.124871278294437</v>
+        <f>((VLOOKUP(J213,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>8.848182989654795</v>
       </c>
       <c r="Z213" t="b">
         <v>1</v>
@@ -11448,8 +11451,8 @@
         <v>87</v>
       </c>
       <c r="X214" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z214" t="b">
         <v>1</v>
@@ -11487,8 +11490,8 @@
         <v>87</v>
       </c>
       <c r="X215" s="97">
-        <f>((VLOOKUP(J215,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>8.124871278294437</v>
+        <f>((VLOOKUP(J215,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>8.848182989654795</v>
       </c>
       <c r="Z215" t="b">
         <v>1</v>
@@ -11526,8 +11529,8 @@
         <v>87</v>
       </c>
       <c r="X216" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z216" t="b">
         <v>1</v>
@@ -11565,8 +11568,8 @@
         <v>87</v>
       </c>
       <c r="X217" s="97">
-        <f>((VLOOKUP(J217,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>6.5811457354184935</v>
+        <f>((VLOOKUP(J217,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>7.1670282216203827</v>
       </c>
       <c r="Z217" t="b">
         <v>1</v>
@@ -11604,8 +11607,8 @@
         <v>87</v>
       </c>
       <c r="X218" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z218" t="b">
         <v>1</v>
@@ -11643,8 +11646,8 @@
         <v>87</v>
       </c>
       <c r="X219" s="97">
-        <f>((VLOOKUP(J219,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>6.5811457354184935</v>
+        <f>((VLOOKUP(J219,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>7.1670282216203827</v>
       </c>
       <c r="Z219" t="b">
         <v>1</v>
@@ -11682,8 +11685,8 @@
         <v>87</v>
       </c>
       <c r="X220" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z220" t="b">
         <v>1</v>
@@ -11721,8 +11724,8 @@
         <v>87</v>
       </c>
       <c r="X221" s="97">
-        <f>((VLOOKUP(J221,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>5.1999176181084383</v>
+        <f>((VLOOKUP(J221,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>5.6628371133790676</v>
       </c>
       <c r="Z221" t="b">
         <v>1</v>
@@ -11760,8 +11763,8 @@
         <v>87</v>
       </c>
       <c r="X222" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z222" t="b">
         <v>1</v>
@@ -11799,8 +11802,8 @@
         <v>87</v>
       </c>
       <c r="X223" s="97">
-        <f>((VLOOKUP(J223,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>5.1999176181084383</v>
+        <f>((VLOOKUP(J223,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>5.6628371133790676</v>
       </c>
       <c r="Z223" t="b">
         <v>1</v>
@@ -11838,8 +11841,8 @@
         <v>87</v>
       </c>
       <c r="X224" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z224" t="b">
         <v>1</v>
@@ -11877,8 +11880,8 @@
         <v>87</v>
       </c>
       <c r="X225" s="97">
-        <f>((VLOOKUP(J225,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>3.9811869263642738</v>
+        <f>((VLOOKUP(J225,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>4.3356096649308498</v>
       </c>
       <c r="Z225" t="b">
         <v>1</v>
@@ -11916,8 +11919,8 @@
         <v>87</v>
       </c>
       <c r="X226" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z226" t="b">
         <v>1</v>
@@ -11955,8 +11958,8 @@
         <v>87</v>
       </c>
       <c r="X227" s="97">
-        <f>((VLOOKUP(J227,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>3.9811869263642738</v>
+        <f>((VLOOKUP(J227,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>4.3356096649308498</v>
       </c>
       <c r="Z227" t="b">
         <v>1</v>
@@ -11994,8 +11997,8 @@
         <v>87</v>
       </c>
       <c r="X228" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z228" t="b">
         <v>1</v>
@@ -12033,8 +12036,8 @@
         <v>87</v>
       </c>
       <c r="X229" s="97">
-        <f>((VLOOKUP(J229,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>2.9249536601859965</v>
+        <f>((VLOOKUP(J229,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>3.1853458762757256</v>
       </c>
       <c r="Z229" t="b">
         <v>1</v>
@@ -12072,8 +12075,8 @@
         <v>87</v>
       </c>
       <c r="X230" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z230" t="b">
         <v>1</v>
@@ -12111,8 +12114,8 @@
         <v>87</v>
       </c>
       <c r="X231" s="97">
-        <f>((VLOOKUP(J231,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>2.9249536601859965</v>
+        <f>((VLOOKUP(J231,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>3.1853458762757256</v>
       </c>
       <c r="Z231" t="b">
         <v>1</v>
@@ -12150,8 +12153,8 @@
         <v>87</v>
       </c>
       <c r="X232" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z232" t="b">
         <v>1</v>
@@ -12189,8 +12192,8 @@
         <v>87</v>
       </c>
       <c r="X233" s="97">
-        <f>((VLOOKUP(J233,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>2.0312178195736093</v>
+        <f>((VLOOKUP(J233,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>2.2120457474136987</v>
       </c>
       <c r="Z233" t="b">
         <v>1</v>
@@ -12228,8 +12231,8 @@
         <v>87</v>
       </c>
       <c r="X234" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z234" t="b">
         <v>1</v>
@@ -12267,8 +12270,8 @@
         <v>87</v>
       </c>
       <c r="X235" s="97">
-        <f>((VLOOKUP(J235,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>2.0312178195736093</v>
+        <f>((VLOOKUP(J235,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>2.2120457474136987</v>
       </c>
       <c r="Z235" t="b">
         <v>1</v>
@@ -12306,8 +12309,8 @@
         <v>87</v>
       </c>
       <c r="X236" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z236" t="b">
         <v>1</v>
@@ -12345,8 +12348,8 @@
         <v>87</v>
       </c>
       <c r="X237" s="97">
-        <f>((VLOOKUP(J237,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>1.2999794045271096</v>
+        <f>((VLOOKUP(J237,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>1.4157092783447669</v>
       </c>
       <c r="Z237" t="b">
         <v>1</v>
@@ -12384,8 +12387,8 @@
         <v>87</v>
       </c>
       <c r="X238" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z238" t="b">
         <v>1</v>
@@ -12423,8 +12426,8 @@
         <v>87</v>
       </c>
       <c r="X239" s="97">
-        <f>((VLOOKUP(J239,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>1.2999794045271096</v>
+        <f>((VLOOKUP(J239,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>1.4157092783447669</v>
       </c>
       <c r="Z239" t="b">
         <v>1</v>
@@ -12462,8 +12465,8 @@
         <v>87</v>
       </c>
       <c r="X240" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z240" t="b">
         <v>1</v>
@@ -12501,8 +12504,8 @@
         <v>87</v>
       </c>
       <c r="X241" s="97">
-        <f>((VLOOKUP(J241,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.73123841504649911</v>
+        <f>((VLOOKUP(J241,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.79633646906893141</v>
       </c>
       <c r="Z241" t="b">
         <v>1</v>
@@ -12540,8 +12543,8 @@
         <v>87</v>
       </c>
       <c r="X242" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z242" t="b">
         <v>1</v>
@@ -12579,8 +12582,8 @@
         <v>87</v>
       </c>
       <c r="X243" s="97">
-        <f>((VLOOKUP(J243,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.73123841504649911</v>
+        <f>((VLOOKUP(J243,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.79633646906893141</v>
       </c>
       <c r="Z243" t="b">
         <v>1</v>
@@ -12618,8 +12621,8 @@
         <v>87</v>
       </c>
       <c r="X244" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z244" t="b">
         <v>1</v>
@@ -12657,8 +12660,8 @@
         <v>87</v>
       </c>
       <c r="X245" s="97">
-        <f>((VLOOKUP(J245,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.63698990821828383</v>
+        <f>((VLOOKUP(J245,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.6936975463889361</v>
       </c>
       <c r="Z245" t="b">
         <v>1</v>
@@ -12696,8 +12699,8 @@
         <v>87</v>
       </c>
       <c r="X246" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z246" t="b">
         <v>1</v>
@@ -12735,8 +12738,8 @@
         <v>87</v>
       </c>
       <c r="X247" s="97">
-        <f>((VLOOKUP(J247,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.63698990821828383</v>
+        <f>((VLOOKUP(J247,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.6936975463889361</v>
       </c>
       <c r="Z247" t="b">
         <v>1</v>
@@ -12774,8 +12777,8 @@
         <v>87</v>
       </c>
       <c r="X248" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z248" t="b">
         <v>1</v>
@@ -12813,8 +12816,8 @@
         <v>87</v>
       </c>
       <c r="X249" s="97">
-        <f>((VLOOKUP(J249,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.46799258562975948</v>
+        <f>((VLOOKUP(J249,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.50965534020411618</v>
       </c>
       <c r="Z249" t="b">
         <v>1</v>
@@ -12852,8 +12855,8 @@
         <v>87</v>
       </c>
       <c r="X250" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z250" t="b">
         <v>1</v>
@@ -12891,8 +12894,8 @@
         <v>87</v>
       </c>
       <c r="X251" s="97">
-        <f>((VLOOKUP(J251,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.46799258562975948</v>
+        <f>((VLOOKUP(J251,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.50965534020411618</v>
       </c>
       <c r="Z251" t="b">
         <v>1</v>
@@ -12930,8 +12933,8 @@
         <v>87</v>
       </c>
       <c r="X252" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z252" t="b">
         <v>1</v>
@@ -12969,8 +12972,8 @@
         <v>87</v>
       </c>
       <c r="X253" s="97">
-        <f>((VLOOKUP(J253,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.3249948511317774</v>
+        <f>((VLOOKUP(J253,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.35392731958619172</v>
       </c>
       <c r="Z253" t="b">
         <v>1</v>
@@ -13008,8 +13011,8 @@
         <v>87</v>
       </c>
       <c r="X254" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z254" t="b">
         <v>1</v>
@@ -13047,8 +13050,8 @@
         <v>87</v>
       </c>
       <c r="X255" s="97">
-        <f>((VLOOKUP(J255,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$109*5.45*12</f>
-        <v>0.3249948511317774</v>
+        <f>((VLOOKUP(J255,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
+        <v>0.35392731958619172</v>
       </c>
       <c r="Z255" t="b">
         <v>1</v>
@@ -13086,8 +13089,8 @@
         <v>87</v>
       </c>
       <c r="X256" s="97">
-        <f>Prices!$D$109</f>
-        <v>63.271604938271601</v>
+        <f>Prices!$D$110</f>
+        <v>68.904320987654316</v>
       </c>
       <c r="Z256" t="b">
         <v>1</v>
@@ -13152,8 +13155,8 @@
         <v>87</v>
       </c>
       <c r="X257" s="97">
-        <f>((VLOOKUP(J257,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>0.34955385364366698</v>
+        <f>((VLOOKUP(J257,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>0.38067267232170077</v>
       </c>
       <c r="Z257" t="b">
         <v>1</v>
@@ -13206,8 +13209,8 @@
         <v>87</v>
       </c>
       <c r="X258" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z258" t="b">
         <v>1</v>
@@ -13245,8 +13248,8 @@
         <v>87</v>
       </c>
       <c r="X259" s="97">
-        <f>((VLOOKUP(J259,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>0.50335754924688036</v>
+        <f>((VLOOKUP(J259,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>0.54816864814324906</v>
       </c>
       <c r="Z259" t="b">
         <v>1</v>
@@ -13284,8 +13287,8 @@
         <v>87</v>
       </c>
       <c r="X260" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z260" t="b">
         <v>1</v>
@@ -13323,8 +13326,8 @@
         <v>87</v>
       </c>
       <c r="X261" s="97">
-        <f>((VLOOKUP(J261,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>0.78649617069825062</v>
+        <f>((VLOOKUP(J261,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>0.85651351272382659</v>
       </c>
       <c r="Z261" t="b">
         <v>1</v>
@@ -13362,8 +13365,8 @@
         <v>87</v>
       </c>
       <c r="X262" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z262" t="b">
         <v>1</v>
@@ -13401,8 +13404,8 @@
         <v>87</v>
       </c>
       <c r="X263" s="97">
-        <f>((VLOOKUP(J263,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>1.3982154145746679</v>
+        <f>((VLOOKUP(J263,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>1.5226906892868031</v>
       </c>
       <c r="Z263" t="b">
         <v>1</v>
@@ -13440,8 +13443,8 @@
         <v>87</v>
       </c>
       <c r="X264" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z264" t="b">
         <v>1</v>
@@ -13479,8 +13482,8 @@
         <v>87</v>
       </c>
       <c r="X265" s="97">
-        <f>((VLOOKUP(J265,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>2.1847115852729191</v>
+        <f>((VLOOKUP(J265,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>2.3792042020106297</v>
       </c>
       <c r="Z265" t="b">
         <v>1</v>
@@ -13518,8 +13521,8 @@
         <v>87</v>
       </c>
       <c r="X266" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z266" t="b">
         <v>1</v>
@@ -13557,8 +13560,8 @@
         <v>87</v>
       </c>
       <c r="X267" s="97">
-        <f>((VLOOKUP(J267,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>3.1459846827930025</v>
+        <f>((VLOOKUP(J267,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>3.4260540508953063</v>
       </c>
       <c r="Z267" t="b">
         <v>1</v>
@@ -13596,8 +13599,8 @@
         <v>87</v>
       </c>
       <c r="X268" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z268" t="b">
         <v>1</v>
@@ -13635,8 +13638,8 @@
         <v>87</v>
       </c>
       <c r="X269" s="97">
-        <f>((VLOOKUP(J269,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>5.5928616582986717</v>
+        <f>((VLOOKUP(J269,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>6.0907627571472123</v>
       </c>
       <c r="Z269" t="b">
         <v>1</v>
@@ -13674,8 +13677,8 @@
         <v>87</v>
       </c>
       <c r="X270" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z270" t="b">
         <v>1</v>
@@ -13713,8 +13716,8 @@
         <v>87</v>
       </c>
       <c r="X271" s="97">
-        <f>((VLOOKUP(J271,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>8.7388463410916764</v>
+        <f>((VLOOKUP(J271,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>9.5168168080425186</v>
       </c>
       <c r="Z271" t="b">
         <v>1</v>
@@ -13752,8 +13755,8 @@
         <v>87</v>
       </c>
       <c r="X272" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z272" t="b">
         <v>1</v>
@@ -13791,8 +13794,8 @@
         <v>87</v>
       </c>
       <c r="X273" s="97">
-        <f>((VLOOKUP(J273,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>12.58393873117201</v>
+        <f>((VLOOKUP(J273,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>13.704216203581225</v>
       </c>
       <c r="Z273" t="b">
         <v>1</v>
@@ -13830,8 +13833,8 @@
         <v>87</v>
       </c>
       <c r="X274" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z274" t="b">
         <v>1</v>
@@ -13869,8 +13872,8 @@
         <v>87</v>
       </c>
       <c r="X275" s="97">
-        <f>((VLOOKUP(J275,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>22.371446633194687</v>
+        <f>((VLOOKUP(J275,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>24.363051028588849</v>
       </c>
       <c r="Z275" t="b">
         <v>1</v>
@@ -13908,8 +13911,8 @@
         <v>87</v>
       </c>
       <c r="X276" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z276" t="b">
         <v>1</v>
@@ -13947,8 +13950,8 @@
         <v>87</v>
       </c>
       <c r="X277" s="97">
-        <f>((VLOOKUP(J277,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>34.955385364366705</v>
+        <f>((VLOOKUP(J277,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>38.067267232170074</v>
       </c>
       <c r="Z277" t="b">
         <v>1</v>
@@ -13986,8 +13989,8 @@
         <v>87</v>
       </c>
       <c r="X278" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z278" t="b">
         <v>1</v>
@@ -14025,8 +14028,8 @@
         <v>87</v>
       </c>
       <c r="X279" s="97">
-        <f>((VLOOKUP(J279,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>54.617789631822966</v>
+        <f>((VLOOKUP(J279,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>59.480105050265735</v>
       </c>
       <c r="Z279" t="b">
         <v>1</v>
@@ -14064,8 +14067,8 @@
         <v>87</v>
       </c>
       <c r="X280" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z280" t="b">
         <v>1</v>
@@ -14103,8 +14106,8 @@
         <v>87</v>
       </c>
       <c r="X281" s="97">
-        <f>((VLOOKUP(J281,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$109*5.5*12</f>
-        <v>89.485786532778747</v>
+        <f>((VLOOKUP(J281,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
+        <v>97.452204114355396</v>
       </c>
       <c r="Z281" t="b">
         <v>1</v>
@@ -14142,8 +14145,8 @@
         <v>87</v>
       </c>
       <c r="X282" s="97">
-        <f>Prices!$G$109</f>
-        <v>67.434210526315795</v>
+        <f>Prices!$G$110</f>
+        <v>73.4375</v>
       </c>
       <c r="Z282" t="b">
         <v>1</v>
@@ -21605,8 +21608,9 @@
       <c r="W479" t="s">
         <v>87</v>
       </c>
-      <c r="X479">
-        <v>11.75</v>
+      <c r="X479" s="96">
+        <f>Prices!$D$97/4</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z479" t="b">
         <v>1</v>
@@ -21655,8 +21659,9 @@
       <c r="W480" t="s">
         <v>87</v>
       </c>
-      <c r="X480">
-        <v>11.75</v>
+      <c r="X480" s="96">
+        <f>Prices!$D$97/4</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z480" t="b">
         <v>1</v>
@@ -21690,8 +21695,9 @@
       <c r="W481" t="s">
         <v>87</v>
       </c>
-      <c r="X481">
-        <v>11.75</v>
+      <c r="X481" s="96">
+        <f>Prices!$D$97/4</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z481" t="b">
         <v>1</v>
@@ -21722,8 +21728,9 @@
       <c r="W482" t="s">
         <v>87</v>
       </c>
-      <c r="X482">
-        <v>11.75</v>
+      <c r="X482" s="96">
+        <f>Prices!$D$97/4</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z482" t="b">
         <v>1</v>
@@ -21778,8 +21785,9 @@
       <c r="W483" t="s">
         <v>87</v>
       </c>
-      <c r="X483">
-        <v>30</v>
+      <c r="X483" s="96">
+        <f>Prices!$D$100</f>
+        <v>38.399000000000001</v>
       </c>
       <c r="Z483" t="b">
         <v>1</v>
@@ -21834,8 +21842,9 @@
       <c r="W484" t="s">
         <v>87</v>
       </c>
-      <c r="X484">
-        <v>30</v>
+      <c r="X484" s="96">
+        <f>Prices!$D$100</f>
+        <v>38.399000000000001</v>
       </c>
       <c r="Z484" t="b">
         <v>1</v>
@@ -21881,8 +21890,9 @@
       <c r="W485" t="s">
         <v>87</v>
       </c>
-      <c r="X485">
-        <v>30</v>
+      <c r="X485" s="96">
+        <f>Prices!$D$100</f>
+        <v>38.399000000000001</v>
       </c>
       <c r="Z485" t="b">
         <v>1</v>
@@ -21928,8 +21938,9 @@
       <c r="W486" t="s">
         <v>87</v>
       </c>
-      <c r="X486">
-        <v>30</v>
+      <c r="X486" s="96">
+        <f>Prices!$D$100</f>
+        <v>38.399000000000001</v>
       </c>
       <c r="Z486" t="b">
         <v>1</v>
@@ -21996,8 +22007,9 @@
       <c r="W487" t="s">
         <v>87</v>
       </c>
-      <c r="X487">
-        <v>13.85</v>
+      <c r="X487" s="96">
+        <f>Prices!$D$101</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z487" t="b">
         <v>1</v>
@@ -22049,8 +22061,9 @@
       <c r="W488" t="s">
         <v>87</v>
       </c>
-      <c r="X488">
-        <v>13.85</v>
+      <c r="X488" s="96">
+        <f>Prices!$D$101</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z488" t="b">
         <v>1</v>
@@ -22096,8 +22109,9 @@
       <c r="W489" t="s">
         <v>87</v>
       </c>
-      <c r="X489">
-        <v>13.85</v>
+      <c r="X489" s="96">
+        <f>Prices!$D$101</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z489" t="b">
         <v>1</v>
@@ -22143,8 +22157,9 @@
       <c r="W490" t="s">
         <v>87</v>
       </c>
-      <c r="X490">
-        <v>13.85</v>
+      <c r="X490" s="96">
+        <f>Prices!$D$101</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z490" t="b">
         <v>1</v>
@@ -22190,8 +22205,9 @@
       <c r="W491" t="s">
         <v>87</v>
       </c>
-      <c r="X491">
-        <v>13.85</v>
+      <c r="X491" s="96">
+        <f>Prices!$D$101</f>
+        <v>16.185624999999998</v>
       </c>
       <c r="Z491" t="b">
         <v>1</v>
@@ -22249,8 +22265,9 @@
       <c r="W492" t="s">
         <v>87</v>
       </c>
-      <c r="X492">
-        <v>2.8</v>
+      <c r="X492" s="96">
+        <f>Prices!$D$98/20</f>
+        <v>3.2817749999999997</v>
       </c>
       <c r="Z492" t="b">
         <v>1</v>
@@ -22302,8 +22319,9 @@
       <c r="W493" t="s">
         <v>87</v>
       </c>
-      <c r="X493">
-        <v>2.8</v>
+      <c r="X493" s="96">
+        <f>Prices!$D$98/20</f>
+        <v>3.2817749999999997</v>
       </c>
       <c r="Z493" t="b">
         <v>1</v>
@@ -22337,8 +22355,9 @@
       <c r="W494" t="s">
         <v>87</v>
       </c>
-      <c r="X494">
-        <v>2.8</v>
+      <c r="X494" s="96">
+        <f>Prices!$D$98/20</f>
+        <v>3.2817749999999997</v>
       </c>
       <c r="Z494" t="b">
         <v>1</v>
@@ -22372,8 +22391,9 @@
       <c r="W495" t="s">
         <v>87</v>
       </c>
-      <c r="X495">
-        <v>2.8</v>
+      <c r="X495" s="96">
+        <f>Prices!$D$98/20</f>
+        <v>3.2817749999999997</v>
       </c>
       <c r="Z495" t="b">
         <v>1</v>
@@ -22393,15 +22413,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310996A3-8FC1-45CA-AE18-6F469C01E001}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A90" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="12.5" style="2"/>
+    <col min="1" max="2" width="12.5" style="2"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23">
@@ -22458,7 +22480,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12">
-        <v>41</v>
+        <v>44.65</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="13" t="s">
@@ -22471,7 +22493,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="12">
         <f>D5/L5</f>
-        <v>25.153374233128837</v>
+        <v>27.392638036809817</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>255</v>
@@ -23636,7 +23658,7 @@
       </c>
       <c r="C64" s="69">
         <f>D5</f>
-        <v>41</v>
+        <v>44.65</v>
       </c>
       <c r="D64" s="68" t="s">
         <v>253</v>
@@ -23649,7 +23671,7 @@
       </c>
       <c r="G64" s="69">
         <f>C64/H64</f>
-        <v>25.153374233128837</v>
+        <v>27.392638036809817</v>
       </c>
       <c r="H64" s="70">
         <v>1.63</v>
@@ -23729,7 +23751,7 @@
       <c r="C69" s="77"/>
       <c r="D69" s="77">
         <f>D5/H69</f>
-        <v>62.121212121212118</v>
+        <v>67.651515151515142</v>
       </c>
       <c r="E69" s="76"/>
       <c r="F69" s="76" t="s">
@@ -23737,7 +23759,7 @@
       </c>
       <c r="G69" s="78">
         <f>D5/I69</f>
-        <v>66.129032258064512</v>
+        <v>72.016129032258064</v>
       </c>
       <c r="H69" s="79">
         <v>0.66</v>
@@ -23766,7 +23788,7 @@
       <c r="C70" s="77"/>
       <c r="D70" s="77">
         <f>C64/H70</f>
-        <v>55.646036916395225</v>
+        <v>60.599891422366987</v>
       </c>
       <c r="E70" s="76"/>
       <c r="F70" s="76" t="s">
@@ -23774,7 +23796,7 @@
       </c>
       <c r="G70" s="78">
         <f>C64/I70</f>
-        <v>61.111939186167831</v>
+        <v>66.552392308838861</v>
       </c>
       <c r="H70" s="79">
         <v>0.73680000000000001</v>
@@ -23790,7 +23812,7 @@
       <c r="C71" s="77"/>
       <c r="D71" s="77">
         <f>C64/H71</f>
-        <v>55.405405405405403</v>
+        <v>60.337837837837839</v>
       </c>
       <c r="E71" s="76"/>
       <c r="F71" s="76" t="s">
@@ -23798,7 +23820,7 @@
       </c>
       <c r="G71" s="78">
         <f>C64/I71</f>
-        <v>60.311856428361288</v>
+        <v>65.681082671373929</v>
       </c>
       <c r="H71" s="79">
         <v>0.74</v>
@@ -23814,7 +23836,7 @@
       <c r="C72" s="77"/>
       <c r="D72" s="77">
         <f>C64/H72</f>
-        <v>54.018445322793148</v>
+        <v>58.827404479578391</v>
       </c>
       <c r="E72" s="76"/>
       <c r="F72" s="76" t="s">
@@ -23822,7 +23844,7 @@
       </c>
       <c r="G72" s="78">
         <f>C64/I72</f>
-        <v>56.164383561643838</v>
+        <v>61.164383561643838</v>
       </c>
       <c r="H72" s="79">
         <v>0.75900000000000001</v>
@@ -23887,7 +23909,7 @@
       </c>
       <c r="C78" s="85">
         <f>D5</f>
-        <v>41</v>
+        <v>44.65</v>
       </c>
       <c r="D78" s="84"/>
       <c r="E78" s="84" t="s">
@@ -23898,7 +23920,7 @@
       </c>
       <c r="G78" s="85">
         <f>C78/H78</f>
-        <v>25.153374233128837</v>
+        <v>27.392638036809817</v>
       </c>
       <c r="H78" s="83">
         <v>1.63</v>
@@ -23940,7 +23962,7 @@
       <c r="C81" s="92"/>
       <c r="D81" s="92">
         <f>C78/H81</f>
-        <v>78.84615384615384</v>
+        <v>85.865384615384613</v>
       </c>
       <c r="E81" s="92"/>
       <c r="F81" s="91" t="s">
@@ -23964,7 +23986,7 @@
       <c r="C82" s="92"/>
       <c r="D82" s="92">
         <f>C78/H82</f>
-        <v>75.925925925925924</v>
+        <v>82.685185185185176</v>
       </c>
       <c r="E82" s="91"/>
       <c r="F82" s="91" t="s">
@@ -23988,7 +24010,7 @@
       <c r="C83" s="92"/>
       <c r="D83" s="92">
         <f>C78/H83</f>
-        <v>77.35849056603773</v>
+        <v>84.245283018867923</v>
       </c>
       <c r="E83" s="91"/>
       <c r="F83" s="91" t="s">
@@ -24012,7 +24034,7 @@
       <c r="C84" s="92"/>
       <c r="D84" s="92">
         <f>C78/H84</f>
-        <v>78.84615384615384</v>
+        <v>85.865384615384613</v>
       </c>
       <c r="E84" s="91"/>
       <c r="F84" s="91" t="s">
@@ -24036,7 +24058,7 @@
       <c r="C85" s="92"/>
       <c r="D85" s="92">
         <f>C78/H85</f>
-        <v>95.348837209302332</v>
+        <v>103.83720930232558</v>
       </c>
       <c r="E85" s="91"/>
       <c r="F85" s="91" t="s">
@@ -24060,7 +24082,7 @@
       <c r="C86" s="92"/>
       <c r="D86" s="92">
         <f>C78/H86</f>
-        <v>78.84615384615384</v>
+        <v>85.865384615384613</v>
       </c>
       <c r="E86" s="91"/>
       <c r="F86" s="91"/>
@@ -24077,7 +24099,7 @@
       <c r="C87" s="92"/>
       <c r="D87" s="92">
         <f>C78/H87</f>
-        <v>117.14285714285715</v>
+        <v>127.57142857142857</v>
       </c>
       <c r="E87" s="91"/>
       <c r="F87" s="91"/>
@@ -24094,7 +24116,7 @@
       <c r="C88" s="92"/>
       <c r="D88" s="92">
         <f>C78/H88</f>
-        <v>120.58823529411764</v>
+        <v>131.3235294117647</v>
       </c>
       <c r="E88" s="91"/>
       <c r="F88" s="91"/>
@@ -24133,7 +24155,7 @@
       <c r="C91" s="92"/>
       <c r="D91" s="92">
         <f>C78/H91</f>
-        <v>70.689655172413794</v>
+        <v>76.982758620689651</v>
       </c>
       <c r="E91" s="91"/>
       <c r="F91" s="91" t="s">
@@ -24141,7 +24163,7 @@
       </c>
       <c r="G91" s="93">
         <f>C78/I91</f>
-        <v>49.787492410443228</v>
+        <v>54.219793564055855</v>
       </c>
       <c r="H91" s="94">
         <v>0.57999999999999996</v>
@@ -24164,7 +24186,7 @@
       </c>
       <c r="G92" s="93">
         <f>C78/I92</f>
-        <v>48.606994665085949</v>
+        <v>52.934202726733844</v>
       </c>
       <c r="H92" s="94"/>
       <c r="I92">
@@ -24185,7 +24207,7 @@
       </c>
       <c r="G93" s="93">
         <f>C78/I93</f>
-        <v>45.687541787385783</v>
+        <v>49.754847336750615</v>
       </c>
       <c r="H93" s="94"/>
       <c r="I93">
@@ -24226,13 +24248,14 @@
       <c r="H96" s="94"/>
       <c r="I96"/>
     </row>
-    <row r="97" spans="2:9" ht="18">
+    <row r="97" spans="2:10" ht="18">
       <c r="B97" s="91" t="s">
         <v>330</v>
       </c>
       <c r="C97" s="92"/>
       <c r="D97" s="92">
-        <v>46.75</v>
+        <f>$D$5*J97</f>
+        <v>64.742499999999993</v>
       </c>
       <c r="E97" s="91"/>
       <c r="F97" s="91" t="s">
@@ -24240,7 +24263,7 @@
       </c>
       <c r="G97" s="93">
         <f>C78/I97</f>
-        <v>52.564102564102562</v>
+        <v>57.243589743589737</v>
       </c>
       <c r="H97" s="94">
         <v>0.53500000000000003</v>
@@ -24248,14 +24271,18 @@
       <c r="I97">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" ht="18">
+      <c r="J97" s="2">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="18">
       <c r="B98" s="91" t="s">
         <v>331</v>
       </c>
       <c r="C98" s="92"/>
       <c r="D98" s="92">
-        <v>47</v>
+        <f t="shared" ref="D98:D100" si="0">$D$5*J98</f>
+        <v>65.635499999999993</v>
       </c>
       <c r="E98" s="91"/>
       <c r="F98" s="91" t="s">
@@ -24263,7 +24290,7 @@
       </c>
       <c r="G98" s="93">
         <f>C78/I98</f>
-        <v>50.177456859625501</v>
+        <v>54.644474360543377</v>
       </c>
       <c r="H98" s="94">
         <v>0.53500000000000003</v>
@@ -24271,14 +24298,18 @@
       <c r="I98">
         <v>0.81710000000000005</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" ht="18">
+      <c r="J98" s="91">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="18">
       <c r="B99" s="91" t="s">
         <v>333</v>
       </c>
       <c r="C99" s="92"/>
       <c r="D99" s="92">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>66.528499999999994</v>
       </c>
       <c r="E99" s="91"/>
       <c r="F99" s="91" t="s">
@@ -24286,7 +24317,7 @@
       </c>
       <c r="G99" s="93">
         <f>C78*108%</f>
-        <v>44.28</v>
+        <v>48.222000000000001</v>
       </c>
       <c r="H99" s="94">
         <v>0.23499999999999999</v>
@@ -24294,271 +24325,279 @@
       <c r="I99">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" ht="18">
+      <c r="J99" s="91">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="18">
       <c r="B100" s="91" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="C100" s="92"/>
-      <c r="D100" s="93">
-        <v>12.5</v>
+      <c r="D100" s="92">
+        <f t="shared" si="0"/>
+        <v>38.399000000000001</v>
       </c>
       <c r="E100" s="91"/>
       <c r="F100" s="91"/>
       <c r="G100" s="93"/>
       <c r="H100" s="94"/>
       <c r="I100"/>
-    </row>
-    <row r="101" spans="2:9" ht="18">
-      <c r="B101" s="91"/>
+      <c r="J100" s="91">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" ht="18">
+      <c r="B101" s="91" t="s">
+        <v>335</v>
+      </c>
       <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
+      <c r="D101" s="92">
+        <f>D97/4</f>
+        <v>16.185624999999998</v>
+      </c>
       <c r="E101" s="91"/>
-      <c r="F101" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="G101" s="93">
-        <f>C78/I101</f>
-        <v>68.333333333333343</v>
-      </c>
+      <c r="F101" s="91"/>
+      <c r="G101" s="93"/>
       <c r="H101" s="94"/>
-      <c r="I101" s="94">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="18">
-      <c r="B102" s="91" t="s">
-        <v>337</v>
-      </c>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="2:10" ht="18">
+      <c r="B102" s="91"/>
       <c r="C102" s="92"/>
       <c r="D102" s="92"/>
       <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="93"/>
+      <c r="F102" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="G102" s="93">
+        <f>C78/I102</f>
+        <v>74.416666666666671</v>
+      </c>
       <c r="H102" s="94"/>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="2:9" ht="18">
+      <c r="I102" s="94">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="18">
       <c r="B103" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="94"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="2:10" ht="18">
+      <c r="B104" s="91" t="s">
         <v>300</v>
-      </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92">
-        <f>C78/H103</f>
-        <v>68.333333333333343</v>
-      </c>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="G103" s="93">
-        <f>C78/I103</f>
-        <v>68.333333333333343</v>
-      </c>
-      <c r="H103" s="94">
-        <v>0.6</v>
-      </c>
-      <c r="I103">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="18">
-      <c r="B104" s="91" t="s">
-        <v>303</v>
       </c>
       <c r="C104" s="92"/>
       <c r="D104" s="92">
         <f>C78/H104</f>
-        <v>66.129032258064512</v>
+        <v>74.416666666666671</v>
       </c>
       <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
-      <c r="G104" s="93"/>
+      <c r="F104" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="G104" s="93">
+        <f>C78/I104</f>
+        <v>74.416666666666671</v>
+      </c>
       <c r="H104" s="94">
-        <v>0.62</v>
-      </c>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="2:9" ht="18">
+        <v>0.6</v>
+      </c>
+      <c r="I104">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="18">
       <c r="B105" s="91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C105" s="92"/>
       <c r="D105" s="92">
         <f>C78/H105</f>
-        <v>63.076923076923073</v>
+        <v>72.016129032258064</v>
       </c>
       <c r="E105" s="91"/>
-      <c r="F105" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="G105" s="93">
-        <v>3</v>
-      </c>
+      <c r="F105" s="91"/>
+      <c r="G105" s="93"/>
       <c r="H105" s="94">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="2:9" ht="18">
+    <row r="106" spans="2:10" ht="18">
       <c r="B106" s="91" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="C106" s="92"/>
       <c r="D106" s="92">
         <f>C78/H106</f>
-        <v>59.85401459854014</v>
+        <v>68.692307692307693</v>
       </c>
       <c r="E106" s="91"/>
       <c r="F106" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106" s="93">
+        <v>3</v>
+      </c>
+      <c r="H106" s="94">
+        <v>0.65</v>
+      </c>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="2:10" ht="18">
+      <c r="B107" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92">
+        <f>C78/H107</f>
+        <v>65.18248175182481</v>
+      </c>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91" t="s">
         <v>341</v>
       </c>
-      <c r="G106" s="93">
+      <c r="G107" s="93">
         <v>2</v>
       </c>
-      <c r="H106" s="94">
+      <c r="H107" s="94">
         <v>0.68500000000000005</v>
       </c>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="2:9" ht="18">
-      <c r="B107" s="91"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="93"/>
-      <c r="H107" s="94"/>
       <c r="I107"/>
     </row>
-    <row r="108" spans="2:9" ht="18">
-      <c r="B108" s="91" t="s">
-        <v>297</v>
-      </c>
+    <row r="108" spans="2:10" ht="18">
+      <c r="B108" s="91"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
       <c r="E108" s="91"/>
-      <c r="F108" s="91" t="s">
-        <v>298</v>
-      </c>
+      <c r="F108" s="91"/>
       <c r="G108" s="93"/>
       <c r="H108" s="94"/>
       <c r="I108"/>
     </row>
-    <row r="109" spans="2:9" ht="18">
+    <row r="109" spans="2:10" ht="18">
       <c r="B109" s="91" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C109" s="92"/>
-      <c r="D109" s="92">
-        <f>C78/H109</f>
-        <v>63.271604938271601</v>
-      </c>
+      <c r="D109" s="92"/>
       <c r="E109" s="91"/>
       <c r="F109" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="G109" s="93">
-        <f>C78/I109</f>
-        <v>67.434210526315795</v>
-      </c>
-      <c r="H109" s="94">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="I109">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="18">
+        <v>298</v>
+      </c>
+      <c r="G109" s="93"/>
+      <c r="H109" s="94"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="2:10" ht="18">
       <c r="B110" s="91" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C110" s="92"/>
       <c r="D110" s="92">
         <f>C78/H110</f>
-        <v>61.194029850746269</v>
+        <v>68.904320987654316</v>
       </c>
       <c r="E110" s="91"/>
       <c r="F110" s="91" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G110" s="93">
         <f>C78/I110</f>
-        <v>67.213114754098356</v>
+        <v>73.4375</v>
       </c>
       <c r="H110" s="94">
-        <v>0.67</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="I110">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="18">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="18">
       <c r="B111" s="91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C111" s="92"/>
       <c r="D111" s="92">
         <f>C78/H111</f>
-        <v>59.85401459854014</v>
+        <v>66.641791044776113</v>
       </c>
       <c r="E111" s="91"/>
       <c r="F111" s="91" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G111" s="93">
         <f>C78/I111</f>
-        <v>63.271604938271601</v>
+        <v>73.196721311475414</v>
       </c>
       <c r="H111" s="94">
-        <v>0.68500000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="I111">
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="18">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="18">
       <c r="B112" s="91" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C112" s="92"/>
       <c r="D112" s="92">
         <f>C78/H112</f>
-        <v>59.420289855072468</v>
+        <v>65.18248175182481</v>
       </c>
       <c r="E112" s="91"/>
       <c r="F112" s="91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G112" s="93">
         <f>C78/I112</f>
-        <v>61.194029850746269</v>
+        <v>68.904320987654316</v>
       </c>
       <c r="H112" s="94">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="I112">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="18">
+      <c r="B113" s="91" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92">
+        <f>C78/H113</f>
+        <v>64.710144927536234</v>
+      </c>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91" t="s">
+        <v>307</v>
+      </c>
+      <c r="G113" s="93">
+        <f>C78/I113</f>
+        <v>66.641791044776113</v>
+      </c>
+      <c r="H113" s="94">
         <v>0.69</v>
       </c>
-      <c r="I112">
+      <c r="I113">
         <v>0.67</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113"/>
-      <c r="C113" s="81"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113" s="82"/>
-      <c r="H113" s="83"/>
-      <c r="I113"/>
-    </row>
-    <row r="114" spans="2:9" ht="18">
-      <c r="B114" s="91" t="s">
-        <v>308</v>
-      </c>
+    <row r="114" spans="2:9">
+      <c r="B114"/>
       <c r="C114" s="81"/>
-      <c r="D114" s="91" t="s">
-        <v>309</v>
-      </c>
+      <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" s="82"/>
@@ -24566,9 +24605,13 @@
       <c r="I114"/>
     </row>
     <row r="115" spans="2:9" ht="18">
-      <c r="B115" s="91"/>
+      <c r="B115" s="91" t="s">
+        <v>308</v>
+      </c>
       <c r="C115" s="81"/>
-      <c r="D115" s="95"/>
+      <c r="D115" s="91" t="s">
+        <v>309</v>
+      </c>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" s="82"/>
@@ -24584,6 +24627,16 @@
       <c r="G116" s="82"/>
       <c r="H116" s="83"/>
       <c r="I116"/>
+    </row>
+    <row r="117" spans="2:9" ht="18">
+      <c r="B117" s="91"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="95"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" s="82"/>
+      <c r="H117" s="83"/>
+      <c r="I117"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/your_workbook.xlsx
+++ b/your_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidklein/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35237283-6DD3-DE4D-A2D3-955B951C1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9829669-B0A5-8843-B890-4D847E1C471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{36F495BE-100C-4C23-B769-2E8998AD6DE9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="440">
   <si>
     <t>Handle</t>
   </si>
@@ -1553,6 +1553,12 @@
   </si>
   <si>
     <t xml:space="preserve">PASTE SOLDER </t>
+  </si>
+  <si>
+    <t>Handle material (product.metafields.shopify.handle-material)</t>
+  </si>
+  <si>
+    <t>Blade material (product.metafields.shopify.blade-material)</t>
   </si>
 </sst>
 </file>
@@ -2735,13 +2741,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="142" workbookViewId="0">
-      <selection activeCell="X483" sqref="X483:X486"/>
+    <sheetView tabSelected="1" topLeftCell="BR471" workbookViewId="0">
+      <selection activeCell="CB478" sqref="CB478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81" ht="15" customHeight="1">
+    <row r="1" spans="1:83" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2905,88 +2911,94 @@
         <v>52</v>
       </c>
       <c r="BC1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>377</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="15" customHeight="1">
+    <row r="2" spans="1:83" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -3048,14 +3060,14 @@
       <c r="AI2">
         <v>6102</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC2" t="s">
+      <c r="CB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:81" ht="15" customHeight="1">
+    <row r="3" spans="1:83" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -3087,11 +3099,11 @@
       <c r="AA3" t="b">
         <v>1</v>
       </c>
-      <c r="BZ3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81" ht="15" customHeight="1">
+      <c r="CB3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -3123,11 +3135,11 @@
       <c r="AA4" t="b">
         <v>1</v>
       </c>
-      <c r="BZ4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:81" ht="15" customHeight="1">
+      <c r="CB4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -3159,11 +3171,11 @@
       <c r="AA5" t="b">
         <v>1</v>
       </c>
-      <c r="BZ5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81" ht="15" customHeight="1">
+      <c r="CB5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -3195,11 +3207,11 @@
       <c r="AA6" t="b">
         <v>1</v>
       </c>
-      <c r="BZ6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:81" ht="15" customHeight="1">
+      <c r="CB6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -3231,11 +3243,11 @@
       <c r="AA7" t="b">
         <v>1</v>
       </c>
-      <c r="BZ7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:81" ht="15" customHeight="1">
+      <c r="CB7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -3267,11 +3279,11 @@
       <c r="AA8" t="b">
         <v>1</v>
       </c>
-      <c r="BZ8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:81" ht="15" customHeight="1">
+      <c r="CB8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -3333,14 +3345,14 @@
       <c r="AF9" t="b">
         <v>0</v>
       </c>
-      <c r="BZ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC9" t="s">
+      <c r="CB9" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="15" customHeight="1">
+    <row r="10" spans="1:83" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3369,11 +3381,11 @@
       <c r="AA10" t="b">
         <v>1</v>
       </c>
-      <c r="BZ10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:81" ht="15" customHeight="1">
+      <c r="CB10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -3402,11 +3414,11 @@
       <c r="AA11" t="b">
         <v>1</v>
       </c>
-      <c r="BZ11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:81" ht="15" customHeight="1">
+      <c r="CB11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -3435,11 +3447,11 @@
       <c r="AA12" t="b">
         <v>1</v>
       </c>
-      <c r="BZ12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" ht="15" customHeight="1">
+      <c r="CB12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3501,14 +3513,14 @@
       <c r="AF13" t="b">
         <v>0</v>
       </c>
-      <c r="BZ13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC13" t="s">
+      <c r="CB13" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:81" ht="15" customHeight="1">
+    <row r="14" spans="1:83" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3537,11 +3549,11 @@
       <c r="AA14" t="b">
         <v>1</v>
       </c>
-      <c r="BZ14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:81" ht="15" customHeight="1">
+      <c r="CB14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -3570,11 +3582,11 @@
       <c r="AA15" t="b">
         <v>1</v>
       </c>
-      <c r="BZ15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:81" ht="15" customHeight="1">
+      <c r="CB15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3603,11 +3615,11 @@
       <c r="AA16" t="b">
         <v>1</v>
       </c>
-      <c r="BZ16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:81" ht="15" customHeight="1">
+      <c r="CB16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -3663,14 +3675,14 @@
       <c r="AI17">
         <v>188</v>
       </c>
-      <c r="BZ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC17" t="s">
+      <c r="CB17" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:81" ht="15" customHeight="1">
+    <row r="18" spans="1:83" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -3699,11 +3711,11 @@
       <c r="AA18" t="b">
         <v>1</v>
       </c>
-      <c r="BZ18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:81" ht="15" customHeight="1">
+      <c r="CB18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:83" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -3732,11 +3744,11 @@
       <c r="AA19" t="b">
         <v>1</v>
       </c>
-      <c r="BZ19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:81" ht="15" customHeight="1">
+      <c r="CB19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:83" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3765,11 +3777,11 @@
       <c r="AA20" t="b">
         <v>1</v>
       </c>
-      <c r="BZ20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:81" ht="15" customHeight="1">
+      <c r="CB20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:83" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -3798,11 +3810,11 @@
       <c r="AA21" t="b">
         <v>1</v>
       </c>
-      <c r="BZ21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:81" ht="15" customHeight="1">
+      <c r="CB21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -3858,14 +3870,14 @@
       <c r="AI22">
         <v>188</v>
       </c>
-      <c r="BZ22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC22" t="s">
+      <c r="CB22" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:81" ht="15" customHeight="1">
+    <row r="23" spans="1:83" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -3894,11 +3906,11 @@
       <c r="AA23" t="b">
         <v>1</v>
       </c>
-      <c r="BZ23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:81" ht="15" customHeight="1">
+      <c r="CB23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:83" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -3927,11 +3939,11 @@
       <c r="AA24" t="b">
         <v>1</v>
       </c>
-      <c r="BZ24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:81" ht="15" customHeight="1">
+      <c r="CB24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -3960,11 +3972,11 @@
       <c r="AA25" t="b">
         <v>1</v>
       </c>
-      <c r="BZ25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:81" ht="15" customHeight="1">
+      <c r="CB25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -3993,11 +4005,11 @@
       <c r="AA26" t="b">
         <v>1</v>
       </c>
-      <c r="BZ26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:81" ht="15" customHeight="1">
+      <c r="CB26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -4062,14 +4074,14 @@
       <c r="AI27">
         <v>188</v>
       </c>
-      <c r="BZ27" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC27" t="s">
+      <c r="CB27" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:81" ht="15" customHeight="1">
+    <row r="28" spans="1:83" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -4098,11 +4110,11 @@
       <c r="AA28" t="b">
         <v>1</v>
       </c>
-      <c r="BZ28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:81" ht="15" customHeight="1">
+      <c r="CB28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -4131,11 +4143,11 @@
       <c r="AA29" t="b">
         <v>1</v>
       </c>
-      <c r="BZ29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:81" ht="15" customHeight="1">
+      <c r="CB29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -4164,11 +4176,11 @@
       <c r="AA30" t="b">
         <v>1</v>
       </c>
-      <c r="BZ30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:81" ht="15" customHeight="1">
+      <c r="CB30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:83" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -4197,11 +4209,11 @@
       <c r="AA31" t="b">
         <v>1</v>
       </c>
-      <c r="BZ31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:81" ht="15" customHeight="1">
+      <c r="CB31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:83" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -4257,14 +4269,14 @@
       <c r="AI32">
         <v>188</v>
       </c>
-      <c r="BZ32" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC32" t="s">
+      <c r="CB32" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:81" ht="15" customHeight="1">
+    <row r="33" spans="1:83" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -4293,11 +4305,11 @@
       <c r="AA33" t="b">
         <v>1</v>
       </c>
-      <c r="BZ33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:81" ht="15" customHeight="1">
+      <c r="CB33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -4326,11 +4338,11 @@
       <c r="AA34" t="b">
         <v>1</v>
       </c>
-      <c r="BZ34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:81" ht="15" customHeight="1">
+      <c r="CB34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:83" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -4359,11 +4371,11 @@
       <c r="AA35" t="b">
         <v>1</v>
       </c>
-      <c r="BZ35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:81" ht="15" customHeight="1">
+      <c r="CB35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:83" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -4392,11 +4404,11 @@
       <c r="AA36" t="b">
         <v>1</v>
       </c>
-      <c r="BZ36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:81" ht="15" customHeight="1">
+      <c r="CB36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:83" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -4449,14 +4461,14 @@
       <c r="AF37" t="b">
         <v>0</v>
       </c>
-      <c r="BZ37" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC37" t="s">
+      <c r="CB37" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:81" ht="15" customHeight="1">
+    <row r="38" spans="1:83" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -4485,11 +4497,11 @@
       <c r="AA38" t="b">
         <v>1</v>
       </c>
-      <c r="BZ38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:81" ht="15" customHeight="1">
+      <c r="CB38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -4518,11 +4530,11 @@
       <c r="AA39" t="b">
         <v>1</v>
       </c>
-      <c r="BZ39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:81" ht="15" customHeight="1">
+      <c r="CB39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>345</v>
       </c>
@@ -4590,14 +4602,14 @@
       <c r="AF40" t="b">
         <v>0</v>
       </c>
-      <c r="BZ40" t="s">
+      <c r="CB40" t="s">
         <v>352</v>
       </c>
-      <c r="CC40" t="s">
+      <c r="CE40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:81" ht="15" customHeight="1">
+    <row r="41" spans="1:83" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>345</v>
       </c>
@@ -4629,11 +4641,11 @@
       <c r="AA41" t="b">
         <v>1</v>
       </c>
-      <c r="BZ41" t="s">
+      <c r="CB41" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:81" ht="15" customHeight="1">
+    <row r="42" spans="1:83" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>345</v>
       </c>
@@ -4665,11 +4677,11 @@
       <c r="AA42" t="b">
         <v>1</v>
       </c>
-      <c r="BZ42" t="s">
+      <c r="CB42" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:81" ht="15" customHeight="1">
+    <row r="43" spans="1:83" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>345</v>
       </c>
@@ -4701,11 +4713,11 @@
       <c r="AA43" t="b">
         <v>1</v>
       </c>
-      <c r="BZ43" t="s">
+      <c r="CB43" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:81" ht="15" customHeight="1">
+    <row r="44" spans="1:83" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>345</v>
       </c>
@@ -4737,11 +4749,11 @@
       <c r="AA44" t="b">
         <v>1</v>
       </c>
-      <c r="BZ44" t="s">
+      <c r="CB44" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:81" ht="15" customHeight="1">
+    <row r="45" spans="1:83" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -4773,11 +4785,11 @@
       <c r="AA45" t="b">
         <v>1</v>
       </c>
-      <c r="BZ45" t="s">
+      <c r="CB45" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:81" ht="15" customHeight="1">
+    <row r="46" spans="1:83" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -4809,11 +4821,11 @@
       <c r="AA46" t="b">
         <v>1</v>
       </c>
-      <c r="BZ46" t="s">
+      <c r="CB46" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:81" ht="15" customHeight="1">
+    <row r="47" spans="1:83" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>345</v>
       </c>
@@ -4845,11 +4857,11 @@
       <c r="AA47" t="b">
         <v>1</v>
       </c>
-      <c r="BZ47" t="s">
+      <c r="CB47" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:81" ht="15" customHeight="1">
+    <row r="48" spans="1:83" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>345</v>
       </c>
@@ -4881,11 +4893,11 @@
       <c r="AA48" t="b">
         <v>1</v>
       </c>
-      <c r="BZ48" t="s">
+      <c r="CB48" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:81" ht="15" customHeight="1">
+    <row r="49" spans="1:83" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>345</v>
       </c>
@@ -4917,11 +4929,11 @@
       <c r="AA49" t="b">
         <v>1</v>
       </c>
-      <c r="BZ49" t="s">
+      <c r="CB49" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:81" ht="15" customHeight="1">
+    <row r="50" spans="1:83" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>345</v>
       </c>
@@ -4953,11 +4965,11 @@
       <c r="AA50" t="b">
         <v>1</v>
       </c>
-      <c r="BZ50" t="s">
+      <c r="CB50" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:81" ht="15" customHeight="1">
+    <row r="51" spans="1:83" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -4989,11 +5001,11 @@
       <c r="AA51" t="b">
         <v>1</v>
       </c>
-      <c r="BZ51" t="s">
+      <c r="CB51" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:81" ht="15" customHeight="1">
+    <row r="52" spans="1:83" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>345</v>
       </c>
@@ -5025,11 +5037,11 @@
       <c r="AA52" t="b">
         <v>1</v>
       </c>
-      <c r="BZ52" t="s">
+      <c r="CB52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:81" ht="15" customHeight="1">
+    <row r="53" spans="1:83" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>345</v>
       </c>
@@ -5061,11 +5073,11 @@
       <c r="AA53" t="b">
         <v>1</v>
       </c>
-      <c r="BZ53" t="s">
+      <c r="CB53" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:81" ht="15" customHeight="1">
+    <row r="54" spans="1:83" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>345</v>
       </c>
@@ -5097,11 +5109,11 @@
       <c r="AA54" t="b">
         <v>1</v>
       </c>
-      <c r="BZ54" t="s">
+      <c r="CB54" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:81" ht="15" customHeight="1">
+    <row r="55" spans="1:83" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>345</v>
       </c>
@@ -5133,11 +5145,11 @@
       <c r="AA55" t="b">
         <v>1</v>
       </c>
-      <c r="BZ55" t="s">
+      <c r="CB55" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:81" ht="15" customHeight="1">
+    <row r="56" spans="1:83" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>345</v>
       </c>
@@ -5169,11 +5181,11 @@
       <c r="AA56" t="b">
         <v>1</v>
       </c>
-      <c r="BZ56" t="s">
+      <c r="CB56" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:81" ht="15" customHeight="1">
+    <row r="57" spans="1:83" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -5232,14 +5244,14 @@
       <c r="AF57" t="b">
         <v>0</v>
       </c>
-      <c r="BZ57" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC57" t="s">
+      <c r="CB57" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:81" ht="15" customHeight="1">
+    <row r="58" spans="1:83" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -5268,11 +5280,11 @@
       <c r="AA58" t="b">
         <v>1</v>
       </c>
-      <c r="BZ58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:81" ht="15" customHeight="1">
+      <c r="CB58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:83" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -5301,11 +5313,11 @@
       <c r="AA59" t="b">
         <v>1</v>
       </c>
-      <c r="BZ59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:81" ht="15" customHeight="1">
+      <c r="CB59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:83" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -5334,11 +5346,11 @@
       <c r="AA60" t="b">
         <v>1</v>
       </c>
-      <c r="BZ60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:81" ht="15" customHeight="1">
+      <c r="CB60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:83" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -5367,11 +5379,11 @@
       <c r="AA61" t="b">
         <v>1</v>
       </c>
-      <c r="BZ61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:81" ht="15" customHeight="1">
+      <c r="CB61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:83" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -5400,11 +5412,11 @@
       <c r="AA62" t="b">
         <v>1</v>
       </c>
-      <c r="BZ62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:81" ht="15" customHeight="1">
+      <c r="CB62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:83" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -5433,11 +5445,11 @@
       <c r="AA63" t="b">
         <v>1</v>
       </c>
-      <c r="BZ63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:81" ht="15" customHeight="1">
+      <c r="CB63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:83" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -5466,11 +5478,11 @@
       <c r="AA64" t="b">
         <v>1</v>
       </c>
-      <c r="BZ64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:81" ht="15" customHeight="1">
+      <c r="CB64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:83" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -5499,11 +5511,11 @@
       <c r="AA65" t="b">
         <v>1</v>
       </c>
-      <c r="BZ65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:81" ht="15" customHeight="1">
+      <c r="CB65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:83" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -5571,14 +5583,14 @@
       <c r="AF66" t="b">
         <v>0</v>
       </c>
-      <c r="BZ66" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC66" t="s">
+      <c r="CB66" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:81" ht="15" customHeight="1">
+    <row r="67" spans="1:83" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -5610,11 +5622,11 @@
       <c r="AA67" t="b">
         <v>1</v>
       </c>
-      <c r="BZ67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:81" ht="15" customHeight="1">
+      <c r="CB67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:83" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -5646,11 +5658,11 @@
       <c r="AA68" t="b">
         <v>1</v>
       </c>
-      <c r="BZ68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:81" ht="15" customHeight="1">
+      <c r="CB68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:83" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -5682,11 +5694,11 @@
       <c r="AA69" t="b">
         <v>1</v>
       </c>
-      <c r="BZ69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:81" ht="15" customHeight="1">
+      <c r="CB69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:83" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -5718,11 +5730,11 @@
       <c r="AA70" t="b">
         <v>1</v>
       </c>
-      <c r="BZ70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:81" ht="15" customHeight="1">
+      <c r="CB70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:83" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -5754,11 +5766,11 @@
       <c r="AA71" t="b">
         <v>1</v>
       </c>
-      <c r="BZ71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:81" ht="15" customHeight="1">
+      <c r="CB71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:83" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -5790,11 +5802,11 @@
       <c r="AA72" t="b">
         <v>1</v>
       </c>
-      <c r="BZ72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:81" ht="15" customHeight="1">
+      <c r="CB72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:83" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -5826,11 +5838,11 @@
       <c r="AA73" t="b">
         <v>1</v>
       </c>
-      <c r="BZ73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:81" ht="15" customHeight="1">
+      <c r="CB73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:83" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -5862,11 +5874,11 @@
       <c r="AA74" t="b">
         <v>1</v>
       </c>
-      <c r="BZ74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:81" ht="15" customHeight="1">
+      <c r="CB74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:83" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -5898,11 +5910,11 @@
       <c r="AA75" t="b">
         <v>1</v>
       </c>
-      <c r="BZ75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:81" ht="15" customHeight="1">
+      <c r="CB75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:83" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -5934,11 +5946,11 @@
       <c r="AA76" t="b">
         <v>1</v>
       </c>
-      <c r="BZ76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:81" ht="15" customHeight="1">
+      <c r="CB76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:83" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -5970,11 +5982,11 @@
       <c r="AA77" t="b">
         <v>1</v>
       </c>
-      <c r="BZ77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:81" ht="15" customHeight="1">
+      <c r="CB77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:83" ht="15" customHeight="1">
       <c r="A78" t="s">
         <v>146</v>
       </c>
@@ -6006,11 +6018,11 @@
       <c r="AA78" t="b">
         <v>1</v>
       </c>
-      <c r="BZ78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:81" ht="15" customHeight="1">
+      <c r="CB78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:83" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -6042,11 +6054,11 @@
       <c r="AA79" t="b">
         <v>1</v>
       </c>
-      <c r="BZ79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:81" ht="15" customHeight="1">
+      <c r="CB79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:83" ht="15" customHeight="1">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -6108,14 +6120,14 @@
       <c r="AF80" t="b">
         <v>0</v>
       </c>
-      <c r="BZ80" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC80" t="s">
+      <c r="CB80" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:81" ht="15" customHeight="1">
+    <row r="81" spans="1:83" ht="15" customHeight="1">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -6144,11 +6156,11 @@
       <c r="AA81" t="b">
         <v>1</v>
       </c>
-      <c r="BZ81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:81" ht="15" customHeight="1">
+      <c r="CB81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:83" ht="15" customHeight="1">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -6177,11 +6189,11 @@
       <c r="AA82" t="b">
         <v>1</v>
       </c>
-      <c r="BZ82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:81" ht="15" customHeight="1">
+      <c r="CB82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:83" ht="15" customHeight="1">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -6210,11 +6222,11 @@
       <c r="AA83" t="b">
         <v>1</v>
       </c>
-      <c r="BZ83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:81" ht="15" customHeight="1">
+      <c r="CB83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:83" ht="15" customHeight="1">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -6243,11 +6255,11 @@
       <c r="AA84" t="b">
         <v>1</v>
       </c>
-      <c r="BZ84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:81" ht="15" customHeight="1">
+      <c r="CB84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:83" ht="15" customHeight="1">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -6276,11 +6288,11 @@
       <c r="AA85" t="b">
         <v>1</v>
       </c>
-      <c r="BZ85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:81" ht="15" customHeight="1">
+      <c r="CB85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:83" ht="15" customHeight="1">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -6309,11 +6321,11 @@
       <c r="AA86" t="b">
         <v>1</v>
       </c>
-      <c r="BZ86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:81" ht="15" customHeight="1">
+      <c r="CB86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:83" ht="15" customHeight="1">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -6387,14 +6399,14 @@
       <c r="AF87" t="b">
         <v>0</v>
       </c>
-      <c r="BZ87" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC87" t="s">
+      <c r="CB87" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:81" ht="15" customHeight="1">
+    <row r="88" spans="1:83" ht="15" customHeight="1">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -6429,11 +6441,11 @@
       <c r="AA88" t="b">
         <v>1</v>
       </c>
-      <c r="BZ88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:81" ht="15" customHeight="1">
+      <c r="CB88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:83" ht="15" customHeight="1">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -6468,11 +6480,11 @@
       <c r="AA89" t="b">
         <v>1</v>
       </c>
-      <c r="BZ89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:81" ht="15" customHeight="1">
+      <c r="CB89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:83" ht="15" customHeight="1">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -6507,11 +6519,11 @@
       <c r="AA90" t="b">
         <v>1</v>
       </c>
-      <c r="BZ90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:81" ht="15" customHeight="1">
+      <c r="CB90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:83" ht="15" customHeight="1">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -6546,11 +6558,11 @@
       <c r="AA91" t="b">
         <v>1</v>
       </c>
-      <c r="BZ91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:81" ht="15" customHeight="1">
+      <c r="CB91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:83" ht="15" customHeight="1">
       <c r="A92" t="s">
         <v>159</v>
       </c>
@@ -6585,11 +6597,11 @@
       <c r="AA92" t="b">
         <v>1</v>
       </c>
-      <c r="BZ92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:81" ht="15" customHeight="1">
+      <c r="CB92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:83" ht="15" customHeight="1">
       <c r="A93" t="s">
         <v>159</v>
       </c>
@@ -6624,11 +6636,11 @@
       <c r="AA93" t="b">
         <v>1</v>
       </c>
-      <c r="BZ93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:81" ht="15" customHeight="1">
+      <c r="CB93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:83" ht="15" customHeight="1">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -6663,11 +6675,11 @@
       <c r="AA94" t="b">
         <v>1</v>
       </c>
-      <c r="BZ94" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:81" ht="15" customHeight="1">
+      <c r="CB94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:83" ht="15" customHeight="1">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -6702,11 +6714,11 @@
       <c r="AA95" t="b">
         <v>1</v>
       </c>
-      <c r="BZ95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:81" ht="15" customHeight="1">
+      <c r="CB95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:83" ht="15" customHeight="1">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -6741,11 +6753,11 @@
       <c r="AA96" t="b">
         <v>1</v>
       </c>
-      <c r="BZ96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:81" ht="15" customHeight="1">
+      <c r="CB96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:83" ht="15" customHeight="1">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -6780,11 +6792,11 @@
       <c r="AA97" t="b">
         <v>1</v>
       </c>
-      <c r="BZ97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:81" ht="15" customHeight="1">
+      <c r="CB97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:83" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -6819,11 +6831,11 @@
       <c r="AA98" t="b">
         <v>1</v>
       </c>
-      <c r="BZ98" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99" spans="1:81" ht="15" customHeight="1">
+      <c r="CB98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:83" ht="15" customHeight="1">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -6858,11 +6870,11 @@
       <c r="AA99" t="b">
         <v>1</v>
       </c>
-      <c r="BZ99" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:81" ht="15" customHeight="1">
+      <c r="CB99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:83" ht="15" customHeight="1">
       <c r="A100" t="s">
         <v>159</v>
       </c>
@@ -6897,11 +6909,11 @@
       <c r="AA100" t="b">
         <v>1</v>
       </c>
-      <c r="BZ100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:81" ht="15" customHeight="1">
+      <c r="CB100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:83" ht="15" customHeight="1">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -6975,14 +6987,14 @@
       <c r="AF101" t="b">
         <v>0</v>
       </c>
-      <c r="BZ101" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC101" t="s">
+      <c r="CB101" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE101" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:81" ht="15" customHeight="1">
+    <row r="102" spans="1:83" ht="15" customHeight="1">
       <c r="A102" t="s">
         <v>168</v>
       </c>
@@ -7017,11 +7029,11 @@
       <c r="AA102" t="b">
         <v>1</v>
       </c>
-      <c r="BZ102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:81" ht="15" customHeight="1">
+      <c r="CB102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:83" ht="15" customHeight="1">
       <c r="A103" t="s">
         <v>168</v>
       </c>
@@ -7056,11 +7068,11 @@
       <c r="AA103" t="b">
         <v>1</v>
       </c>
-      <c r="BZ103" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:81" ht="15" customHeight="1">
+      <c r="CB103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:83" ht="15" customHeight="1">
       <c r="A104" t="s">
         <v>168</v>
       </c>
@@ -7095,11 +7107,11 @@
       <c r="AA104" t="b">
         <v>1</v>
       </c>
-      <c r="BZ104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:81" ht="15" customHeight="1">
+      <c r="CB104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:83" ht="15" customHeight="1">
       <c r="A105" t="s">
         <v>168</v>
       </c>
@@ -7134,11 +7146,11 @@
       <c r="AA105" t="b">
         <v>1</v>
       </c>
-      <c r="BZ105" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:81" ht="15" customHeight="1">
+      <c r="CB105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:83" ht="15" customHeight="1">
       <c r="A106" t="s">
         <v>168</v>
       </c>
@@ -7173,11 +7185,11 @@
       <c r="AA106" t="b">
         <v>1</v>
       </c>
-      <c r="BZ106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:81" ht="15" customHeight="1">
+      <c r="CB106" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:83" ht="15" customHeight="1">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -7212,11 +7224,11 @@
       <c r="AA107" t="b">
         <v>1</v>
       </c>
-      <c r="BZ107" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:81" ht="15" customHeight="1">
+      <c r="CB107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:83" ht="15" customHeight="1">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -7251,11 +7263,11 @@
       <c r="AA108" t="b">
         <v>1</v>
       </c>
-      <c r="BZ108" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109" spans="1:81" ht="15" customHeight="1">
+      <c r="CB108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:83" ht="15" customHeight="1">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -7290,11 +7302,11 @@
       <c r="AA109" t="b">
         <v>1</v>
       </c>
-      <c r="BZ109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:81" ht="15" customHeight="1">
+      <c r="CB109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:83" ht="15" customHeight="1">
       <c r="A110" t="s">
         <v>168</v>
       </c>
@@ -7329,11 +7341,11 @@
       <c r="AA110" t="b">
         <v>1</v>
       </c>
-      <c r="BZ110" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="1:81" ht="15" customHeight="1">
+      <c r="CB110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:83" ht="15" customHeight="1">
       <c r="A111" t="s">
         <v>168</v>
       </c>
@@ -7368,11 +7380,11 @@
       <c r="AA111" t="b">
         <v>1</v>
       </c>
-      <c r="BZ111" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112" spans="1:81" ht="15" customHeight="1">
+      <c r="CB111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:83" ht="15" customHeight="1">
       <c r="A112" t="s">
         <v>168</v>
       </c>
@@ -7407,11 +7419,11 @@
       <c r="AA112" t="b">
         <v>1</v>
       </c>
-      <c r="BZ112" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="113" spans="1:78" ht="15" customHeight="1">
+      <c r="CB112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:80" ht="15" customHeight="1">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -7446,11 +7458,11 @@
       <c r="AA113" t="b">
         <v>1</v>
       </c>
-      <c r="BZ113" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="114" spans="1:78" ht="15" customHeight="1">
+      <c r="CB113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:80" ht="15" customHeight="1">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -7485,11 +7497,11 @@
       <c r="AA114" t="b">
         <v>1</v>
       </c>
-      <c r="BZ114" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:78" ht="15" customHeight="1">
+      <c r="CB114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:80" ht="15" customHeight="1">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -7524,11 +7536,11 @@
       <c r="AA115" t="b">
         <v>1</v>
       </c>
-      <c r="BZ115" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:78" ht="15" customHeight="1">
+      <c r="CB115" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:80" ht="15" customHeight="1">
       <c r="A116" t="s">
         <v>168</v>
       </c>
@@ -7563,11 +7575,11 @@
       <c r="AA116" t="b">
         <v>1</v>
       </c>
-      <c r="BZ116" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="117" spans="1:78" ht="15" customHeight="1">
+      <c r="CB116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:80" ht="15" customHeight="1">
       <c r="A117" t="s">
         <v>168</v>
       </c>
@@ -7602,11 +7614,11 @@
       <c r="AA117" t="b">
         <v>1</v>
       </c>
-      <c r="BZ117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:78" ht="15" customHeight="1">
+      <c r="CB117" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:80" ht="15" customHeight="1">
       <c r="A118" t="s">
         <v>168</v>
       </c>
@@ -7641,11 +7653,11 @@
       <c r="AA118" t="b">
         <v>1</v>
       </c>
-      <c r="BZ118" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:78" ht="15" customHeight="1">
+      <c r="CB118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:80" ht="15" customHeight="1">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -7680,11 +7692,11 @@
       <c r="AA119" t="b">
         <v>1</v>
       </c>
-      <c r="BZ119" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:78" ht="15" customHeight="1">
+      <c r="CB119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:80" ht="15" customHeight="1">
       <c r="A120" t="s">
         <v>168</v>
       </c>
@@ -7719,11 +7731,11 @@
       <c r="AA120" t="b">
         <v>1</v>
       </c>
-      <c r="BZ120" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:78" ht="15" customHeight="1">
+      <c r="CB120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:80" ht="15" customHeight="1">
       <c r="A121" t="s">
         <v>168</v>
       </c>
@@ -7758,11 +7770,11 @@
       <c r="AA121" t="b">
         <v>1</v>
       </c>
-      <c r="BZ121" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:78" ht="15" customHeight="1">
+      <c r="CB121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:80" ht="15" customHeight="1">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -7797,11 +7809,11 @@
       <c r="AA122" t="b">
         <v>1</v>
       </c>
-      <c r="BZ122" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="1:78" ht="15" customHeight="1">
+      <c r="CB122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:80" ht="15" customHeight="1">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -7836,11 +7848,11 @@
       <c r="AA123" t="b">
         <v>1</v>
       </c>
-      <c r="BZ123" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:78" ht="15" customHeight="1">
+      <c r="CB123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:80" ht="15" customHeight="1">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -7875,11 +7887,11 @@
       <c r="AA124" t="b">
         <v>1</v>
       </c>
-      <c r="BZ124" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="1:78" ht="15" customHeight="1">
+      <c r="CB124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:80" ht="15" customHeight="1">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -7914,11 +7926,11 @@
       <c r="AA125" t="b">
         <v>1</v>
       </c>
-      <c r="BZ125" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:78" ht="15" customHeight="1">
+      <c r="CB125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:80" ht="15" customHeight="1">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -7953,11 +7965,11 @@
       <c r="AA126" t="b">
         <v>1</v>
       </c>
-      <c r="BZ126" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:78" ht="15" customHeight="1">
+      <c r="CB126" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:80" ht="15" customHeight="1">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -7992,11 +8004,11 @@
       <c r="AA127" t="b">
         <v>1</v>
       </c>
-      <c r="BZ127" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:78" ht="15" customHeight="1">
+      <c r="CB127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:80" ht="15" customHeight="1">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -8031,11 +8043,11 @@
       <c r="AA128" t="b">
         <v>1</v>
       </c>
-      <c r="BZ128" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="129" spans="1:78" ht="15" customHeight="1">
+      <c r="CB128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:80" ht="15" customHeight="1">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -8070,11 +8082,11 @@
       <c r="AA129" t="b">
         <v>1</v>
       </c>
-      <c r="BZ129" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" spans="1:78" ht="15" customHeight="1">
+      <c r="CB129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:80" ht="15" customHeight="1">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -8109,11 +8121,11 @@
       <c r="AA130" t="b">
         <v>1</v>
       </c>
-      <c r="BZ130" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="131" spans="1:78" ht="15" customHeight="1">
+      <c r="CB130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:80" ht="15" customHeight="1">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -8148,11 +8160,11 @@
       <c r="AA131" t="b">
         <v>1</v>
       </c>
-      <c r="BZ131" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="132" spans="1:78" ht="15" customHeight="1">
+      <c r="CB131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:80" ht="15" customHeight="1">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -8187,11 +8199,11 @@
       <c r="AA132" t="b">
         <v>1</v>
       </c>
-      <c r="BZ132" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="133" spans="1:78" ht="15" customHeight="1">
+      <c r="CB132" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:80" ht="15" customHeight="1">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -8226,11 +8238,11 @@
       <c r="AA133" t="b">
         <v>1</v>
       </c>
-      <c r="BZ133" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="134" spans="1:78" ht="15" customHeight="1">
+      <c r="CB133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:80" ht="15" customHeight="1">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -8265,11 +8277,11 @@
       <c r="AA134" t="b">
         <v>1</v>
       </c>
-      <c r="BZ134" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="135" spans="1:78" ht="15" customHeight="1">
+      <c r="CB134" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:80" ht="15" customHeight="1">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -8304,11 +8316,11 @@
       <c r="AA135" t="b">
         <v>1</v>
       </c>
-      <c r="BZ135" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="136" spans="1:78" ht="15" customHeight="1">
+      <c r="CB135" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:80" ht="15" customHeight="1">
       <c r="A136" t="s">
         <v>168</v>
       </c>
@@ -8343,11 +8355,11 @@
       <c r="AA136" t="b">
         <v>1</v>
       </c>
-      <c r="BZ136" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="137" spans="1:78" ht="15" customHeight="1">
+      <c r="CB136" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:80" ht="15" customHeight="1">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -8382,11 +8394,11 @@
       <c r="AA137" t="b">
         <v>1</v>
       </c>
-      <c r="BZ137" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="138" spans="1:78" ht="15" customHeight="1">
+      <c r="CB137" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:80" ht="15" customHeight="1">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -8421,11 +8433,11 @@
       <c r="AA138" t="b">
         <v>1</v>
       </c>
-      <c r="BZ138" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="139" spans="1:78" ht="15" customHeight="1">
+      <c r="CB138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:80" ht="15" customHeight="1">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -8460,11 +8472,11 @@
       <c r="AA139" t="b">
         <v>1</v>
       </c>
-      <c r="BZ139" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="140" spans="1:78" ht="15" customHeight="1">
+      <c r="CB139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:80" ht="15" customHeight="1">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -8499,11 +8511,11 @@
       <c r="AA140" t="b">
         <v>1</v>
       </c>
-      <c r="BZ140" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="141" spans="1:78" ht="15" customHeight="1">
+      <c r="CB140" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:80" ht="15" customHeight="1">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -8538,11 +8550,11 @@
       <c r="AA141" t="b">
         <v>1</v>
       </c>
-      <c r="BZ141" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="142" spans="1:78" ht="15" customHeight="1">
+      <c r="CB141" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:80" ht="15" customHeight="1">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -8577,11 +8589,11 @@
       <c r="AA142" t="b">
         <v>1</v>
       </c>
-      <c r="BZ142" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="143" spans="1:78" ht="15" customHeight="1">
+      <c r="CB142" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:80" ht="15" customHeight="1">
       <c r="A143" t="s">
         <v>168</v>
       </c>
@@ -8616,11 +8628,11 @@
       <c r="AA143" t="b">
         <v>1</v>
       </c>
-      <c r="BZ143" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="144" spans="1:78" ht="15" customHeight="1">
+      <c r="CB143" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:80" ht="15" customHeight="1">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -8655,11 +8667,11 @@
       <c r="AA144" t="b">
         <v>1</v>
       </c>
-      <c r="BZ144" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:78" ht="15" customHeight="1">
+      <c r="CB144" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:80" ht="15" customHeight="1">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -8694,11 +8706,11 @@
       <c r="AA145" t="b">
         <v>1</v>
       </c>
-      <c r="BZ145" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="146" spans="1:78" ht="15" customHeight="1">
+      <c r="CB145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:80" ht="15" customHeight="1">
       <c r="A146" t="s">
         <v>168</v>
       </c>
@@ -8733,11 +8745,11 @@
       <c r="AA146" t="b">
         <v>1</v>
       </c>
-      <c r="BZ146" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:78" ht="15" customHeight="1">
+      <c r="CB146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:80" ht="15" customHeight="1">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -8772,11 +8784,11 @@
       <c r="AA147" t="b">
         <v>1</v>
       </c>
-      <c r="BZ147" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="148" spans="1:78" ht="15" customHeight="1">
+      <c r="CB147" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:80" ht="15" customHeight="1">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8811,11 +8823,11 @@
       <c r="AA148" t="b">
         <v>1</v>
       </c>
-      <c r="BZ148" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="149" spans="1:78" ht="15" customHeight="1">
+      <c r="CB148" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:80" ht="15" customHeight="1">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -8850,11 +8862,11 @@
       <c r="AA149" t="b">
         <v>1</v>
       </c>
-      <c r="BZ149" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="150" spans="1:78" ht="15" customHeight="1">
+      <c r="CB149" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:80" ht="15" customHeight="1">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -8889,11 +8901,11 @@
       <c r="AA150" t="b">
         <v>1</v>
       </c>
-      <c r="BZ150" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="151" spans="1:78" ht="15" customHeight="1">
+      <c r="CB150" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:80" ht="15" customHeight="1">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -8928,11 +8940,11 @@
       <c r="AA151" t="b">
         <v>1</v>
       </c>
-      <c r="BZ151" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="152" spans="1:78" ht="15" customHeight="1">
+      <c r="CB151" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:80" ht="15" customHeight="1">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -8967,11 +8979,11 @@
       <c r="AA152" t="b">
         <v>1</v>
       </c>
-      <c r="BZ152" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="153" spans="1:78" ht="15" customHeight="1">
+      <c r="CB152" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:80" ht="15" customHeight="1">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -9006,11 +9018,11 @@
       <c r="AA153" t="b">
         <v>1</v>
       </c>
-      <c r="BZ153" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" spans="1:78" ht="15" customHeight="1">
+      <c r="CB153" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:80" ht="15" customHeight="1">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -9045,11 +9057,11 @@
       <c r="AA154" t="b">
         <v>1</v>
       </c>
-      <c r="BZ154" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="155" spans="1:78" ht="15" customHeight="1">
+      <c r="CB154" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:80" ht="15" customHeight="1">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -9084,11 +9096,11 @@
       <c r="AA155" t="b">
         <v>1</v>
       </c>
-      <c r="BZ155" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="156" spans="1:78" ht="15" customHeight="1">
+      <c r="CB155" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="1:80" ht="15" customHeight="1">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -9123,11 +9135,11 @@
       <c r="AA156" t="b">
         <v>1</v>
       </c>
-      <c r="BZ156" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="157" spans="1:78" ht="15" customHeight="1">
+      <c r="CB156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:80" ht="15" customHeight="1">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -9162,11 +9174,11 @@
       <c r="AA157" t="b">
         <v>1</v>
       </c>
-      <c r="BZ157" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="1:78" ht="15" customHeight="1">
+      <c r="CB157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:80" ht="15" customHeight="1">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -9201,11 +9213,11 @@
       <c r="AA158" t="b">
         <v>1</v>
       </c>
-      <c r="BZ158" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="159" spans="1:78" ht="15" customHeight="1">
+      <c r="CB158" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:80" ht="15" customHeight="1">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -9240,11 +9252,11 @@
       <c r="AA159" t="b">
         <v>1</v>
       </c>
-      <c r="BZ159" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="160" spans="1:78" ht="15" customHeight="1">
+      <c r="CB159" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:80" ht="15" customHeight="1">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -9279,11 +9291,11 @@
       <c r="AA160" t="b">
         <v>1</v>
       </c>
-      <c r="BZ160" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="161" spans="1:81" ht="15" customHeight="1">
+      <c r="CB160" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="161" spans="1:83" ht="15" customHeight="1">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -9318,11 +9330,11 @@
       <c r="AA161" t="b">
         <v>1</v>
       </c>
-      <c r="BZ161" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="162" spans="1:81" ht="15" customHeight="1">
+      <c r="CB161" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:83" ht="15" customHeight="1">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -9357,11 +9369,11 @@
       <c r="AA162" t="b">
         <v>1</v>
       </c>
-      <c r="BZ162" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="163" spans="1:81" ht="15" customHeight="1">
+      <c r="CB162" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:83" ht="15" customHeight="1">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -9396,11 +9408,11 @@
       <c r="AA163" t="b">
         <v>1</v>
       </c>
-      <c r="BZ163" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="164" spans="1:81" ht="15" customHeight="1">
+      <c r="CB163" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:83" ht="15" customHeight="1">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -9435,11 +9447,11 @@
       <c r="AA164" t="b">
         <v>1</v>
       </c>
-      <c r="BZ164" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" spans="1:81" ht="15" customHeight="1">
+      <c r="CB164" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:83" ht="15" customHeight="1">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -9474,11 +9486,11 @@
       <c r="AA165" t="b">
         <v>1</v>
       </c>
-      <c r="BZ165" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:81" ht="15" customHeight="1">
+      <c r="CB165" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:83" ht="15" customHeight="1">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -9513,11 +9525,11 @@
       <c r="AA166" t="b">
         <v>1</v>
       </c>
-      <c r="BZ166" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="167" spans="1:81" ht="15" customHeight="1">
+      <c r="CB166" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="167" spans="1:83" ht="15" customHeight="1">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -9552,11 +9564,11 @@
       <c r="AA167" t="b">
         <v>1</v>
       </c>
-      <c r="BZ167" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="168" spans="1:81" ht="15" customHeight="1">
+      <c r="CB167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:83" ht="15" customHeight="1">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -9591,11 +9603,11 @@
       <c r="AA168" t="b">
         <v>1</v>
       </c>
-      <c r="BZ168" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="169" spans="1:81" ht="15" customHeight="1">
+      <c r="CB168" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="169" spans="1:83" ht="15" customHeight="1">
       <c r="A169" t="s">
         <v>179</v>
       </c>
@@ -9663,14 +9675,14 @@
       <c r="AF169" t="b">
         <v>0</v>
       </c>
-      <c r="BZ169" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC169" t="s">
+      <c r="CB169" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE169" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="170" spans="1:81" ht="15" customHeight="1">
+    <row r="170" spans="1:83" ht="15" customHeight="1">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -9702,11 +9714,11 @@
       <c r="AA170" t="b">
         <v>1</v>
       </c>
-      <c r="BZ170" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171" spans="1:81" ht="15" customHeight="1">
+      <c r="CB170" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:83" ht="15" customHeight="1">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -9738,11 +9750,11 @@
       <c r="AA171" t="b">
         <v>1</v>
       </c>
-      <c r="BZ171" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="172" spans="1:81" ht="15" customHeight="1">
+      <c r="CB171" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:83" ht="15" customHeight="1">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -9774,11 +9786,11 @@
       <c r="AA172" t="b">
         <v>1</v>
       </c>
-      <c r="BZ172" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:81" ht="15" customHeight="1">
+      <c r="CB172" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:83" ht="15" customHeight="1">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -9810,11 +9822,11 @@
       <c r="AA173" t="b">
         <v>1</v>
       </c>
-      <c r="BZ173" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="174" spans="1:81" ht="15" customHeight="1">
+      <c r="CB173" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="174" spans="1:83" ht="15" customHeight="1">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -9846,11 +9858,11 @@
       <c r="AA174" t="b">
         <v>1</v>
       </c>
-      <c r="BZ174" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:81" ht="15" customHeight="1">
+      <c r="CB174" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="175" spans="1:83" ht="15" customHeight="1">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -9882,11 +9894,11 @@
       <c r="AA175" t="b">
         <v>1</v>
       </c>
-      <c r="BZ175" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="176" spans="1:81" ht="15" customHeight="1">
+      <c r="CB175" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:83" ht="15" customHeight="1">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -9918,11 +9930,11 @@
       <c r="AA176" t="b">
         <v>1</v>
       </c>
-      <c r="BZ176" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="177" spans="1:81" ht="15" customHeight="1">
+      <c r="CB176" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:83" ht="15" customHeight="1">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -9954,11 +9966,11 @@
       <c r="AA177" t="b">
         <v>1</v>
       </c>
-      <c r="BZ177" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="178" spans="1:81" ht="15" customHeight="1">
+      <c r="CB177" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:83" ht="15" customHeight="1">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -9990,11 +10002,11 @@
       <c r="AA178" t="b">
         <v>1</v>
       </c>
-      <c r="BZ178" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="179" spans="1:81" ht="15" customHeight="1">
+      <c r="CB178" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="179" spans="1:83" ht="15" customHeight="1">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -10026,11 +10038,11 @@
       <c r="AA179" t="b">
         <v>1</v>
       </c>
-      <c r="BZ179" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="1:81" ht="15" customHeight="1">
+      <c r="CB179" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="180" spans="1:83" ht="15" customHeight="1">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -10062,11 +10074,11 @@
       <c r="AA180" t="b">
         <v>1</v>
       </c>
-      <c r="BZ180" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="181" spans="1:81" ht="15" customHeight="1">
+      <c r="CB180" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:83" ht="15" customHeight="1">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -10098,11 +10110,11 @@
       <c r="AA181" t="b">
         <v>1</v>
       </c>
-      <c r="BZ181" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="182" spans="1:81" ht="15" customHeight="1">
+      <c r="CB181" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182" spans="1:83" ht="15" customHeight="1">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -10134,11 +10146,11 @@
       <c r="AA182" t="b">
         <v>1</v>
       </c>
-      <c r="BZ182" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="183" spans="1:81" ht="15" customHeight="1">
+      <c r="CB182" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="183" spans="1:83" ht="15" customHeight="1">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -10206,14 +10218,14 @@
       <c r="AF183" t="b">
         <v>0</v>
       </c>
-      <c r="BZ183" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC183" t="s">
+      <c r="CB183" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE183" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:81" ht="15" customHeight="1">
+    <row r="184" spans="1:83" ht="15" customHeight="1">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -10245,11 +10257,11 @@
       <c r="AA184" t="b">
         <v>1</v>
       </c>
-      <c r="BZ184" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="185" spans="1:81" ht="15" customHeight="1">
+      <c r="CB184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:83" ht="15" customHeight="1">
       <c r="A185" t="s">
         <v>192</v>
       </c>
@@ -10326,14 +10338,14 @@
       <c r="AF185" t="b">
         <v>0</v>
       </c>
-      <c r="BZ185" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC185" t="s">
+      <c r="CB185" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE185" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:81" ht="15" customHeight="1">
+    <row r="186" spans="1:83" ht="15" customHeight="1">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -10368,11 +10380,11 @@
       <c r="AA186" t="b">
         <v>1</v>
       </c>
-      <c r="BZ186" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="187" spans="1:81" ht="15" customHeight="1">
+      <c r="CB186" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="187" spans="1:83" ht="15" customHeight="1">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -10407,11 +10419,11 @@
       <c r="AA187" t="b">
         <v>1</v>
       </c>
-      <c r="BZ187" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="188" spans="1:81" ht="15" customHeight="1">
+      <c r="CB187" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="188" spans="1:83" ht="15" customHeight="1">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -10446,11 +10458,11 @@
       <c r="AA188" t="b">
         <v>1</v>
       </c>
-      <c r="BZ188" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="189" spans="1:81" ht="15" customHeight="1">
+      <c r="CB188" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="1:83" ht="15" customHeight="1">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -10485,11 +10497,11 @@
       <c r="AA189" t="b">
         <v>1</v>
       </c>
-      <c r="BZ189" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="190" spans="1:81" ht="15" customHeight="1">
+      <c r="CB189" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190" spans="1:83" ht="15" customHeight="1">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -10524,11 +10536,11 @@
       <c r="AA190" t="b">
         <v>1</v>
       </c>
-      <c r="BZ190" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="191" spans="1:81" ht="15" customHeight="1">
+      <c r="CB190" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:83" ht="15" customHeight="1">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -10563,11 +10575,11 @@
       <c r="AA191" t="b">
         <v>1</v>
       </c>
-      <c r="BZ191" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="192" spans="1:81" ht="15" customHeight="1">
+      <c r="CB191" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:83" ht="15" customHeight="1">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -10602,11 +10614,11 @@
       <c r="AA192" t="b">
         <v>1</v>
       </c>
-      <c r="BZ192" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="193" spans="1:78" ht="15" customHeight="1">
+      <c r="CB192" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="193" spans="1:80" ht="15" customHeight="1">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -10641,11 +10653,11 @@
       <c r="AA193" t="b">
         <v>1</v>
       </c>
-      <c r="BZ193" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="194" spans="1:78" ht="15" customHeight="1">
+      <c r="CB193" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="194" spans="1:80" ht="15" customHeight="1">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -10680,11 +10692,11 @@
       <c r="AA194" t="b">
         <v>1</v>
       </c>
-      <c r="BZ194" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:78" ht="15" customHeight="1">
+      <c r="CB194" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:80" ht="15" customHeight="1">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -10719,11 +10731,11 @@
       <c r="AA195" t="b">
         <v>1</v>
       </c>
-      <c r="BZ195" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="196" spans="1:78" ht="15" customHeight="1">
+      <c r="CB195" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:80" ht="15" customHeight="1">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -10758,11 +10770,11 @@
       <c r="AA196" t="b">
         <v>1</v>
       </c>
-      <c r="BZ196" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="197" spans="1:78" ht="15" customHeight="1">
+      <c r="CB196" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:80" ht="15" customHeight="1">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -10797,11 +10809,11 @@
       <c r="AA197" t="b">
         <v>1</v>
       </c>
-      <c r="BZ197" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="198" spans="1:78" ht="15" customHeight="1">
+      <c r="CB197" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:80" ht="15" customHeight="1">
       <c r="A198" t="s">
         <v>192</v>
       </c>
@@ -10836,11 +10848,11 @@
       <c r="AA198" t="b">
         <v>1</v>
       </c>
-      <c r="BZ198" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="199" spans="1:78" ht="15" customHeight="1">
+      <c r="CB198" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="199" spans="1:80" ht="15" customHeight="1">
       <c r="A199" t="s">
         <v>192</v>
       </c>
@@ -10875,11 +10887,11 @@
       <c r="AA199" t="b">
         <v>1</v>
       </c>
-      <c r="BZ199" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="1:78" ht="15" customHeight="1">
+      <c r="CB199" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:80" ht="15" customHeight="1">
       <c r="A200" t="s">
         <v>192</v>
       </c>
@@ -10914,11 +10926,11 @@
       <c r="AA200" t="b">
         <v>1</v>
       </c>
-      <c r="BZ200" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="201" spans="1:78" ht="15" customHeight="1">
+      <c r="CB200" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="1:80" ht="15" customHeight="1">
       <c r="A201" t="s">
         <v>192</v>
       </c>
@@ -10953,11 +10965,11 @@
       <c r="AA201" t="b">
         <v>1</v>
       </c>
-      <c r="BZ201" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:78" ht="15" customHeight="1">
+      <c r="CB201" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:80" ht="15" customHeight="1">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -10992,11 +11004,11 @@
       <c r="AA202" t="b">
         <v>1</v>
       </c>
-      <c r="BZ202" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="203" spans="1:78" ht="15" customHeight="1">
+      <c r="CB202" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="203" spans="1:80" ht="15" customHeight="1">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -11031,11 +11043,11 @@
       <c r="AA203" t="b">
         <v>1</v>
       </c>
-      <c r="BZ203" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="204" spans="1:78" ht="15" customHeight="1">
+      <c r="CB203" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204" spans="1:80" ht="15" customHeight="1">
       <c r="A204" t="s">
         <v>192</v>
       </c>
@@ -11070,11 +11082,11 @@
       <c r="AA204" t="b">
         <v>1</v>
       </c>
-      <c r="BZ204" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="205" spans="1:78" ht="15" customHeight="1">
+      <c r="CB204" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:80" ht="15" customHeight="1">
       <c r="A205" t="s">
         <v>192</v>
       </c>
@@ -11109,11 +11121,11 @@
       <c r="AA205" t="b">
         <v>1</v>
       </c>
-      <c r="BZ205" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="206" spans="1:78" ht="15" customHeight="1">
+      <c r="CB205" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="206" spans="1:80" ht="15" customHeight="1">
       <c r="A206" t="s">
         <v>192</v>
       </c>
@@ -11148,11 +11160,11 @@
       <c r="AA206" t="b">
         <v>1</v>
       </c>
-      <c r="BZ206" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="207" spans="1:78" ht="15" customHeight="1">
+      <c r="CB206" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:80" ht="15" customHeight="1">
       <c r="A207" t="s">
         <v>192</v>
       </c>
@@ -11187,11 +11199,11 @@
       <c r="AA207" t="b">
         <v>1</v>
       </c>
-      <c r="BZ207" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="208" spans="1:78" ht="15" customHeight="1">
+      <c r="CB207" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="208" spans="1:80" ht="15" customHeight="1">
       <c r="A208" t="s">
         <v>192</v>
       </c>
@@ -11226,11 +11238,11 @@
       <c r="AA208" t="b">
         <v>1</v>
       </c>
-      <c r="BZ208" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="209" spans="1:78" ht="15" customHeight="1">
+      <c r="CB208" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209" spans="1:80" ht="15" customHeight="1">
       <c r="A209" t="s">
         <v>192</v>
       </c>
@@ -11265,11 +11277,11 @@
       <c r="AA209" t="b">
         <v>1</v>
       </c>
-      <c r="BZ209" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="210" spans="1:78" ht="15" customHeight="1">
+      <c r="CB209" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="210" spans="1:80" ht="15" customHeight="1">
       <c r="A210" t="s">
         <v>192</v>
       </c>
@@ -11304,11 +11316,11 @@
       <c r="AA210" t="b">
         <v>1</v>
       </c>
-      <c r="BZ210" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="211" spans="1:78" ht="15" customHeight="1">
+      <c r="CB210" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:80" ht="15" customHeight="1">
       <c r="A211" t="s">
         <v>192</v>
       </c>
@@ -11343,11 +11355,11 @@
       <c r="AA211" t="b">
         <v>1</v>
       </c>
-      <c r="BZ211" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="212" spans="1:78" ht="15" customHeight="1">
+      <c r="CB211" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:80" ht="15" customHeight="1">
       <c r="A212" t="s">
         <v>192</v>
       </c>
@@ -11382,11 +11394,11 @@
       <c r="AA212" t="b">
         <v>1</v>
       </c>
-      <c r="BZ212" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="213" spans="1:78" ht="15" customHeight="1">
+      <c r="CB212" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:80" ht="15" customHeight="1">
       <c r="A213" t="s">
         <v>192</v>
       </c>
@@ -11421,11 +11433,11 @@
       <c r="AA213" t="b">
         <v>1</v>
       </c>
-      <c r="BZ213" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="214" spans="1:78" ht="15" customHeight="1">
+      <c r="CB213" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:80" ht="15" customHeight="1">
       <c r="A214" t="s">
         <v>192</v>
       </c>
@@ -11460,11 +11472,11 @@
       <c r="AA214" t="b">
         <v>1</v>
       </c>
-      <c r="BZ214" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="215" spans="1:78" ht="15" customHeight="1">
+      <c r="CB214" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:80" ht="15" customHeight="1">
       <c r="A215" t="s">
         <v>192</v>
       </c>
@@ -11499,11 +11511,11 @@
       <c r="AA215" t="b">
         <v>1</v>
       </c>
-      <c r="BZ215" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="216" spans="1:78" ht="15" customHeight="1">
+      <c r="CB215" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="216" spans="1:80" ht="15" customHeight="1">
       <c r="A216" t="s">
         <v>192</v>
       </c>
@@ -11538,11 +11550,11 @@
       <c r="AA216" t="b">
         <v>1</v>
       </c>
-      <c r="BZ216" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="217" spans="1:78" ht="15" customHeight="1">
+      <c r="CB216" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:80" ht="15" customHeight="1">
       <c r="A217" t="s">
         <v>192</v>
       </c>
@@ -11577,11 +11589,11 @@
       <c r="AA217" t="b">
         <v>1</v>
       </c>
-      <c r="BZ217" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="218" spans="1:78" ht="15" customHeight="1">
+      <c r="CB217" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:80" ht="15" customHeight="1">
       <c r="A218" t="s">
         <v>192</v>
       </c>
@@ -11616,11 +11628,11 @@
       <c r="AA218" t="b">
         <v>1</v>
       </c>
-      <c r="BZ218" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="219" spans="1:78" ht="15" customHeight="1">
+      <c r="CB218" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219" spans="1:80" ht="15" customHeight="1">
       <c r="A219" t="s">
         <v>192</v>
       </c>
@@ -11655,11 +11667,11 @@
       <c r="AA219" t="b">
         <v>1</v>
       </c>
-      <c r="BZ219" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="220" spans="1:78" ht="15" customHeight="1">
+      <c r="CB219" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:80" ht="15" customHeight="1">
       <c r="A220" t="s">
         <v>192</v>
       </c>
@@ -11694,11 +11706,11 @@
       <c r="AA220" t="b">
         <v>1</v>
       </c>
-      <c r="BZ220" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="221" spans="1:78" ht="15" customHeight="1">
+      <c r="CB220" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:80" ht="15" customHeight="1">
       <c r="A221" t="s">
         <v>192</v>
       </c>
@@ -11733,11 +11745,11 @@
       <c r="AA221" t="b">
         <v>1</v>
       </c>
-      <c r="BZ221" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="222" spans="1:78" ht="15" customHeight="1">
+      <c r="CB221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:80" ht="15" customHeight="1">
       <c r="A222" t="s">
         <v>192</v>
       </c>
@@ -11772,11 +11784,11 @@
       <c r="AA222" t="b">
         <v>1</v>
       </c>
-      <c r="BZ222" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="223" spans="1:78" ht="15" customHeight="1">
+      <c r="CB222" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223" spans="1:80" ht="15" customHeight="1">
       <c r="A223" t="s">
         <v>192</v>
       </c>
@@ -11811,11 +11823,11 @@
       <c r="AA223" t="b">
         <v>1</v>
       </c>
-      <c r="BZ223" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="224" spans="1:78" ht="15" customHeight="1">
+      <c r="CB223" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:80" ht="15" customHeight="1">
       <c r="A224" t="s">
         <v>192</v>
       </c>
@@ -11850,11 +11862,11 @@
       <c r="AA224" t="b">
         <v>1</v>
       </c>
-      <c r="BZ224" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="225" spans="1:78" ht="15" customHeight="1">
+      <c r="CB224" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:80" ht="15" customHeight="1">
       <c r="A225" t="s">
         <v>192</v>
       </c>
@@ -11889,11 +11901,11 @@
       <c r="AA225" t="b">
         <v>1</v>
       </c>
-      <c r="BZ225" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="226" spans="1:78" ht="15" customHeight="1">
+      <c r="CB225" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:80" ht="15" customHeight="1">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -11928,11 +11940,11 @@
       <c r="AA226" t="b">
         <v>1</v>
       </c>
-      <c r="BZ226" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="227" spans="1:78" ht="15" customHeight="1">
+      <c r="CB226" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="227" spans="1:80" ht="15" customHeight="1">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -11967,11 +11979,11 @@
       <c r="AA227" t="b">
         <v>1</v>
       </c>
-      <c r="BZ227" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="228" spans="1:78" ht="15" customHeight="1">
+      <c r="CB227" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="228" spans="1:80" ht="15" customHeight="1">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -12006,11 +12018,11 @@
       <c r="AA228" t="b">
         <v>1</v>
       </c>
-      <c r="BZ228" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="229" spans="1:78" ht="15" customHeight="1">
+      <c r="CB228" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="229" spans="1:80" ht="15" customHeight="1">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -12045,11 +12057,11 @@
       <c r="AA229" t="b">
         <v>1</v>
       </c>
-      <c r="BZ229" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="230" spans="1:78" ht="15" customHeight="1">
+      <c r="CB229" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230" spans="1:80" ht="15" customHeight="1">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -12084,11 +12096,11 @@
       <c r="AA230" t="b">
         <v>1</v>
       </c>
-      <c r="BZ230" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="231" spans="1:78" ht="15" customHeight="1">
+      <c r="CB230" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231" spans="1:80" ht="15" customHeight="1">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -12123,11 +12135,11 @@
       <c r="AA231" t="b">
         <v>1</v>
       </c>
-      <c r="BZ231" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="232" spans="1:78" ht="15" customHeight="1">
+      <c r="CB231" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232" spans="1:80" ht="15" customHeight="1">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -12162,11 +12174,11 @@
       <c r="AA232" t="b">
         <v>1</v>
       </c>
-      <c r="BZ232" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="233" spans="1:78" ht="15" customHeight="1">
+      <c r="CB232" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:80" ht="15" customHeight="1">
       <c r="A233" t="s">
         <v>192</v>
       </c>
@@ -12201,11 +12213,11 @@
       <c r="AA233" t="b">
         <v>1</v>
       </c>
-      <c r="BZ233" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="234" spans="1:78" ht="15" customHeight="1">
+      <c r="CB233" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="234" spans="1:80" ht="15" customHeight="1">
       <c r="A234" t="s">
         <v>192</v>
       </c>
@@ -12240,11 +12252,11 @@
       <c r="AA234" t="b">
         <v>1</v>
       </c>
-      <c r="BZ234" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="235" spans="1:78" ht="15" customHeight="1">
+      <c r="CB234" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="235" spans="1:80" ht="15" customHeight="1">
       <c r="A235" t="s">
         <v>192</v>
       </c>
@@ -12279,11 +12291,11 @@
       <c r="AA235" t="b">
         <v>1</v>
       </c>
-      <c r="BZ235" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="236" spans="1:78" ht="15" customHeight="1">
+      <c r="CB235" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:80" ht="15" customHeight="1">
       <c r="A236" t="s">
         <v>192</v>
       </c>
@@ -12318,11 +12330,11 @@
       <c r="AA236" t="b">
         <v>1</v>
       </c>
-      <c r="BZ236" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="237" spans="1:78" ht="15" customHeight="1">
+      <c r="CB236" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="237" spans="1:80" ht="15" customHeight="1">
       <c r="A237" t="s">
         <v>192</v>
       </c>
@@ -12357,11 +12369,11 @@
       <c r="AA237" t="b">
         <v>1</v>
       </c>
-      <c r="BZ237" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="238" spans="1:78" ht="15" customHeight="1">
+      <c r="CB237" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="238" spans="1:80" ht="15" customHeight="1">
       <c r="A238" t="s">
         <v>192</v>
       </c>
@@ -12396,11 +12408,11 @@
       <c r="AA238" t="b">
         <v>1</v>
       </c>
-      <c r="BZ238" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="239" spans="1:78" ht="15" customHeight="1">
+      <c r="CB238" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="239" spans="1:80" ht="15" customHeight="1">
       <c r="A239" t="s">
         <v>192</v>
       </c>
@@ -12435,11 +12447,11 @@
       <c r="AA239" t="b">
         <v>1</v>
       </c>
-      <c r="BZ239" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="240" spans="1:78" ht="15" customHeight="1">
+      <c r="CB239" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="240" spans="1:80" ht="15" customHeight="1">
       <c r="A240" t="s">
         <v>192</v>
       </c>
@@ -12474,11 +12486,11 @@
       <c r="AA240" t="b">
         <v>1</v>
       </c>
-      <c r="BZ240" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="241" spans="1:78" ht="15" customHeight="1">
+      <c r="CB240" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:80" ht="15" customHeight="1">
       <c r="A241" t="s">
         <v>192</v>
       </c>
@@ -12513,11 +12525,11 @@
       <c r="AA241" t="b">
         <v>1</v>
       </c>
-      <c r="BZ241" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="242" spans="1:78" ht="15" customHeight="1">
+      <c r="CB241" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="242" spans="1:80" ht="15" customHeight="1">
       <c r="A242" t="s">
         <v>192</v>
       </c>
@@ -12552,11 +12564,11 @@
       <c r="AA242" t="b">
         <v>1</v>
       </c>
-      <c r="BZ242" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="243" spans="1:78" ht="15" customHeight="1">
+      <c r="CB242" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="243" spans="1:80" ht="15" customHeight="1">
       <c r="A243" t="s">
         <v>192</v>
       </c>
@@ -12591,11 +12603,11 @@
       <c r="AA243" t="b">
         <v>1</v>
       </c>
-      <c r="BZ243" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="244" spans="1:78" ht="15" customHeight="1">
+      <c r="CB243" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="244" spans="1:80" ht="15" customHeight="1">
       <c r="A244" t="s">
         <v>192</v>
       </c>
@@ -12630,11 +12642,11 @@
       <c r="AA244" t="b">
         <v>1</v>
       </c>
-      <c r="BZ244" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="245" spans="1:78" ht="15" customHeight="1">
+      <c r="CB244" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:80" ht="15" customHeight="1">
       <c r="A245" t="s">
         <v>192</v>
       </c>
@@ -12669,11 +12681,11 @@
       <c r="AA245" t="b">
         <v>1</v>
       </c>
-      <c r="BZ245" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="246" spans="1:78" ht="15" customHeight="1">
+      <c r="CB245" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="246" spans="1:80" ht="15" customHeight="1">
       <c r="A246" t="s">
         <v>192</v>
       </c>
@@ -12708,11 +12720,11 @@
       <c r="AA246" t="b">
         <v>1</v>
       </c>
-      <c r="BZ246" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="247" spans="1:78" ht="15" customHeight="1">
+      <c r="CB246" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:80" ht="15" customHeight="1">
       <c r="A247" t="s">
         <v>192</v>
       </c>
@@ -12747,11 +12759,11 @@
       <c r="AA247" t="b">
         <v>1</v>
       </c>
-      <c r="BZ247" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="248" spans="1:78" ht="15" customHeight="1">
+      <c r="CB247" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="248" spans="1:80" ht="15" customHeight="1">
       <c r="A248" t="s">
         <v>192</v>
       </c>
@@ -12786,11 +12798,11 @@
       <c r="AA248" t="b">
         <v>1</v>
       </c>
-      <c r="BZ248" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="249" spans="1:78" ht="15" customHeight="1">
+      <c r="CB248" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="249" spans="1:80" ht="15" customHeight="1">
       <c r="A249" t="s">
         <v>192</v>
       </c>
@@ -12825,11 +12837,11 @@
       <c r="AA249" t="b">
         <v>1</v>
       </c>
-      <c r="BZ249" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="250" spans="1:78" ht="15" customHeight="1">
+      <c r="CB249" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="250" spans="1:80" ht="15" customHeight="1">
       <c r="A250" t="s">
         <v>192</v>
       </c>
@@ -12864,11 +12876,11 @@
       <c r="AA250" t="b">
         <v>1</v>
       </c>
-      <c r="BZ250" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="251" spans="1:78" ht="15" customHeight="1">
+      <c r="CB250" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="251" spans="1:80" ht="15" customHeight="1">
       <c r="A251" t="s">
         <v>192</v>
       </c>
@@ -12903,11 +12915,11 @@
       <c r="AA251" t="b">
         <v>1</v>
       </c>
-      <c r="BZ251" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="252" spans="1:78" ht="15" customHeight="1">
+      <c r="CB251" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="252" spans="1:80" ht="15" customHeight="1">
       <c r="A252" t="s">
         <v>192</v>
       </c>
@@ -12942,11 +12954,11 @@
       <c r="AA252" t="b">
         <v>1</v>
       </c>
-      <c r="BZ252" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="253" spans="1:78" ht="15" customHeight="1">
+      <c r="CB252" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="253" spans="1:80" ht="15" customHeight="1">
       <c r="A253" t="s">
         <v>192</v>
       </c>
@@ -12981,11 +12993,11 @@
       <c r="AA253" t="b">
         <v>1</v>
       </c>
-      <c r="BZ253" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="254" spans="1:78" ht="15" customHeight="1">
+      <c r="CB253" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:80" ht="15" customHeight="1">
       <c r="A254" t="s">
         <v>192</v>
       </c>
@@ -13020,11 +13032,11 @@
       <c r="AA254" t="b">
         <v>1</v>
       </c>
-      <c r="BZ254" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="255" spans="1:78" ht="15" customHeight="1">
+      <c r="CB254" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="255" spans="1:80" ht="15" customHeight="1">
       <c r="A255" t="s">
         <v>192</v>
       </c>
@@ -13059,11 +13071,11 @@
       <c r="AA255" t="b">
         <v>1</v>
       </c>
-      <c r="BZ255" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="256" spans="1:78" ht="15" customHeight="1">
+      <c r="CB255" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="256" spans="1:80" ht="15" customHeight="1">
       <c r="A256" t="s">
         <v>192</v>
       </c>
@@ -13098,11 +13110,11 @@
       <c r="AA256" t="b">
         <v>1</v>
       </c>
-      <c r="BZ256" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="257" spans="1:81" ht="15" customHeight="1">
+      <c r="CB256" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="257" spans="1:83" ht="15" customHeight="1">
       <c r="A257" t="s">
         <v>199</v>
       </c>
@@ -13176,14 +13188,14 @@
       <c r="AF257" t="b">
         <v>0</v>
       </c>
-      <c r="BZ257" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC257" t="s">
+      <c r="CB257" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE257" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:81" ht="15" customHeight="1">
+    <row r="258" spans="1:83" ht="15" customHeight="1">
       <c r="A258" t="s">
         <v>199</v>
       </c>
@@ -13218,11 +13230,11 @@
       <c r="AA258" t="b">
         <v>1</v>
       </c>
-      <c r="BZ258" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="259" spans="1:81" ht="15" customHeight="1">
+      <c r="CB258" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="259" spans="1:83" ht="15" customHeight="1">
       <c r="A259" t="s">
         <v>199</v>
       </c>
@@ -13257,11 +13269,11 @@
       <c r="AA259" t="b">
         <v>1</v>
       </c>
-      <c r="BZ259" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="260" spans="1:81" ht="15" customHeight="1">
+      <c r="CB259" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="260" spans="1:83" ht="15" customHeight="1">
       <c r="A260" t="s">
         <v>199</v>
       </c>
@@ -13296,11 +13308,11 @@
       <c r="AA260" t="b">
         <v>1</v>
       </c>
-      <c r="BZ260" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="261" spans="1:81" ht="15" customHeight="1">
+      <c r="CB260" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:83" ht="15" customHeight="1">
       <c r="A261" t="s">
         <v>199</v>
       </c>
@@ -13335,11 +13347,11 @@
       <c r="AA261" t="b">
         <v>1</v>
       </c>
-      <c r="BZ261" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="262" spans="1:81" ht="15" customHeight="1">
+      <c r="CB261" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="262" spans="1:83" ht="15" customHeight="1">
       <c r="A262" t="s">
         <v>199</v>
       </c>
@@ -13374,11 +13386,11 @@
       <c r="AA262" t="b">
         <v>1</v>
       </c>
-      <c r="BZ262" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="263" spans="1:81" ht="15" customHeight="1">
+      <c r="CB262" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:83" ht="15" customHeight="1">
       <c r="A263" t="s">
         <v>199</v>
       </c>
@@ -13413,11 +13425,11 @@
       <c r="AA263" t="b">
         <v>1</v>
       </c>
-      <c r="BZ263" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="264" spans="1:81" ht="15" customHeight="1">
+      <c r="CB263" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:83" ht="15" customHeight="1">
       <c r="A264" t="s">
         <v>199</v>
       </c>
@@ -13452,11 +13464,11 @@
       <c r="AA264" t="b">
         <v>1</v>
       </c>
-      <c r="BZ264" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="265" spans="1:81" ht="15" customHeight="1">
+      <c r="CB264" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="265" spans="1:83" ht="15" customHeight="1">
       <c r="A265" t="s">
         <v>199</v>
       </c>
@@ -13491,11 +13503,11 @@
       <c r="AA265" t="b">
         <v>1</v>
       </c>
-      <c r="BZ265" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="266" spans="1:81" ht="15" customHeight="1">
+      <c r="CB265" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="266" spans="1:83" ht="15" customHeight="1">
       <c r="A266" t="s">
         <v>199</v>
       </c>
@@ -13530,11 +13542,11 @@
       <c r="AA266" t="b">
         <v>1</v>
       </c>
-      <c r="BZ266" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="267" spans="1:81" ht="15" customHeight="1">
+      <c r="CB266" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="267" spans="1:83" ht="15" customHeight="1">
       <c r="A267" t="s">
         <v>199</v>
       </c>
@@ -13569,11 +13581,11 @@
       <c r="AA267" t="b">
         <v>1</v>
       </c>
-      <c r="BZ267" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="268" spans="1:81" ht="15" customHeight="1">
+      <c r="CB267" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="268" spans="1:83" ht="15" customHeight="1">
       <c r="A268" t="s">
         <v>199</v>
       </c>
@@ -13608,11 +13620,11 @@
       <c r="AA268" t="b">
         <v>1</v>
       </c>
-      <c r="BZ268" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="269" spans="1:81" ht="15" customHeight="1">
+      <c r="CB268" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269" spans="1:83" ht="15" customHeight="1">
       <c r="A269" t="s">
         <v>199</v>
       </c>
@@ -13647,11 +13659,11 @@
       <c r="AA269" t="b">
         <v>1</v>
       </c>
-      <c r="BZ269" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="270" spans="1:81" ht="15" customHeight="1">
+      <c r="CB269" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="270" spans="1:83" ht="15" customHeight="1">
       <c r="A270" t="s">
         <v>199</v>
       </c>
@@ -13686,11 +13698,11 @@
       <c r="AA270" t="b">
         <v>1</v>
       </c>
-      <c r="BZ270" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="271" spans="1:81" ht="15" customHeight="1">
+      <c r="CB270" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="271" spans="1:83" ht="15" customHeight="1">
       <c r="A271" t="s">
         <v>199</v>
       </c>
@@ -13725,11 +13737,11 @@
       <c r="AA271" t="b">
         <v>1</v>
       </c>
-      <c r="BZ271" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="272" spans="1:81" ht="15" customHeight="1">
+      <c r="CB271" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:83" ht="15" customHeight="1">
       <c r="A272" t="s">
         <v>199</v>
       </c>
@@ -13764,11 +13776,11 @@
       <c r="AA272" t="b">
         <v>1</v>
       </c>
-      <c r="BZ272" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="273" spans="1:81" ht="15" customHeight="1">
+      <c r="CB272" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="273" spans="1:83" ht="15" customHeight="1">
       <c r="A273" t="s">
         <v>199</v>
       </c>
@@ -13803,11 +13815,11 @@
       <c r="AA273" t="b">
         <v>1</v>
       </c>
-      <c r="BZ273" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="274" spans="1:81" ht="15" customHeight="1">
+      <c r="CB273" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="274" spans="1:83" ht="15" customHeight="1">
       <c r="A274" t="s">
         <v>199</v>
       </c>
@@ -13842,11 +13854,11 @@
       <c r="AA274" t="b">
         <v>1</v>
       </c>
-      <c r="BZ274" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="275" spans="1:81" ht="15" customHeight="1">
+      <c r="CB274" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="275" spans="1:83" ht="15" customHeight="1">
       <c r="A275" t="s">
         <v>199</v>
       </c>
@@ -13881,11 +13893,11 @@
       <c r="AA275" t="b">
         <v>1</v>
       </c>
-      <c r="BZ275" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="276" spans="1:81" ht="15" customHeight="1">
+      <c r="CB275" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="276" spans="1:83" ht="15" customHeight="1">
       <c r="A276" t="s">
         <v>199</v>
       </c>
@@ -13920,11 +13932,11 @@
       <c r="AA276" t="b">
         <v>1</v>
       </c>
-      <c r="BZ276" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="277" spans="1:81" ht="15" customHeight="1">
+      <c r="CB276" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:83" ht="15" customHeight="1">
       <c r="A277" t="s">
         <v>199</v>
       </c>
@@ -13959,11 +13971,11 @@
       <c r="AA277" t="b">
         <v>1</v>
       </c>
-      <c r="BZ277" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="278" spans="1:81" ht="15" customHeight="1">
+      <c r="CB277" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="278" spans="1:83" ht="15" customHeight="1">
       <c r="A278" t="s">
         <v>199</v>
       </c>
@@ -13998,11 +14010,11 @@
       <c r="AA278" t="b">
         <v>1</v>
       </c>
-      <c r="BZ278" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="279" spans="1:81" ht="15" customHeight="1">
+      <c r="CB278" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="279" spans="1:83" ht="15" customHeight="1">
       <c r="A279" t="s">
         <v>199</v>
       </c>
@@ -14037,11 +14049,11 @@
       <c r="AA279" t="b">
         <v>1</v>
       </c>
-      <c r="BZ279" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="280" spans="1:81" ht="15" customHeight="1">
+      <c r="CB279" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="280" spans="1:83" ht="15" customHeight="1">
       <c r="A280" t="s">
         <v>199</v>
       </c>
@@ -14076,11 +14088,11 @@
       <c r="AA280" t="b">
         <v>1</v>
       </c>
-      <c r="BZ280" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="281" spans="1:81" ht="15" customHeight="1">
+      <c r="CB280" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="281" spans="1:83" ht="15" customHeight="1">
       <c r="A281" t="s">
         <v>199</v>
       </c>
@@ -14115,11 +14127,11 @@
       <c r="AA281" t="b">
         <v>1</v>
       </c>
-      <c r="BZ281" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="282" spans="1:81" ht="15" customHeight="1">
+      <c r="CB281" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="282" spans="1:83" ht="15" customHeight="1">
       <c r="A282" t="s">
         <v>199</v>
       </c>
@@ -14154,11 +14166,11 @@
       <c r="AA282" t="b">
         <v>1</v>
       </c>
-      <c r="BZ282" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="283" spans="1:81" ht="15" customHeight="1">
+      <c r="CB282" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="283" spans="1:83" ht="15" customHeight="1">
       <c r="A283" t="s">
         <v>204</v>
       </c>
@@ -14226,14 +14238,14 @@
       <c r="AF283" t="b">
         <v>0</v>
       </c>
-      <c r="BZ283" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC283" t="s">
+      <c r="CB283" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE283" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="284" spans="1:81" ht="15" customHeight="1">
+    <row r="284" spans="1:83" ht="15" customHeight="1">
       <c r="A284" t="s">
         <v>204</v>
       </c>
@@ -14265,11 +14277,11 @@
       <c r="AA284" t="b">
         <v>1</v>
       </c>
-      <c r="BZ284" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="285" spans="1:81" ht="15" customHeight="1">
+      <c r="CB284" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="285" spans="1:83" ht="15" customHeight="1">
       <c r="A285" t="s">
         <v>204</v>
       </c>
@@ -14301,11 +14313,11 @@
       <c r="AA285" t="b">
         <v>1</v>
       </c>
-      <c r="BZ285" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="286" spans="1:81" ht="15" customHeight="1">
+      <c r="CB285" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="286" spans="1:83" ht="15" customHeight="1">
       <c r="A286" t="s">
         <v>204</v>
       </c>
@@ -14337,11 +14349,11 @@
       <c r="AA286" t="b">
         <v>1</v>
       </c>
-      <c r="BZ286" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="287" spans="1:81" ht="15" customHeight="1">
+      <c r="CB286" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="287" spans="1:83" ht="15" customHeight="1">
       <c r="A287" t="s">
         <v>204</v>
       </c>
@@ -14373,11 +14385,11 @@
       <c r="AA287" t="b">
         <v>1</v>
       </c>
-      <c r="BZ287" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="288" spans="1:81" ht="15" customHeight="1">
+      <c r="CB287" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="288" spans="1:83" ht="15" customHeight="1">
       <c r="A288" t="s">
         <v>204</v>
       </c>
@@ -14409,11 +14421,11 @@
       <c r="AA288" t="b">
         <v>1</v>
       </c>
-      <c r="BZ288" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="289" spans="1:81" ht="15" customHeight="1">
+      <c r="CB288" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="289" spans="1:83" ht="15" customHeight="1">
       <c r="A289" t="s">
         <v>204</v>
       </c>
@@ -14445,11 +14457,11 @@
       <c r="AA289" t="b">
         <v>1</v>
       </c>
-      <c r="BZ289" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="290" spans="1:81" ht="15" customHeight="1">
+      <c r="CB289" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="290" spans="1:83" ht="15" customHeight="1">
       <c r="A290" t="s">
         <v>204</v>
       </c>
@@ -14481,11 +14493,11 @@
       <c r="AA290" t="b">
         <v>1</v>
       </c>
-      <c r="BZ290" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="291" spans="1:81" ht="15" customHeight="1">
+      <c r="CB290" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="291" spans="1:83" ht="15" customHeight="1">
       <c r="A291" t="s">
         <v>204</v>
       </c>
@@ -14517,11 +14529,11 @@
       <c r="AA291" t="b">
         <v>1</v>
       </c>
-      <c r="BZ291" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="292" spans="1:81" ht="15" customHeight="1">
+      <c r="CB291" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="292" spans="1:83" ht="15" customHeight="1">
       <c r="A292" t="s">
         <v>204</v>
       </c>
@@ -14553,11 +14565,11 @@
       <c r="AA292" t="b">
         <v>1</v>
       </c>
-      <c r="BZ292" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="293" spans="1:81" ht="15" customHeight="1">
+      <c r="CB292" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="293" spans="1:83" ht="15" customHeight="1">
       <c r="A293" t="s">
         <v>204</v>
       </c>
@@ -14589,11 +14601,11 @@
       <c r="AA293" t="b">
         <v>1</v>
       </c>
-      <c r="BZ293" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="294" spans="1:81" ht="15" customHeight="1">
+      <c r="CB293" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="294" spans="1:83" ht="15" customHeight="1">
       <c r="A294" t="s">
         <v>204</v>
       </c>
@@ -14625,11 +14637,11 @@
       <c r="AA294" t="b">
         <v>1</v>
       </c>
-      <c r="BZ294" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="295" spans="1:81" ht="15" customHeight="1">
+      <c r="CB294" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="295" spans="1:83" ht="15" customHeight="1">
       <c r="A295" t="s">
         <v>204</v>
       </c>
@@ -14661,11 +14673,11 @@
       <c r="AA295" t="b">
         <v>1</v>
       </c>
-      <c r="BZ295" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="296" spans="1:81" ht="15" customHeight="1">
+      <c r="CB295" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="296" spans="1:83" ht="15" customHeight="1">
       <c r="A296" t="s">
         <v>209</v>
       </c>
@@ -14733,14 +14745,14 @@
       <c r="AF296" t="b">
         <v>0</v>
       </c>
-      <c r="BZ296" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC296" t="s">
+      <c r="CB296" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE296" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="297" spans="1:81" ht="15" customHeight="1">
+    <row r="297" spans="1:83" ht="15" customHeight="1">
       <c r="A297" t="s">
         <v>209</v>
       </c>
@@ -14772,11 +14784,11 @@
       <c r="AA297" t="b">
         <v>1</v>
       </c>
-      <c r="BZ297" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="298" spans="1:81" ht="15" customHeight="1">
+      <c r="CB297" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="298" spans="1:83" ht="15" customHeight="1">
       <c r="A298" t="s">
         <v>209</v>
       </c>
@@ -14808,11 +14820,11 @@
       <c r="AA298" t="b">
         <v>1</v>
       </c>
-      <c r="BZ298" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="299" spans="1:81" ht="15" customHeight="1">
+      <c r="CB298" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="299" spans="1:83" ht="15" customHeight="1">
       <c r="A299" t="s">
         <v>209</v>
       </c>
@@ -14844,11 +14856,11 @@
       <c r="AA299" t="b">
         <v>1</v>
       </c>
-      <c r="BZ299" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="300" spans="1:81" ht="15" customHeight="1">
+      <c r="CB299" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="300" spans="1:83" ht="15" customHeight="1">
       <c r="A300" t="s">
         <v>209</v>
       </c>
@@ -14880,11 +14892,11 @@
       <c r="AA300" t="b">
         <v>1</v>
       </c>
-      <c r="BZ300" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="301" spans="1:81" ht="15" customHeight="1">
+      <c r="CB300" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="301" spans="1:83" ht="15" customHeight="1">
       <c r="A301" t="s">
         <v>209</v>
       </c>
@@ -14916,11 +14928,11 @@
       <c r="AA301" t="b">
         <v>1</v>
       </c>
-      <c r="BZ301" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="302" spans="1:81" ht="15" customHeight="1">
+      <c r="CB301" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="302" spans="1:83" ht="15" customHeight="1">
       <c r="A302" t="s">
         <v>209</v>
       </c>
@@ -14952,11 +14964,11 @@
       <c r="AA302" t="b">
         <v>1</v>
       </c>
-      <c r="BZ302" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="303" spans="1:81" ht="15" customHeight="1">
+      <c r="CB302" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="303" spans="1:83" ht="15" customHeight="1">
       <c r="A303" t="s">
         <v>209</v>
       </c>
@@ -14988,11 +15000,11 @@
       <c r="AA303" t="b">
         <v>1</v>
       </c>
-      <c r="BZ303" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="304" spans="1:81" ht="15" customHeight="1">
+      <c r="CB303" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="304" spans="1:83" ht="15" customHeight="1">
       <c r="A304" t="s">
         <v>209</v>
       </c>
@@ -15024,11 +15036,11 @@
       <c r="AA304" t="b">
         <v>1</v>
       </c>
-      <c r="BZ304" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="305" spans="1:78" ht="15" customHeight="1">
+      <c r="CB304" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="305" spans="1:80" ht="15" customHeight="1">
       <c r="A305" t="s">
         <v>209</v>
       </c>
@@ -15060,11 +15072,11 @@
       <c r="AA305" t="b">
         <v>1</v>
       </c>
-      <c r="BZ305" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="306" spans="1:78" ht="15" customHeight="1">
+      <c r="CB305" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="306" spans="1:80" ht="15" customHeight="1">
       <c r="A306" t="s">
         <v>209</v>
       </c>
@@ -15096,11 +15108,11 @@
       <c r="AA306" t="b">
         <v>1</v>
       </c>
-      <c r="BZ306" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="307" spans="1:78" ht="15" customHeight="1">
+      <c r="CB306" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="307" spans="1:80" ht="15" customHeight="1">
       <c r="A307" t="s">
         <v>209</v>
       </c>
@@ -15132,11 +15144,11 @@
       <c r="AA307" t="b">
         <v>1</v>
       </c>
-      <c r="BZ307" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="308" spans="1:78" ht="15" customHeight="1">
+      <c r="CB307" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="308" spans="1:80" ht="15" customHeight="1">
       <c r="A308" t="s">
         <v>209</v>
       </c>
@@ -15168,11 +15180,11 @@
       <c r="AA308" t="b">
         <v>1</v>
       </c>
-      <c r="BZ308" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="309" spans="1:78" ht="15" customHeight="1">
+      <c r="CB308" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="309" spans="1:80" ht="15" customHeight="1">
       <c r="A309" t="s">
         <v>209</v>
       </c>
@@ -15204,11 +15216,11 @@
       <c r="AA309" t="b">
         <v>1</v>
       </c>
-      <c r="BZ309" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="310" spans="1:78" ht="15" customHeight="1">
+      <c r="CB309" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="310" spans="1:80" ht="15" customHeight="1">
       <c r="A310" t="s">
         <v>209</v>
       </c>
@@ -15240,11 +15252,11 @@
       <c r="AA310" t="b">
         <v>1</v>
       </c>
-      <c r="BZ310" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="311" spans="1:78" ht="15" customHeight="1">
+      <c r="CB310" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311" spans="1:80" ht="15" customHeight="1">
       <c r="A311" t="s">
         <v>209</v>
       </c>
@@ -15276,11 +15288,11 @@
       <c r="AA311" t="b">
         <v>1</v>
       </c>
-      <c r="BZ311" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="312" spans="1:78" ht="15" customHeight="1">
+      <c r="CB311" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="312" spans="1:80" ht="15" customHeight="1">
       <c r="A312" t="s">
         <v>209</v>
       </c>
@@ -15312,11 +15324,11 @@
       <c r="AA312" t="b">
         <v>1</v>
       </c>
-      <c r="BZ312" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="313" spans="1:78" ht="15" customHeight="1">
+      <c r="CB312" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="313" spans="1:80" ht="15" customHeight="1">
       <c r="A313" t="s">
         <v>209</v>
       </c>
@@ -15348,11 +15360,11 @@
       <c r="AA313" t="b">
         <v>1</v>
       </c>
-      <c r="BZ313" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="314" spans="1:78" ht="15" customHeight="1">
+      <c r="CB313" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="314" spans="1:80" ht="15" customHeight="1">
       <c r="A314" t="s">
         <v>209</v>
       </c>
@@ -15384,11 +15396,11 @@
       <c r="AA314" t="b">
         <v>1</v>
       </c>
-      <c r="BZ314" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="315" spans="1:78" ht="15" customHeight="1">
+      <c r="CB314" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="315" spans="1:80" ht="15" customHeight="1">
       <c r="A315" t="s">
         <v>209</v>
       </c>
@@ -15420,11 +15432,11 @@
       <c r="AA315" t="b">
         <v>1</v>
       </c>
-      <c r="BZ315" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="316" spans="1:78" ht="15" customHeight="1">
+      <c r="CB315" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="316" spans="1:80" ht="15" customHeight="1">
       <c r="A316" t="s">
         <v>209</v>
       </c>
@@ -15456,11 +15468,11 @@
       <c r="AA316" t="b">
         <v>1</v>
       </c>
-      <c r="BZ316" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="317" spans="1:78" ht="15" customHeight="1">
+      <c r="CB316" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="317" spans="1:80" ht="15" customHeight="1">
       <c r="A317" t="s">
         <v>209</v>
       </c>
@@ -15492,11 +15504,11 @@
       <c r="AA317" t="b">
         <v>1</v>
       </c>
-      <c r="BZ317" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="318" spans="1:78" ht="15" customHeight="1">
+      <c r="CB317" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="318" spans="1:80" ht="15" customHeight="1">
       <c r="A318" t="s">
         <v>209</v>
       </c>
@@ -15528,11 +15540,11 @@
       <c r="AA318" t="b">
         <v>1</v>
       </c>
-      <c r="BZ318" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="319" spans="1:78" ht="15" customHeight="1">
+      <c r="CB318" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="319" spans="1:80" ht="15" customHeight="1">
       <c r="A319" t="s">
         <v>209</v>
       </c>
@@ -15564,11 +15576,11 @@
       <c r="AA319" t="b">
         <v>1</v>
       </c>
-      <c r="BZ319" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="320" spans="1:78" ht="15" customHeight="1">
+      <c r="CB319" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="320" spans="1:80" ht="15" customHeight="1">
       <c r="A320" t="s">
         <v>209</v>
       </c>
@@ -15600,11 +15612,11 @@
       <c r="AA320" t="b">
         <v>1</v>
       </c>
-      <c r="BZ320" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="321" spans="1:81" ht="15" customHeight="1">
+      <c r="CB320" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="321" spans="1:83" ht="15" customHeight="1">
       <c r="A321" t="s">
         <v>209</v>
       </c>
@@ -15636,11 +15648,11 @@
       <c r="AA321" t="b">
         <v>1</v>
       </c>
-      <c r="BZ321" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="322" spans="1:81" ht="15" customHeight="1">
+      <c r="CB321" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="322" spans="1:83" ht="15" customHeight="1">
       <c r="A322" t="s">
         <v>209</v>
       </c>
@@ -15672,11 +15684,11 @@
       <c r="AA322" t="b">
         <v>1</v>
       </c>
-      <c r="BZ322" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="323" spans="1:81" ht="15" customHeight="1">
+      <c r="CB322" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="323" spans="1:83" ht="15" customHeight="1">
       <c r="A323" t="s">
         <v>209</v>
       </c>
@@ -15708,11 +15720,11 @@
       <c r="AA323" t="b">
         <v>1</v>
       </c>
-      <c r="BZ323" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="324" spans="1:81" ht="15" customHeight="1">
+      <c r="CB323" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="324" spans="1:83" ht="15" customHeight="1">
       <c r="A324" t="s">
         <v>209</v>
       </c>
@@ -15744,11 +15756,11 @@
       <c r="AA324" t="b">
         <v>1</v>
       </c>
-      <c r="BZ324" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="325" spans="1:81" ht="15" customHeight="1">
+      <c r="CB324" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="325" spans="1:83" ht="15" customHeight="1">
       <c r="A325" t="s">
         <v>209</v>
       </c>
@@ -15780,11 +15792,11 @@
       <c r="AA325" t="b">
         <v>1</v>
       </c>
-      <c r="BZ325" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="326" spans="1:81" ht="15" customHeight="1">
+      <c r="CB325" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="326" spans="1:83" ht="15" customHeight="1">
       <c r="A326" t="s">
         <v>209</v>
       </c>
@@ -15816,11 +15828,11 @@
       <c r="AA326" t="b">
         <v>1</v>
       </c>
-      <c r="BZ326" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="327" spans="1:81" ht="15" customHeight="1">
+      <c r="CB326" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="327" spans="1:83" ht="15" customHeight="1">
       <c r="A327" t="s">
         <v>209</v>
       </c>
@@ -15852,11 +15864,11 @@
       <c r="AA327" t="b">
         <v>1</v>
       </c>
-      <c r="BZ327" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="328" spans="1:81" ht="15" customHeight="1">
+      <c r="CB327" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="328" spans="1:83" ht="15" customHeight="1">
       <c r="A328" t="s">
         <v>209</v>
       </c>
@@ -15888,11 +15900,11 @@
       <c r="AA328" t="b">
         <v>1</v>
       </c>
-      <c r="BZ328" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="329" spans="1:81" ht="15" customHeight="1">
+      <c r="CB328" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="329" spans="1:83" ht="15" customHeight="1">
       <c r="A329" t="s">
         <v>209</v>
       </c>
@@ -15924,11 +15936,11 @@
       <c r="AA329" t="b">
         <v>1</v>
       </c>
-      <c r="BZ329" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="330" spans="1:81" ht="15" customHeight="1">
+      <c r="CB329" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="330" spans="1:83" ht="15" customHeight="1">
       <c r="A330" t="s">
         <v>209</v>
       </c>
@@ -15960,11 +15972,11 @@
       <c r="AA330" t="b">
         <v>1</v>
       </c>
-      <c r="BZ330" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="331" spans="1:81" ht="15" customHeight="1">
+      <c r="CB330" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="331" spans="1:83" ht="15" customHeight="1">
       <c r="A331" t="s">
         <v>209</v>
       </c>
@@ -15996,11 +16008,11 @@
       <c r="AA331" t="b">
         <v>1</v>
       </c>
-      <c r="BZ331" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="332" spans="1:81" ht="15" customHeight="1">
+      <c r="CB331" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="332" spans="1:83" ht="15" customHeight="1">
       <c r="A332" t="s">
         <v>209</v>
       </c>
@@ -16032,11 +16044,11 @@
       <c r="AA332" t="b">
         <v>1</v>
       </c>
-      <c r="BZ332" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="333" spans="1:81" ht="15" customHeight="1">
+      <c r="CB332" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="333" spans="1:83" ht="15" customHeight="1">
       <c r="A333" t="s">
         <v>209</v>
       </c>
@@ -16068,11 +16080,11 @@
       <c r="AA333" t="b">
         <v>1</v>
       </c>
-      <c r="BZ333" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="334" spans="1:81" ht="15" customHeight="1">
+      <c r="CB333" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="334" spans="1:83" ht="15" customHeight="1">
       <c r="A334" t="s">
         <v>213</v>
       </c>
@@ -16140,14 +16152,14 @@
       <c r="AF334" t="b">
         <v>0</v>
       </c>
-      <c r="BZ334" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC334" t="s">
+      <c r="CB334" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE334" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="335" spans="1:81" ht="15" customHeight="1">
+    <row r="335" spans="1:83" ht="15" customHeight="1">
       <c r="A335" t="s">
         <v>213</v>
       </c>
@@ -16179,11 +16191,11 @@
       <c r="AA335" t="b">
         <v>1</v>
       </c>
-      <c r="BZ335" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="336" spans="1:81" ht="15" customHeight="1">
+      <c r="CB335" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="336" spans="1:83" ht="15" customHeight="1">
       <c r="A336" t="s">
         <v>213</v>
       </c>
@@ -16215,11 +16227,11 @@
       <c r="AA336" t="b">
         <v>1</v>
       </c>
-      <c r="BZ336" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="337" spans="1:78" ht="15" customHeight="1">
+      <c r="CB336" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="337" spans="1:80" ht="15" customHeight="1">
       <c r="A337" t="s">
         <v>213</v>
       </c>
@@ -16251,11 +16263,11 @@
       <c r="AA337" t="b">
         <v>1</v>
       </c>
-      <c r="BZ337" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="338" spans="1:78" ht="15" customHeight="1">
+      <c r="CB337" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="338" spans="1:80" ht="15" customHeight="1">
       <c r="A338" t="s">
         <v>213</v>
       </c>
@@ -16287,11 +16299,11 @@
       <c r="AA338" t="b">
         <v>1</v>
       </c>
-      <c r="BZ338" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="339" spans="1:78" ht="15" customHeight="1">
+      <c r="CB338" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="339" spans="1:80" ht="15" customHeight="1">
       <c r="A339" t="s">
         <v>213</v>
       </c>
@@ -16323,11 +16335,11 @@
       <c r="AA339" t="b">
         <v>1</v>
       </c>
-      <c r="BZ339" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="340" spans="1:78" ht="15" customHeight="1">
+      <c r="CB339" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="340" spans="1:80" ht="15" customHeight="1">
       <c r="A340" t="s">
         <v>213</v>
       </c>
@@ -16359,11 +16371,11 @@
       <c r="AA340" t="b">
         <v>1</v>
       </c>
-      <c r="BZ340" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="341" spans="1:78" ht="15" customHeight="1">
+      <c r="CB340" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="341" spans="1:80" ht="15" customHeight="1">
       <c r="A341" t="s">
         <v>213</v>
       </c>
@@ -16395,11 +16407,11 @@
       <c r="AA341" t="b">
         <v>1</v>
       </c>
-      <c r="BZ341" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="342" spans="1:78" ht="15" customHeight="1">
+      <c r="CB341" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="342" spans="1:80" ht="15" customHeight="1">
       <c r="A342" t="s">
         <v>213</v>
       </c>
@@ -16431,11 +16443,11 @@
       <c r="AA342" t="b">
         <v>1</v>
       </c>
-      <c r="BZ342" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="343" spans="1:78" ht="15" customHeight="1">
+      <c r="CB342" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="343" spans="1:80" ht="15" customHeight="1">
       <c r="A343" t="s">
         <v>213</v>
       </c>
@@ -16467,11 +16479,11 @@
       <c r="AA343" t="b">
         <v>1</v>
       </c>
-      <c r="BZ343" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="344" spans="1:78" ht="15" customHeight="1">
+      <c r="CB343" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="344" spans="1:80" ht="15" customHeight="1">
       <c r="A344" t="s">
         <v>213</v>
       </c>
@@ -16503,11 +16515,11 @@
       <c r="AA344" t="b">
         <v>1</v>
       </c>
-      <c r="BZ344" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="345" spans="1:78" ht="15" customHeight="1">
+      <c r="CB344" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="345" spans="1:80" ht="15" customHeight="1">
       <c r="A345" t="s">
         <v>213</v>
       </c>
@@ -16539,11 +16551,11 @@
       <c r="AA345" t="b">
         <v>1</v>
       </c>
-      <c r="BZ345" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="346" spans="1:78" ht="15" customHeight="1">
+      <c r="CB345" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="346" spans="1:80" ht="15" customHeight="1">
       <c r="A346" t="s">
         <v>213</v>
       </c>
@@ -16575,11 +16587,11 @@
       <c r="AA346" t="b">
         <v>1</v>
       </c>
-      <c r="BZ346" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="347" spans="1:78" ht="15" customHeight="1">
+      <c r="CB346" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="347" spans="1:80" ht="15" customHeight="1">
       <c r="A347" t="s">
         <v>213</v>
       </c>
@@ -16611,11 +16623,11 @@
       <c r="AA347" t="b">
         <v>1</v>
       </c>
-      <c r="BZ347" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="348" spans="1:78" ht="15" customHeight="1">
+      <c r="CB347" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="348" spans="1:80" ht="15" customHeight="1">
       <c r="A348" t="s">
         <v>213</v>
       </c>
@@ -16647,11 +16659,11 @@
       <c r="AA348" t="b">
         <v>1</v>
       </c>
-      <c r="BZ348" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="349" spans="1:78" ht="15" customHeight="1">
+      <c r="CB348" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="349" spans="1:80" ht="15" customHeight="1">
       <c r="A349" t="s">
         <v>213</v>
       </c>
@@ -16683,11 +16695,11 @@
       <c r="AA349" t="b">
         <v>1</v>
       </c>
-      <c r="BZ349" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="350" spans="1:78" ht="15" customHeight="1">
+      <c r="CB349" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="350" spans="1:80" ht="15" customHeight="1">
       <c r="A350" t="s">
         <v>213</v>
       </c>
@@ -16719,11 +16731,11 @@
       <c r="AA350" t="b">
         <v>1</v>
       </c>
-      <c r="BZ350" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="351" spans="1:78" ht="15" customHeight="1">
+      <c r="CB350" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="351" spans="1:80" ht="15" customHeight="1">
       <c r="A351" t="s">
         <v>213</v>
       </c>
@@ -16755,11 +16767,11 @@
       <c r="AA351" t="b">
         <v>1</v>
       </c>
-      <c r="BZ351" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="352" spans="1:78" ht="15" customHeight="1">
+      <c r="CB351" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="352" spans="1:80" ht="15" customHeight="1">
       <c r="A352" t="s">
         <v>213</v>
       </c>
@@ -16791,11 +16803,11 @@
       <c r="AA352" t="b">
         <v>1</v>
       </c>
-      <c r="BZ352" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="353" spans="1:78" ht="15" customHeight="1">
+      <c r="CB352" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="353" spans="1:80" ht="15" customHeight="1">
       <c r="A353" t="s">
         <v>213</v>
       </c>
@@ -16827,11 +16839,11 @@
       <c r="AA353" t="b">
         <v>1</v>
       </c>
-      <c r="BZ353" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="354" spans="1:78" ht="15" customHeight="1">
+      <c r="CB353" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="354" spans="1:80" ht="15" customHeight="1">
       <c r="A354" t="s">
         <v>213</v>
       </c>
@@ -16863,11 +16875,11 @@
       <c r="AA354" t="b">
         <v>1</v>
       </c>
-      <c r="BZ354" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="355" spans="1:78" ht="15" customHeight="1">
+      <c r="CB354" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="355" spans="1:80" ht="15" customHeight="1">
       <c r="A355" t="s">
         <v>213</v>
       </c>
@@ -16899,11 +16911,11 @@
       <c r="AA355" t="b">
         <v>1</v>
       </c>
-      <c r="BZ355" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="356" spans="1:78" ht="15" customHeight="1">
+      <c r="CB355" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="356" spans="1:80" ht="15" customHeight="1">
       <c r="A356" t="s">
         <v>213</v>
       </c>
@@ -16935,11 +16947,11 @@
       <c r="AA356" t="b">
         <v>1</v>
       </c>
-      <c r="BZ356" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="357" spans="1:78" ht="15" customHeight="1">
+      <c r="CB356" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="357" spans="1:80" ht="15" customHeight="1">
       <c r="A357" t="s">
         <v>213</v>
       </c>
@@ -16971,11 +16983,11 @@
       <c r="AA357" t="b">
         <v>1</v>
       </c>
-      <c r="BZ357" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="358" spans="1:78" ht="15" customHeight="1">
+      <c r="CB357" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="358" spans="1:80" ht="15" customHeight="1">
       <c r="A358" t="s">
         <v>213</v>
       </c>
@@ -17007,11 +17019,11 @@
       <c r="AA358" t="b">
         <v>1</v>
       </c>
-      <c r="BZ358" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="359" spans="1:78" ht="15" customHeight="1">
+      <c r="CB358" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="359" spans="1:80" ht="15" customHeight="1">
       <c r="A359" t="s">
         <v>213</v>
       </c>
@@ -17043,11 +17055,11 @@
       <c r="AA359" t="b">
         <v>1</v>
       </c>
-      <c r="BZ359" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="360" spans="1:78" ht="15" customHeight="1">
+      <c r="CB359" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" spans="1:80" ht="15" customHeight="1">
       <c r="A360" t="s">
         <v>213</v>
       </c>
@@ -17079,11 +17091,11 @@
       <c r="AA360" t="b">
         <v>1</v>
       </c>
-      <c r="BZ360" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="361" spans="1:78" ht="15" customHeight="1">
+      <c r="CB360" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="361" spans="1:80" ht="15" customHeight="1">
       <c r="A361" t="s">
         <v>213</v>
       </c>
@@ -17115,11 +17127,11 @@
       <c r="AA361" t="b">
         <v>1</v>
       </c>
-      <c r="BZ361" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="362" spans="1:78" ht="15" customHeight="1">
+      <c r="CB361" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="362" spans="1:80" ht="15" customHeight="1">
       <c r="A362" t="s">
         <v>213</v>
       </c>
@@ -17151,11 +17163,11 @@
       <c r="AA362" t="b">
         <v>1</v>
       </c>
-      <c r="BZ362" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="363" spans="1:78" ht="15" customHeight="1">
+      <c r="CB362" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="363" spans="1:80" ht="15" customHeight="1">
       <c r="A363" t="s">
         <v>213</v>
       </c>
@@ -17187,11 +17199,11 @@
       <c r="AA363" t="b">
         <v>1</v>
       </c>
-      <c r="BZ363" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="364" spans="1:78" ht="15" customHeight="1">
+      <c r="CB363" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="364" spans="1:80" ht="15" customHeight="1">
       <c r="A364" t="s">
         <v>213</v>
       </c>
@@ -17223,11 +17235,11 @@
       <c r="AA364" t="b">
         <v>1</v>
       </c>
-      <c r="BZ364" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="365" spans="1:78" ht="15" customHeight="1">
+      <c r="CB364" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="365" spans="1:80" ht="15" customHeight="1">
       <c r="A365" t="s">
         <v>213</v>
       </c>
@@ -17259,11 +17271,11 @@
       <c r="AA365" t="b">
         <v>1</v>
       </c>
-      <c r="BZ365" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="366" spans="1:78" ht="15" customHeight="1">
+      <c r="CB365" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="366" spans="1:80" ht="15" customHeight="1">
       <c r="A366" t="s">
         <v>213</v>
       </c>
@@ -17295,11 +17307,11 @@
       <c r="AA366" t="b">
         <v>1</v>
       </c>
-      <c r="BZ366" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="367" spans="1:78" ht="15" customHeight="1">
+      <c r="CB366" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="367" spans="1:80" ht="15" customHeight="1">
       <c r="A367" t="s">
         <v>213</v>
       </c>
@@ -17331,11 +17343,11 @@
       <c r="AA367" t="b">
         <v>1</v>
       </c>
-      <c r="BZ367" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="368" spans="1:78" ht="15" customHeight="1">
+      <c r="CB367" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="368" spans="1:80" ht="15" customHeight="1">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -17367,11 +17379,11 @@
       <c r="AA368" t="b">
         <v>1</v>
       </c>
-      <c r="BZ368" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="369" spans="1:81" ht="15" customHeight="1">
+      <c r="CB368" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="369" spans="1:83" ht="15" customHeight="1">
       <c r="A369" t="s">
         <v>213</v>
       </c>
@@ -17403,11 +17415,11 @@
       <c r="AA369" t="b">
         <v>1</v>
       </c>
-      <c r="BZ369" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="370" spans="1:81" ht="15" customHeight="1">
+      <c r="CB369" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="370" spans="1:83" ht="15" customHeight="1">
       <c r="A370" t="s">
         <v>213</v>
       </c>
@@ -17439,11 +17451,11 @@
       <c r="AA370" t="b">
         <v>1</v>
       </c>
-      <c r="BZ370" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="371" spans="1:81" ht="15" customHeight="1">
+      <c r="CB370" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="371" spans="1:83" ht="15" customHeight="1">
       <c r="A371" t="s">
         <v>213</v>
       </c>
@@ -17475,11 +17487,11 @@
       <c r="AA371" t="b">
         <v>1</v>
       </c>
-      <c r="BZ371" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="372" spans="1:81" ht="15" customHeight="1">
+      <c r="CB371" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="372" spans="1:83" ht="15" customHeight="1">
       <c r="A372" t="s">
         <v>218</v>
       </c>
@@ -17547,14 +17559,14 @@
       <c r="AF372" t="b">
         <v>0</v>
       </c>
-      <c r="BZ372" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC372" t="s">
+      <c r="CB372" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE372" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="373" spans="1:81" ht="15" customHeight="1">
+    <row r="373" spans="1:83" ht="15" customHeight="1">
       <c r="A373" t="s">
         <v>218</v>
       </c>
@@ -17586,11 +17598,11 @@
       <c r="AA373" t="b">
         <v>1</v>
       </c>
-      <c r="BZ373" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="374" spans="1:81" ht="15" customHeight="1">
+      <c r="CB373" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="374" spans="1:83" ht="15" customHeight="1">
       <c r="A374" t="s">
         <v>218</v>
       </c>
@@ -17622,11 +17634,11 @@
       <c r="AA374" t="b">
         <v>1</v>
       </c>
-      <c r="BZ374" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="375" spans="1:81" ht="15" customHeight="1">
+      <c r="CB374" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="375" spans="1:83" ht="15" customHeight="1">
       <c r="A375" t="s">
         <v>218</v>
       </c>
@@ -17658,11 +17670,11 @@
       <c r="AA375" t="b">
         <v>1</v>
       </c>
-      <c r="BZ375" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="376" spans="1:81" ht="15" customHeight="1">
+      <c r="CB375" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="376" spans="1:83" ht="15" customHeight="1">
       <c r="A376" t="s">
         <v>218</v>
       </c>
@@ -17694,11 +17706,11 @@
       <c r="AA376" t="b">
         <v>1</v>
       </c>
-      <c r="BZ376" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="377" spans="1:81" ht="15" customHeight="1">
+      <c r="CB376" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="377" spans="1:83" ht="15" customHeight="1">
       <c r="A377" t="s">
         <v>218</v>
       </c>
@@ -17730,11 +17742,11 @@
       <c r="AA377" t="b">
         <v>1</v>
       </c>
-      <c r="BZ377" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="378" spans="1:81" ht="15" customHeight="1">
+      <c r="CB377" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="378" spans="1:83" ht="15" customHeight="1">
       <c r="A378" t="s">
         <v>218</v>
       </c>
@@ -17766,11 +17778,11 @@
       <c r="AA378" t="b">
         <v>1</v>
       </c>
-      <c r="BZ378" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="379" spans="1:81" ht="15" customHeight="1">
+      <c r="CB378" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="379" spans="1:83" ht="15" customHeight="1">
       <c r="A379" t="s">
         <v>218</v>
       </c>
@@ -17802,11 +17814,11 @@
       <c r="AA379" t="b">
         <v>1</v>
       </c>
-      <c r="BZ379" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="380" spans="1:81" ht="15" customHeight="1">
+      <c r="CB379" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="380" spans="1:83" ht="15" customHeight="1">
       <c r="A380" t="s">
         <v>218</v>
       </c>
@@ -17838,11 +17850,11 @@
       <c r="AA380" t="b">
         <v>1</v>
       </c>
-      <c r="BZ380" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="381" spans="1:81" ht="15" customHeight="1">
+      <c r="CB380" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="381" spans="1:83" ht="15" customHeight="1">
       <c r="A381" t="s">
         <v>218</v>
       </c>
@@ -17874,11 +17886,11 @@
       <c r="AA381" t="b">
         <v>1</v>
       </c>
-      <c r="BZ381" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="382" spans="1:81" ht="15" customHeight="1">
+      <c r="CB381" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="382" spans="1:83" ht="15" customHeight="1">
       <c r="A382" t="s">
         <v>218</v>
       </c>
@@ -17910,11 +17922,11 @@
       <c r="AA382" t="b">
         <v>1</v>
       </c>
-      <c r="BZ382" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="383" spans="1:81" ht="15" customHeight="1">
+      <c r="CB382" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="383" spans="1:83" ht="15" customHeight="1">
       <c r="A383" t="s">
         <v>222</v>
       </c>
@@ -17982,14 +17994,14 @@
       <c r="AF383" t="b">
         <v>0</v>
       </c>
-      <c r="BZ383" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC383" t="s">
+      <c r="CB383" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE383" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="384" spans="1:81" ht="15" customHeight="1">
+    <row r="384" spans="1:83" ht="15" customHeight="1">
       <c r="A384" t="s">
         <v>222</v>
       </c>
@@ -18021,11 +18033,11 @@
       <c r="AA384" t="b">
         <v>1</v>
       </c>
-      <c r="BZ384" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="385" spans="1:78" ht="15" customHeight="1">
+      <c r="CB384" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="385" spans="1:80" ht="15" customHeight="1">
       <c r="A385" t="s">
         <v>222</v>
       </c>
@@ -18057,11 +18069,11 @@
       <c r="AA385" t="b">
         <v>1</v>
       </c>
-      <c r="BZ385" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="386" spans="1:78" ht="15" customHeight="1">
+      <c r="CB385" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="386" spans="1:80" ht="15" customHeight="1">
       <c r="A386" t="s">
         <v>222</v>
       </c>
@@ -18093,11 +18105,11 @@
       <c r="AA386" t="b">
         <v>1</v>
       </c>
-      <c r="BZ386" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="387" spans="1:78" ht="15" customHeight="1">
+      <c r="CB386" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="387" spans="1:80" ht="15" customHeight="1">
       <c r="A387" t="s">
         <v>222</v>
       </c>
@@ -18129,11 +18141,11 @@
       <c r="AA387" t="b">
         <v>1</v>
       </c>
-      <c r="BZ387" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="388" spans="1:78" ht="15" customHeight="1">
+      <c r="CB387" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="388" spans="1:80" ht="15" customHeight="1">
       <c r="A388" t="s">
         <v>222</v>
       </c>
@@ -18165,11 +18177,11 @@
       <c r="AA388" t="b">
         <v>1</v>
       </c>
-      <c r="BZ388" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="389" spans="1:78" ht="15" customHeight="1">
+      <c r="CB388" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="389" spans="1:80" ht="15" customHeight="1">
       <c r="A389" t="s">
         <v>222</v>
       </c>
@@ -18201,11 +18213,11 @@
       <c r="AA389" t="b">
         <v>1</v>
       </c>
-      <c r="BZ389" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="390" spans="1:78" ht="15" customHeight="1">
+      <c r="CB389" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="390" spans="1:80" ht="15" customHeight="1">
       <c r="A390" t="s">
         <v>222</v>
       </c>
@@ -18237,11 +18249,11 @@
       <c r="AA390" t="b">
         <v>1</v>
       </c>
-      <c r="BZ390" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="391" spans="1:78" ht="15" customHeight="1">
+      <c r="CB390" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="391" spans="1:80" ht="15" customHeight="1">
       <c r="A391" t="s">
         <v>222</v>
       </c>
@@ -18273,11 +18285,11 @@
       <c r="AA391" t="b">
         <v>1</v>
       </c>
-      <c r="BZ391" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="392" spans="1:78" ht="15" customHeight="1">
+      <c r="CB391" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="392" spans="1:80" ht="15" customHeight="1">
       <c r="A392" t="s">
         <v>222</v>
       </c>
@@ -18309,11 +18321,11 @@
       <c r="AA392" t="b">
         <v>1</v>
       </c>
-      <c r="BZ392" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="393" spans="1:78" ht="15" customHeight="1">
+      <c r="CB392" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="393" spans="1:80" ht="15" customHeight="1">
       <c r="A393" t="s">
         <v>222</v>
       </c>
@@ -18345,11 +18357,11 @@
       <c r="AA393" t="b">
         <v>1</v>
       </c>
-      <c r="BZ393" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="394" spans="1:78" ht="15" customHeight="1">
+      <c r="CB393" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="394" spans="1:80" ht="15" customHeight="1">
       <c r="A394" t="s">
         <v>222</v>
       </c>
@@ -18381,11 +18393,11 @@
       <c r="AA394" t="b">
         <v>1</v>
       </c>
-      <c r="BZ394" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="395" spans="1:78" ht="15" customHeight="1">
+      <c r="CB394" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="395" spans="1:80" ht="15" customHeight="1">
       <c r="A395" t="s">
         <v>222</v>
       </c>
@@ -18417,11 +18429,11 @@
       <c r="AA395" t="b">
         <v>1</v>
       </c>
-      <c r="BZ395" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="396" spans="1:78" ht="15" customHeight="1">
+      <c r="CB395" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="396" spans="1:80" ht="15" customHeight="1">
       <c r="A396" t="s">
         <v>222</v>
       </c>
@@ -18453,11 +18465,11 @@
       <c r="AA396" t="b">
         <v>1</v>
       </c>
-      <c r="BZ396" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="397" spans="1:78" ht="15" customHeight="1">
+      <c r="CB396" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="397" spans="1:80" ht="15" customHeight="1">
       <c r="A397" t="s">
         <v>222</v>
       </c>
@@ -18489,11 +18501,11 @@
       <c r="AA397" t="b">
         <v>1</v>
       </c>
-      <c r="BZ397" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="398" spans="1:78" ht="15" customHeight="1">
+      <c r="CB397" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="398" spans="1:80" ht="15" customHeight="1">
       <c r="A398" t="s">
         <v>222</v>
       </c>
@@ -18525,11 +18537,11 @@
       <c r="AA398" t="b">
         <v>1</v>
       </c>
-      <c r="BZ398" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="399" spans="1:78" ht="15" customHeight="1">
+      <c r="CB398" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="399" spans="1:80" ht="15" customHeight="1">
       <c r="A399" t="s">
         <v>222</v>
       </c>
@@ -18561,11 +18573,11 @@
       <c r="AA399" t="b">
         <v>1</v>
       </c>
-      <c r="BZ399" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="400" spans="1:78" ht="15" customHeight="1">
+      <c r="CB399" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="400" spans="1:80" ht="15" customHeight="1">
       <c r="A400" t="s">
         <v>222</v>
       </c>
@@ -18597,11 +18609,11 @@
       <c r="AA400" t="b">
         <v>1</v>
       </c>
-      <c r="BZ400" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="401" spans="1:81" ht="15" customHeight="1">
+      <c r="CB400" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="401" spans="1:83" ht="15" customHeight="1">
       <c r="A401" t="s">
         <v>222</v>
       </c>
@@ -18633,11 +18645,11 @@
       <c r="AA401" t="b">
         <v>1</v>
       </c>
-      <c r="BZ401" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="402" spans="1:81" ht="15" customHeight="1">
+      <c r="CB401" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="402" spans="1:83" ht="15" customHeight="1">
       <c r="A402" t="s">
         <v>222</v>
       </c>
@@ -18669,11 +18681,11 @@
       <c r="AA402" t="b">
         <v>1</v>
       </c>
-      <c r="BZ402" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="403" spans="1:81" ht="15" customHeight="1">
+      <c r="CB402" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="403" spans="1:83" ht="15" customHeight="1">
       <c r="A403" t="s">
         <v>222</v>
       </c>
@@ -18705,11 +18717,11 @@
       <c r="AA403" t="b">
         <v>1</v>
       </c>
-      <c r="BZ403" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="404" spans="1:81" ht="15" customHeight="1">
+      <c r="CB403" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="404" spans="1:83" ht="15" customHeight="1">
       <c r="A404" t="s">
         <v>222</v>
       </c>
@@ -18741,11 +18753,11 @@
       <c r="AA404" t="b">
         <v>1</v>
       </c>
-      <c r="BZ404" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="405" spans="1:81" ht="15" customHeight="1">
+      <c r="CB404" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="405" spans="1:83" ht="15" customHeight="1">
       <c r="A405" t="s">
         <v>222</v>
       </c>
@@ -18777,11 +18789,11 @@
       <c r="AA405" t="b">
         <v>1</v>
       </c>
-      <c r="BZ405" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="406" spans="1:81" ht="15" customHeight="1">
+      <c r="CB405" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="406" spans="1:83" ht="15" customHeight="1">
       <c r="A406" t="s">
         <v>222</v>
       </c>
@@ -18813,11 +18825,11 @@
       <c r="AA406" t="b">
         <v>1</v>
       </c>
-      <c r="BZ406" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="407" spans="1:81" ht="15" customHeight="1">
+      <c r="CB406" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="407" spans="1:83" ht="15" customHeight="1">
       <c r="A407" t="s">
         <v>222</v>
       </c>
@@ -18849,11 +18861,11 @@
       <c r="AA407" t="b">
         <v>1</v>
       </c>
-      <c r="BZ407" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="408" spans="1:81" ht="15" customHeight="1">
+      <c r="CB407" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="408" spans="1:83" ht="15" customHeight="1">
       <c r="A408" t="s">
         <v>222</v>
       </c>
@@ -18885,11 +18897,11 @@
       <c r="AA408" t="b">
         <v>1</v>
       </c>
-      <c r="BZ408" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="409" spans="1:81" ht="15" customHeight="1">
+      <c r="CB408" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="409" spans="1:83" ht="15" customHeight="1">
       <c r="A409" t="s">
         <v>222</v>
       </c>
@@ -18921,11 +18933,11 @@
       <c r="AA409" t="b">
         <v>1</v>
       </c>
-      <c r="BZ409" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="410" spans="1:81" ht="15" customHeight="1">
+      <c r="CB409" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="410" spans="1:83" ht="15" customHeight="1">
       <c r="A410" t="s">
         <v>222</v>
       </c>
@@ -18957,11 +18969,11 @@
       <c r="AA410" t="b">
         <v>1</v>
       </c>
-      <c r="BZ410" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="411" spans="1:81" ht="15" customHeight="1">
+      <c r="CB410" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="411" spans="1:83" ht="15" customHeight="1">
       <c r="A411" t="s">
         <v>222</v>
       </c>
@@ -18993,11 +19005,11 @@
       <c r="AA411" t="b">
         <v>1</v>
       </c>
-      <c r="BZ411" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="412" spans="1:81" ht="15" customHeight="1">
+      <c r="CB411" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="412" spans="1:83" ht="15" customHeight="1">
       <c r="A412" t="s">
         <v>222</v>
       </c>
@@ -19029,11 +19041,11 @@
       <c r="AA412" t="b">
         <v>1</v>
       </c>
-      <c r="BZ412" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="413" spans="1:81" ht="15" customHeight="1">
+      <c r="CB412" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="413" spans="1:83" ht="15" customHeight="1">
       <c r="A413" t="s">
         <v>222</v>
       </c>
@@ -19065,11 +19077,11 @@
       <c r="AA413" t="b">
         <v>1</v>
       </c>
-      <c r="BZ413" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="414" spans="1:81" ht="15" customHeight="1">
+      <c r="CB413" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="414" spans="1:83" ht="15" customHeight="1">
       <c r="A414" t="s">
         <v>222</v>
       </c>
@@ -19101,11 +19113,11 @@
       <c r="AA414" t="b">
         <v>1</v>
       </c>
-      <c r="BZ414" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="415" spans="1:81" ht="15" customHeight="1">
+      <c r="CB414" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="415" spans="1:83" ht="15" customHeight="1">
       <c r="A415" t="s">
         <v>222</v>
       </c>
@@ -19137,11 +19149,11 @@
       <c r="AA415" t="b">
         <v>1</v>
       </c>
-      <c r="BZ415" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="416" spans="1:81" ht="15" customHeight="1">
+      <c r="CB415" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="416" spans="1:83" ht="15" customHeight="1">
       <c r="A416" t="s">
         <v>227</v>
       </c>
@@ -19209,14 +19221,14 @@
       <c r="AF416" t="b">
         <v>0</v>
       </c>
-      <c r="BZ416" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC416" t="s">
+      <c r="CB416" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE416" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:78" ht="15" customHeight="1">
+    <row r="417" spans="1:80" ht="15" customHeight="1">
       <c r="A417" t="s">
         <v>227</v>
       </c>
@@ -19248,11 +19260,11 @@
       <c r="AA417" t="b">
         <v>1</v>
       </c>
-      <c r="BZ417" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="418" spans="1:78" ht="15" customHeight="1">
+      <c r="CB417" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="418" spans="1:80" ht="15" customHeight="1">
       <c r="A418" t="s">
         <v>227</v>
       </c>
@@ -19284,11 +19296,11 @@
       <c r="AA418" t="b">
         <v>1</v>
       </c>
-      <c r="BZ418" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="419" spans="1:78" ht="15" customHeight="1">
+      <c r="CB418" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="419" spans="1:80" ht="15" customHeight="1">
       <c r="A419" t="s">
         <v>227</v>
       </c>
@@ -19320,11 +19332,11 @@
       <c r="AA419" t="b">
         <v>1</v>
       </c>
-      <c r="BZ419" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="420" spans="1:78" ht="15" customHeight="1">
+      <c r="CB419" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="420" spans="1:80" ht="15" customHeight="1">
       <c r="A420" t="s">
         <v>227</v>
       </c>
@@ -19356,11 +19368,11 @@
       <c r="AA420" t="b">
         <v>1</v>
       </c>
-      <c r="BZ420" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="421" spans="1:78" ht="15" customHeight="1">
+      <c r="CB420" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="421" spans="1:80" ht="15" customHeight="1">
       <c r="A421" t="s">
         <v>227</v>
       </c>
@@ -19392,11 +19404,11 @@
       <c r="AA421" t="b">
         <v>1</v>
       </c>
-      <c r="BZ421" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="422" spans="1:78" ht="15" customHeight="1">
+      <c r="CB421" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="422" spans="1:80" ht="15" customHeight="1">
       <c r="A422" t="s">
         <v>227</v>
       </c>
@@ -19428,11 +19440,11 @@
       <c r="AA422" t="b">
         <v>1</v>
       </c>
-      <c r="BZ422" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="423" spans="1:78" ht="15" customHeight="1">
+      <c r="CB422" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="423" spans="1:80" ht="15" customHeight="1">
       <c r="A423" t="s">
         <v>227</v>
       </c>
@@ -19464,11 +19476,11 @@
       <c r="AA423" t="b">
         <v>1</v>
       </c>
-      <c r="BZ423" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="424" spans="1:78" ht="15" customHeight="1">
+      <c r="CB423" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="424" spans="1:80" ht="15" customHeight="1">
       <c r="A424" t="s">
         <v>227</v>
       </c>
@@ -19500,11 +19512,11 @@
       <c r="AA424" t="b">
         <v>1</v>
       </c>
-      <c r="BZ424" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="425" spans="1:78" ht="15" customHeight="1">
+      <c r="CB424" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="425" spans="1:80" ht="15" customHeight="1">
       <c r="A425" t="s">
         <v>227</v>
       </c>
@@ -19536,11 +19548,11 @@
       <c r="AA425" t="b">
         <v>1</v>
       </c>
-      <c r="BZ425" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="426" spans="1:78" ht="15" customHeight="1">
+      <c r="CB425" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="426" spans="1:80" ht="15" customHeight="1">
       <c r="A426" t="s">
         <v>227</v>
       </c>
@@ -19572,11 +19584,11 @@
       <c r="AA426" t="b">
         <v>1</v>
       </c>
-      <c r="BZ426" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="427" spans="1:78" ht="15" customHeight="1">
+      <c r="CB426" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="427" spans="1:80" ht="15" customHeight="1">
       <c r="A427" t="s">
         <v>227</v>
       </c>
@@ -19608,11 +19620,11 @@
       <c r="AA427" t="b">
         <v>1</v>
       </c>
-      <c r="BZ427" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="428" spans="1:78" ht="15" customHeight="1">
+      <c r="CB427" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="428" spans="1:80" ht="15" customHeight="1">
       <c r="A428" t="s">
         <v>227</v>
       </c>
@@ -19644,11 +19656,11 @@
       <c r="AA428" t="b">
         <v>1</v>
       </c>
-      <c r="BZ428" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="429" spans="1:78" ht="15" customHeight="1">
+      <c r="CB428" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="429" spans="1:80" ht="15" customHeight="1">
       <c r="A429" t="s">
         <v>227</v>
       </c>
@@ -19680,11 +19692,11 @@
       <c r="AA429" t="b">
         <v>1</v>
       </c>
-      <c r="BZ429" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="430" spans="1:78" ht="15" customHeight="1">
+      <c r="CB429" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="430" spans="1:80" ht="15" customHeight="1">
       <c r="A430" t="s">
         <v>227</v>
       </c>
@@ -19716,11 +19728,11 @@
       <c r="AA430" t="b">
         <v>1</v>
       </c>
-      <c r="BZ430" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="431" spans="1:78" ht="15" customHeight="1">
+      <c r="CB430" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="431" spans="1:80" ht="15" customHeight="1">
       <c r="A431" t="s">
         <v>227</v>
       </c>
@@ -19752,11 +19764,11 @@
       <c r="AA431" t="b">
         <v>1</v>
       </c>
-      <c r="BZ431" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="432" spans="1:78" ht="15" customHeight="1">
+      <c r="CB431" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="432" spans="1:80" ht="15" customHeight="1">
       <c r="A432" t="s">
         <v>227</v>
       </c>
@@ -19788,11 +19800,11 @@
       <c r="AA432" t="b">
         <v>1</v>
       </c>
-      <c r="BZ432" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="433" spans="1:81" ht="15" customHeight="1">
+      <c r="CB432" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="433" spans="1:83" ht="15" customHeight="1">
       <c r="A433" t="s">
         <v>227</v>
       </c>
@@ -19824,11 +19836,11 @@
       <c r="AA433" t="b">
         <v>1</v>
       </c>
-      <c r="BZ433" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="434" spans="1:81" ht="15" customHeight="1">
+      <c r="CB433" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="434" spans="1:83" ht="15" customHeight="1">
       <c r="A434" t="s">
         <v>227</v>
       </c>
@@ -19860,11 +19872,11 @@
       <c r="AA434" t="b">
         <v>1</v>
       </c>
-      <c r="BZ434" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="435" spans="1:81" ht="15" customHeight="1">
+      <c r="CB434" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="435" spans="1:83" ht="15" customHeight="1">
       <c r="A435" t="s">
         <v>227</v>
       </c>
@@ -19896,11 +19908,11 @@
       <c r="AA435" t="b">
         <v>1</v>
       </c>
-      <c r="BZ435" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="436" spans="1:81" ht="15" customHeight="1">
+      <c r="CB435" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="436" spans="1:83" ht="15" customHeight="1">
       <c r="A436" t="s">
         <v>227</v>
       </c>
@@ -19932,11 +19944,11 @@
       <c r="AA436" t="b">
         <v>1</v>
       </c>
-      <c r="BZ436" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="437" spans="1:81" ht="15" customHeight="1">
+      <c r="CB436" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="437" spans="1:83" ht="15" customHeight="1">
       <c r="A437" t="s">
         <v>227</v>
       </c>
@@ -19968,11 +19980,11 @@
       <c r="AA437" t="b">
         <v>1</v>
       </c>
-      <c r="BZ437" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="438" spans="1:81" ht="15" customHeight="1">
+      <c r="CB437" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="438" spans="1:83" ht="15" customHeight="1">
       <c r="A438" t="s">
         <v>227</v>
       </c>
@@ -20004,11 +20016,11 @@
       <c r="AA438" t="b">
         <v>1</v>
       </c>
-      <c r="BZ438" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="439" spans="1:81" ht="15" customHeight="1">
+      <c r="CB438" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="439" spans="1:83" ht="15" customHeight="1">
       <c r="A439" t="s">
         <v>227</v>
       </c>
@@ -20040,11 +20052,11 @@
       <c r="AA439" t="b">
         <v>1</v>
       </c>
-      <c r="BZ439" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="440" spans="1:81" ht="15" customHeight="1">
+      <c r="CB439" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="440" spans="1:83" ht="15" customHeight="1">
       <c r="A440" t="s">
         <v>227</v>
       </c>
@@ -20076,11 +20088,11 @@
       <c r="AA440" t="b">
         <v>1</v>
       </c>
-      <c r="BZ440" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="441" spans="1:81" ht="15" customHeight="1">
+      <c r="CB440" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="441" spans="1:83" ht="15" customHeight="1">
       <c r="A441" t="s">
         <v>227</v>
       </c>
@@ -20112,11 +20124,11 @@
       <c r="AA441" t="b">
         <v>1</v>
       </c>
-      <c r="BZ441" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="442" spans="1:81" ht="15" customHeight="1">
+      <c r="CB441" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="442" spans="1:83" ht="15" customHeight="1">
       <c r="A442" t="s">
         <v>227</v>
       </c>
@@ -20148,11 +20160,11 @@
       <c r="AA442" t="b">
         <v>1</v>
       </c>
-      <c r="BZ442" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="443" spans="1:81" ht="15" customHeight="1">
+      <c r="CB442" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="443" spans="1:83" ht="15" customHeight="1">
       <c r="A443" t="s">
         <v>232</v>
       </c>
@@ -20220,14 +20232,14 @@
       <c r="AF443" t="b">
         <v>0</v>
       </c>
-      <c r="BZ443" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC443" t="s">
+      <c r="CB443" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE443" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="444" spans="1:81" ht="15" customHeight="1">
+    <row r="444" spans="1:83" ht="15" customHeight="1">
       <c r="A444" t="s">
         <v>232</v>
       </c>
@@ -20259,11 +20271,11 @@
       <c r="AA444" t="b">
         <v>1</v>
       </c>
-      <c r="BZ444" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="445" spans="1:81" ht="15" customHeight="1">
+      <c r="CB444" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="445" spans="1:83" ht="15" customHeight="1">
       <c r="A445" t="s">
         <v>232</v>
       </c>
@@ -20295,11 +20307,11 @@
       <c r="AA445" t="b">
         <v>1</v>
       </c>
-      <c r="BZ445" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="446" spans="1:81" ht="15" customHeight="1">
+      <c r="CB445" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="446" spans="1:83" ht="15" customHeight="1">
       <c r="A446" t="s">
         <v>232</v>
       </c>
@@ -20331,11 +20343,11 @@
       <c r="AA446" t="b">
         <v>1</v>
       </c>
-      <c r="BZ446" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="447" spans="1:81" ht="15" customHeight="1">
+      <c r="CB446" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="447" spans="1:83" ht="15" customHeight="1">
       <c r="A447" t="s">
         <v>232</v>
       </c>
@@ -20367,11 +20379,11 @@
       <c r="AA447" t="b">
         <v>1</v>
       </c>
-      <c r="BZ447" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="448" spans="1:81" ht="15" customHeight="1">
+      <c r="CB447" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="448" spans="1:83" ht="15" customHeight="1">
       <c r="A448" t="s">
         <v>232</v>
       </c>
@@ -20403,11 +20415,11 @@
       <c r="AA448" t="b">
         <v>1</v>
       </c>
-      <c r="BZ448" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="449" spans="1:81" ht="15" customHeight="1">
+      <c r="CB448" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="449" spans="1:83" ht="15" customHeight="1">
       <c r="A449" t="s">
         <v>232</v>
       </c>
@@ -20439,11 +20451,11 @@
       <c r="AA449" t="b">
         <v>1</v>
       </c>
-      <c r="BZ449" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="450" spans="1:81" ht="15" customHeight="1">
+      <c r="CB449" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="450" spans="1:83" ht="15" customHeight="1">
       <c r="A450" t="s">
         <v>238</v>
       </c>
@@ -20511,14 +20523,14 @@
       <c r="AF450" t="b">
         <v>0</v>
       </c>
-      <c r="BZ450" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC450" t="s">
+      <c r="CB450" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE450" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="451" spans="1:81" ht="15" customHeight="1">
+    <row r="451" spans="1:83" ht="15" customHeight="1">
       <c r="A451" t="s">
         <v>238</v>
       </c>
@@ -20550,11 +20562,11 @@
       <c r="AA451" t="b">
         <v>1</v>
       </c>
-      <c r="BZ451" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="452" spans="1:81" ht="15" customHeight="1">
+      <c r="CB451" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="452" spans="1:83" ht="15" customHeight="1">
       <c r="A452" t="s">
         <v>238</v>
       </c>
@@ -20586,11 +20598,11 @@
       <c r="AA452" t="b">
         <v>1</v>
       </c>
-      <c r="BZ452" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="453" spans="1:81" ht="15" customHeight="1">
+      <c r="CB452" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="453" spans="1:83" ht="15" customHeight="1">
       <c r="A453" t="s">
         <v>238</v>
       </c>
@@ -20622,11 +20634,11 @@
       <c r="AA453" t="b">
         <v>1</v>
       </c>
-      <c r="BZ453" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="454" spans="1:81" ht="15" customHeight="1">
+      <c r="CB453" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="454" spans="1:83" ht="15" customHeight="1">
       <c r="A454" t="s">
         <v>238</v>
       </c>
@@ -20658,11 +20670,11 @@
       <c r="AA454" t="b">
         <v>1</v>
       </c>
-      <c r="BZ454" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="455" spans="1:81" ht="15" customHeight="1">
+      <c r="CB454" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="455" spans="1:83" ht="15" customHeight="1">
       <c r="A455" t="s">
         <v>238</v>
       </c>
@@ -20694,11 +20706,11 @@
       <c r="AA455" t="b">
         <v>1</v>
       </c>
-      <c r="BZ455" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="456" spans="1:81" ht="15" customHeight="1">
+      <c r="CB455" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="456" spans="1:83" ht="15" customHeight="1">
       <c r="A456" t="s">
         <v>238</v>
       </c>
@@ -20730,11 +20742,11 @@
       <c r="AA456" t="b">
         <v>1</v>
       </c>
-      <c r="BZ456" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="457" spans="1:81" ht="15" customHeight="1">
+      <c r="CB456" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="457" spans="1:83" ht="15" customHeight="1">
       <c r="A457" t="s">
         <v>238</v>
       </c>
@@ -20766,11 +20778,11 @@
       <c r="AA457" t="b">
         <v>1</v>
       </c>
-      <c r="BZ457" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="458" spans="1:81" ht="15" customHeight="1">
+      <c r="CB457" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="458" spans="1:83" ht="15" customHeight="1">
       <c r="A458" t="s">
         <v>238</v>
       </c>
@@ -20802,11 +20814,11 @@
       <c r="AA458" t="b">
         <v>1</v>
       </c>
-      <c r="BZ458" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="459" spans="1:81" ht="15" customHeight="1">
+      <c r="CB458" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="459" spans="1:83" ht="15" customHeight="1">
       <c r="A459" t="s">
         <v>238</v>
       </c>
@@ -20838,11 +20850,11 @@
       <c r="AA459" t="b">
         <v>1</v>
       </c>
-      <c r="BZ459" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="460" spans="1:81" ht="15" customHeight="1">
+      <c r="CB459" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="460" spans="1:83" ht="15" customHeight="1">
       <c r="A460" t="s">
         <v>238</v>
       </c>
@@ -20874,11 +20886,11 @@
       <c r="AA460" t="b">
         <v>1</v>
       </c>
-      <c r="BZ460" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="461" spans="1:81" ht="15" customHeight="1">
+      <c r="CB460" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="461" spans="1:83" ht="15" customHeight="1">
       <c r="A461" t="s">
         <v>238</v>
       </c>
@@ -20910,11 +20922,11 @@
       <c r="AA461" t="b">
         <v>1</v>
       </c>
-      <c r="BZ461" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="462" spans="1:81" ht="15" customHeight="1">
+      <c r="CB461" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="462" spans="1:83" ht="15" customHeight="1">
       <c r="A462" t="s">
         <v>242</v>
       </c>
@@ -20982,14 +20994,14 @@
       <c r="AF462" t="b">
         <v>0</v>
       </c>
-      <c r="BZ462" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC462" t="s">
+      <c r="CB462" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE462" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="463" spans="1:81" ht="15" customHeight="1">
+    <row r="463" spans="1:83" ht="15" customHeight="1">
       <c r="A463" t="s">
         <v>242</v>
       </c>
@@ -21021,11 +21033,11 @@
       <c r="AA463" t="b">
         <v>1</v>
       </c>
-      <c r="BZ463" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="464" spans="1:81" ht="15" customHeight="1">
+      <c r="CB463" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="464" spans="1:83" ht="15" customHeight="1">
       <c r="A464" t="s">
         <v>242</v>
       </c>
@@ -21057,7 +21069,7 @@
       <c r="AA464" t="b">
         <v>1</v>
       </c>
-      <c r="BZ464" t="s">
+      <c r="CB464" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21093,7 +21105,7 @@
       <c r="AA465" t="b">
         <v>1</v>
       </c>
-      <c r="BZ465" t="s">
+      <c r="CB465" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21129,7 +21141,7 @@
       <c r="AA466" t="b">
         <v>1</v>
       </c>
-      <c r="BZ466" t="s">
+      <c r="CB466" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21165,7 +21177,7 @@
       <c r="AA467" t="b">
         <v>1</v>
       </c>
-      <c r="BZ467" t="s">
+      <c r="CB467" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21201,7 +21213,7 @@
       <c r="AA468" t="b">
         <v>1</v>
       </c>
-      <c r="BZ468" t="s">
+      <c r="CB468" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21237,7 +21249,7 @@
       <c r="AA469" t="b">
         <v>1</v>
       </c>
-      <c r="BZ469" t="s">
+      <c r="CB469" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21273,7 +21285,7 @@
       <c r="AA470" t="b">
         <v>1</v>
       </c>
-      <c r="BZ470" t="s">
+      <c r="CB470" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21309,7 +21321,7 @@
       <c r="AA471" t="b">
         <v>1</v>
       </c>
-      <c r="BZ471" t="s">
+      <c r="CB471" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21345,7 +21357,7 @@
       <c r="AA472" t="b">
         <v>1</v>
       </c>
-      <c r="BZ472" t="s">
+      <c r="CB472" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21381,7 +21393,7 @@
       <c r="AA473" t="b">
         <v>1</v>
       </c>
-      <c r="BZ473" t="s">
+      <c r="CB473" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21417,7 +21429,7 @@
       <c r="AA474" t="b">
         <v>1</v>
       </c>
-      <c r="BZ474" t="s">
+      <c r="CB474" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21453,7 +21465,7 @@
       <c r="AA475" t="b">
         <v>1</v>
       </c>
-      <c r="BZ475" t="s">
+      <c r="CB475" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21489,7 +21501,7 @@
       <c r="AA476" t="b">
         <v>1</v>
       </c>
-      <c r="BZ476" t="s">
+      <c r="CB476" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21525,7 +21537,7 @@
       <c r="AA477" t="b">
         <v>1</v>
       </c>
-      <c r="BZ477" t="s">
+      <c r="CB477" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21561,7 +21573,7 @@
       <c r="AA478" t="b">
         <v>1</v>
       </c>
-      <c r="BZ478" t="s">
+      <c r="CB478" t="s">
         <v>88</v>
       </c>
     </row>

--- a/your_workbook.xlsx
+++ b/your_workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidklein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidklein/Desktop/Toback/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9829669-B0A5-8843-B890-4D847E1C471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793633F6-C1EB-F944-A32E-06D823FA877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{36F495BE-100C-4C23-B769-2E8998AD6DE9}"/>
   </bookViews>
@@ -2741,9 +2741,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR471" workbookViewId="0">
-      <selection activeCell="CB478" sqref="CB478"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>

--- a/your_workbook.xlsx
+++ b/your_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C36429-43B4-4C2B-9709-72797257277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4044DBE-9481-4999-BEFA-A6A2BD3C8450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A477" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="X2" s="96">
         <f>VLOOKUP(J2,References!$A$25:$B$29,2,0)*VLOOKUP(M2,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>2.1345833333333335</v>
+        <v>1.9632183308494784</v>
       </c>
       <c r="Z2" t="b">
         <v>1</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="X3" s="96">
         <f>VLOOKUP(J3,References!$A$25:$B$29,2,0)*VLOOKUP(M3,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>3.2018750000000002</v>
+        <v>2.9448274962742174</v>
       </c>
       <c r="Z3" t="b">
         <v>1</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="X4" s="96">
         <f>VLOOKUP(J4,References!$A$25:$B$29,2,0)*VLOOKUP(M4,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>4.269166666666667</v>
+        <v>3.9264366616989568</v>
       </c>
       <c r="Z4" t="b">
         <v>1</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="X5" s="96">
         <f>VLOOKUP(J5,References!$A$25:$B$29,2,0)*VLOOKUP(M5,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>6.4037500000000005</v>
+        <v>5.8896549925484347</v>
       </c>
       <c r="Z5" t="b">
         <v>1</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="X6" s="96">
         <f>VLOOKUP(J6,References!$A$25:$B$29,2,0)*VLOOKUP(M6,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>13.341145833333336</v>
+        <v>12.270114567809241</v>
       </c>
       <c r="Z6" t="b">
         <v>1</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="X7" s="96">
         <f>VLOOKUP(J7,References!$A$25:$B$29,2,0)*VLOOKUP(M7,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>6.4037500000000005</v>
+        <v>5.8896549925484347</v>
       </c>
       <c r="Z7" t="b">
         <v>1</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="X8" s="96">
         <f>VLOOKUP(J8,References!$A$25:$B$29,2,0)*VLOOKUP(M8,References!$A$1:$B$23,2,0)*Prices!$D$104*5.45</f>
-        <v>8.538333333333334</v>
+        <v>7.8528733233979136</v>
       </c>
       <c r="Z8" t="b">
         <v>1</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="X57" s="96">
         <f>(VLOOKUP(J57,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>0.38422500000000004</v>
+        <v>0.35337929955290609</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="X58" s="96">
         <f>(VLOOKUP(J58,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>0.52297291666666679</v>
+        <v>0.48098849105812225</v>
       </c>
       <c r="Z58" t="b">
         <v>1</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="X59" s="96">
         <f>(VLOOKUP(J59,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>0.68306666666666682</v>
+        <v>0.62822986587183305</v>
       </c>
       <c r="Z59" t="b">
         <v>1</v>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="X60" s="96">
         <f>(VLOOKUP(J60,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>1.067291666666667</v>
+        <v>0.98160916542473942</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="X61" s="96">
         <f>(VLOOKUP(J61,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>1.5369000000000002</v>
+        <v>1.4135171982116244</v>
       </c>
       <c r="Z61" t="b">
         <v>1</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="X62" s="96">
         <f>(VLOOKUP(J62,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>2.4014062500000004</v>
+        <v>2.2086206222056632</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="X63" s="96">
         <f>(VLOOKUP(J63,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>3.4580250000000001</v>
+        <v>3.1804136959761546</v>
       </c>
       <c r="Z63" t="b">
         <v>1</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="X64" s="96">
         <f>(VLOOKUP(J64,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>4.2691666666666679</v>
+        <v>3.9264366616989577</v>
       </c>
       <c r="Z64" t="b">
         <v>1</v>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="X65" s="96">
         <f>(VLOOKUP(J65,References!$A$1:$B$23,2,0)^2)*5.45*Prices!$D$104</f>
-        <v>10.929066666666669</v>
+        <v>10.051677853949329</v>
       </c>
       <c r="Z65" t="b">
         <v>1</v>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="X66" s="95">
         <f>((VLOOKUP(J66,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>0.60353921866276916</v>
+        <v>0.5550869057030583</v>
       </c>
       <c r="Z66" t="b">
         <v>1</v>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="X67" s="95">
         <f>X66*12</f>
-        <v>7.2424706239532295</v>
+        <v>6.6610428684366996</v>
       </c>
       <c r="Z67" t="b">
         <v>1</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="X68" s="95">
         <f>((VLOOKUP(J68,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>1.0729586109560343</v>
+        <v>0.98682116569432599</v>
       </c>
       <c r="Z68" t="b">
         <v>1</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="X69" s="95">
         <f>X68*12</f>
-        <v>12.875503331472412</v>
+        <v>11.841853988331913</v>
       </c>
       <c r="Z69" t="b">
         <v>1</v>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="X70" s="95">
         <f>((VLOOKUP(J70,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>1.6764978296188033</v>
+        <v>1.5419080713973843</v>
       </c>
       <c r="Z70" t="b">
         <v>1</v>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="X71" s="95">
         <f>X70*12</f>
-        <v>20.11797395542564</v>
+        <v>18.502896856768611</v>
       </c>
       <c r="Z71" t="b">
         <v>1</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="X72" s="95">
         <f>((VLOOKUP(J72,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>2.4141568746510766</v>
+        <v>2.2203476228122332</v>
       </c>
       <c r="Z72" t="b">
         <v>1</v>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="X73" s="95">
         <f>X72*12</f>
-        <v>28.969882495812918</v>
+        <v>26.644171473746798</v>
       </c>
       <c r="Z73" t="b">
         <v>1</v>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="X74" s="95">
         <f>((VLOOKUP(J74,References!$A$31:$B$35,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>4.2918344438241371</v>
+        <v>3.9472846627773039</v>
       </c>
       <c r="Z74" t="b">
         <v>1</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="X75" s="95">
         <f>X74*12</f>
-        <v>51.502013325889649</v>
+        <v>47.367415953327651</v>
       </c>
       <c r="Z75" t="b">
         <v>1</v>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="X76" s="95">
         <f>((VLOOKUP(J76,References!$A$31:$B$37,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>6.7059913184752133</v>
+        <v>6.1676322855895371</v>
       </c>
       <c r="Z76" t="b">
         <v>1</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="X77" s="95">
         <f>X76*12</f>
-        <v>80.47189582170256</v>
+        <v>74.011587427074446</v>
       </c>
       <c r="Z77" t="b">
         <v>1</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="X78" s="95">
         <f>((VLOOKUP(J78,References!$A$31:$B$37,2,0)/2)^2)*PI()*5.45*Prices!$D$104*0.5</f>
-        <v>9.6566274986043066</v>
+        <v>8.8813904912489328</v>
       </c>
       <c r="Z78" t="b">
         <v>1</v>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="X79" s="95">
         <f>X78*12</f>
-        <v>115.87952998325167</v>
+        <v>106.57668589498719</v>
       </c>
       <c r="Z79" t="b">
         <v>1</v>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="X178" s="96">
         <f>((VLOOKUP(J178,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>95.374098751647466</v>
+        <v>92.1049418644822</v>
       </c>
       <c r="Z178" t="b">
         <v>1</v>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="X179" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z179" t="b">
         <v>1</v>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="X180" s="96">
         <f>((VLOOKUP(J180,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>95.374098751647466</v>
+        <v>92.1049418644822</v>
       </c>
       <c r="Z180" t="b">
         <v>1</v>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="X181" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z181" t="b">
         <v>1</v>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="X182" s="96">
         <f>((VLOOKUP(J182,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>58.211730195097331</v>
+        <v>56.216395180958379</v>
       </c>
       <c r="Z182" t="b">
         <v>1</v>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="X183" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z183" t="b">
         <v>1</v>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="X184" s="96">
         <f>((VLOOKUP(J184,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>58.211730195097331</v>
+        <v>56.216395180958379</v>
       </c>
       <c r="Z184" t="b">
         <v>1</v>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="X185" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z185" t="b">
         <v>1</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="X186" s="96">
         <f>((VLOOKUP(J186,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>37.255507324862293</v>
+        <v>35.978492915813362</v>
       </c>
       <c r="Z186" t="b">
         <v>1</v>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="X187" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z187" t="b">
         <v>1</v>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="X188" s="96">
         <f>((VLOOKUP(J188,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>37.255507324862293</v>
+        <v>35.978492915813362</v>
       </c>
       <c r="Z188" t="b">
         <v>1</v>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="X189" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z189" t="b">
         <v>1</v>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="X190" s="96">
         <f>((VLOOKUP(J190,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>30.176960933138453</v>
+        <v>29.14257926180882</v>
       </c>
       <c r="Z190" t="b">
         <v>1</v>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="X191" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z191" t="b">
         <v>1</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="X192" s="96">
         <f>((VLOOKUP(J192,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>30.176960933138453</v>
+        <v>29.14257926180882</v>
       </c>
       <c r="Z192" t="b">
         <v>1</v>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="X193" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z193" t="b">
         <v>1</v>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="X194" s="96">
         <f>((VLOOKUP(J194,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>23.843524687911867</v>
+        <v>23.02623546612055</v>
       </c>
       <c r="Z194" t="b">
         <v>1</v>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="X195" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z195" t="b">
         <v>1</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="X196" s="96">
         <f>((VLOOKUP(J196,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>23.843524687911867</v>
+        <v>23.02623546612055</v>
       </c>
       <c r="Z196" t="b">
         <v>1</v>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="X197" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z197" t="b">
         <v>1</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="X198" s="96">
         <f>((VLOOKUP(J198,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>18.255198589182527</v>
+        <v>17.62946152874855</v>
       </c>
       <c r="Z198" t="b">
         <v>1</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="X199" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z199" t="b">
         <v>1</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="X200" s="96">
         <f>((VLOOKUP(J200,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>18.255198589182527</v>
+        <v>17.62946152874855</v>
       </c>
       <c r="Z200" t="b">
         <v>1</v>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="X201" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z201" t="b">
         <v>1</v>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="X202" s="96">
         <f>((VLOOKUP(J202,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>13.411982636950425</v>
+        <v>12.952257449692809</v>
       </c>
       <c r="Z202" t="b">
         <v>1</v>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="X203" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z203" t="b">
         <v>1</v>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="X204" s="96">
         <f>((VLOOKUP(J204,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>13.411982636950425</v>
+        <v>12.952257449692809</v>
       </c>
       <c r="Z204" t="b">
         <v>1</v>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="X205" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z205" t="b">
         <v>1</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="X206" s="96">
         <f>((VLOOKUP(J206,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>9.3138768312155733</v>
+        <v>8.9946232289533405</v>
       </c>
       <c r="Z206" t="b">
         <v>1</v>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="X207" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z207" t="b">
         <v>1</v>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="X208" s="96">
         <f>((VLOOKUP(J208,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>9.3138768312155733</v>
+        <v>8.9946232289533405</v>
       </c>
       <c r="Z208" t="b">
         <v>1</v>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="X209" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z209" t="b">
         <v>1</v>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="X210" s="96">
         <f>((VLOOKUP(J210,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>7.5442402332846132</v>
+        <v>7.2856448154522049</v>
       </c>
       <c r="Z210" t="b">
         <v>1</v>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="X211" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z211" t="b">
         <v>1</v>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="X212" s="96">
         <f>((VLOOKUP(J212,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>7.5442402332846132</v>
+        <v>7.2856448154522049</v>
       </c>
       <c r="Z212" t="b">
         <v>1</v>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="X213" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z213" t="b">
         <v>1</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="X214" s="96">
         <f>((VLOOKUP(J214,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>5.9608811719779666</v>
+        <v>5.7565588665301375</v>
       </c>
       <c r="Z214" t="b">
         <v>1</v>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="X215" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z215" t="b">
         <v>1</v>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="X216" s="96">
         <f>((VLOOKUP(J216,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>5.9608811719779666</v>
+        <v>5.7565588665301375</v>
       </c>
       <c r="Z216" t="b">
         <v>1</v>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="X217" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z217" t="b">
         <v>1</v>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="X218" s="96">
         <f>((VLOOKUP(J218,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>4.5637996472956317</v>
+        <v>4.4073653821871375</v>
       </c>
       <c r="Z218" t="b">
         <v>1</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="X219" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z219" t="b">
         <v>1</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="X220" s="96">
         <f>((VLOOKUP(J220,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>4.5637996472956317</v>
+        <v>4.4073653821871375</v>
       </c>
       <c r="Z220" t="b">
         <v>1</v>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="X221" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z221" t="b">
         <v>1</v>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="X222" s="96">
         <f>((VLOOKUP(J222,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>3.3529956592376062</v>
+        <v>3.2380643624232022</v>
       </c>
       <c r="Z222" t="b">
         <v>1</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="X223" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z223" t="b">
         <v>1</v>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="X224" s="96">
         <f>((VLOOKUP(J224,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>3.3529956592376062</v>
+        <v>3.2380643624232022</v>
       </c>
       <c r="Z224" t="b">
         <v>1</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="X225" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z225" t="b">
         <v>1</v>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="X226" s="96">
         <f>((VLOOKUP(J226,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>2.3284692078038933</v>
+        <v>2.2486558072383351</v>
       </c>
       <c r="Z226" t="b">
         <v>1</v>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="X227" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z227" t="b">
         <v>1</v>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="X228" s="96">
         <f>((VLOOKUP(J228,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>2.3284692078038933</v>
+        <v>2.2486558072383351</v>
       </c>
       <c r="Z228" t="b">
         <v>1</v>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="X229" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z229" t="b">
         <v>1</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="X230" s="96">
         <f>((VLOOKUP(J230,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>1.4902202929944917</v>
+        <v>1.4391397166325344</v>
       </c>
       <c r="Z230" t="b">
         <v>1</v>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="X231" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z231" t="b">
         <v>1</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="X232" s="96">
         <f>((VLOOKUP(J232,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>1.4902202929944917</v>
+        <v>1.4391397166325344</v>
       </c>
       <c r="Z232" t="b">
         <v>1</v>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="X233" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z233" t="b">
         <v>1</v>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="X234" s="96">
         <f>((VLOOKUP(J234,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.83824891480940156</v>
+        <v>0.80951609060580054</v>
       </c>
       <c r="Z234" t="b">
         <v>1</v>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="X235" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z235" t="b">
         <v>1</v>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="X236" s="96">
         <f>((VLOOKUP(J236,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.83824891480940156</v>
+        <v>0.80951609060580054</v>
       </c>
       <c r="Z236" t="b">
         <v>1</v>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="X237" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z237" t="b">
         <v>1</v>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="X238" s="96">
         <f>((VLOOKUP(J238,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.73020794356730101</v>
+        <v>0.70517846114994187</v>
       </c>
       <c r="Z238" t="b">
         <v>1</v>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="X239" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z239" t="b">
         <v>1</v>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="X240" s="96">
         <f>((VLOOKUP(J240,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.73020794356730101</v>
+        <v>0.70517846114994187</v>
       </c>
       <c r="Z240" t="b">
         <v>1</v>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="X241" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z241" t="b">
         <v>1</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="X242" s="96">
         <f>((VLOOKUP(J242,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.53647930547801703</v>
+        <v>0.51809029798771244</v>
       </c>
       <c r="Z242" t="b">
         <v>1</v>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="X243" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z243" t="b">
         <v>1</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="X244" s="96">
         <f>((VLOOKUP(J244,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.53647930547801703</v>
+        <v>0.51809029798771244</v>
       </c>
       <c r="Z244" t="b">
         <v>1</v>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="X245" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z245" t="b">
         <v>1</v>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="X246" s="96">
         <f>((VLOOKUP(J246,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.37255507324862291</v>
+        <v>0.35978492915813359</v>
       </c>
       <c r="Z246" t="b">
         <v>1</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="X247" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z247" t="b">
         <v>1</v>
@@ -12339,7 +12339,7 @@
       </c>
       <c r="X248" s="96">
         <f>((VLOOKUP(J248,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$D$110*5.45*12</f>
-        <v>0.37255507324862291</v>
+        <v>0.35978492915813359</v>
       </c>
       <c r="Z248" t="b">
         <v>1</v>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="X249" s="96">
         <f>Prices!$D$110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="Z249" t="b">
         <v>1</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="X250" s="96">
         <f>((VLOOKUP(J250,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>0.40070807612810599</v>
+        <v>0.3923196622961167</v>
       </c>
       <c r="Z250" t="b">
         <v>1</v>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="X251" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z251" t="b">
         <v>1</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="X252" s="96">
         <f>((VLOOKUP(J252,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>0.57701962962447262</v>
+        <v>0.56494031370640796</v>
       </c>
       <c r="Z252" t="b">
         <v>1</v>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="X253" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z253" t="b">
         <v>1</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="X254" s="96">
         <f>((VLOOKUP(J254,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>0.90159317128823857</v>
+        <v>0.88271924016626246</v>
       </c>
       <c r="Z254" t="b">
         <v>1</v>
@@ -12654,7 +12654,7 @@
       </c>
       <c r="X255" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z255" t="b">
         <v>1</v>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="X256" s="96">
         <f>((VLOOKUP(J256,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>1.602832304512424</v>
+        <v>1.5692786491844668</v>
       </c>
       <c r="Z256" t="b">
         <v>1</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="X257" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z257" t="b">
         <v>1</v>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="X258" s="96">
         <f>((VLOOKUP(J258,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>2.5044254758006632</v>
+        <v>2.4519978893507295</v>
       </c>
       <c r="Z258" t="b">
         <v>1</v>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="X259" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z259" t="b">
         <v>1</v>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="X260" s="96">
         <f>((VLOOKUP(J260,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>3.6063726851529543</v>
+        <v>3.5308769606650499</v>
       </c>
       <c r="Z260" t="b">
         <v>1</v>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="X261" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z261" t="b">
         <v>1</v>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="X262" s="96">
         <f>((VLOOKUP(J262,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>6.4113292180496959</v>
+        <v>6.2771145967378672</v>
       </c>
       <c r="Z262" t="b">
         <v>1</v>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="X263" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z263" t="b">
         <v>1</v>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="X264" s="96">
         <f>((VLOOKUP(J264,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>10.017701903202653</v>
+        <v>9.8079915574029179</v>
       </c>
       <c r="Z264" t="b">
         <v>1</v>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="X265" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z265" t="b">
         <v>1</v>
@@ -13083,7 +13083,7 @@
       </c>
       <c r="X266" s="96">
         <f>((VLOOKUP(J266,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>14.425490740611817</v>
+        <v>14.123507842660199</v>
       </c>
       <c r="Z266" t="b">
         <v>1</v>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="X267" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z267" t="b">
         <v>1</v>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="X268" s="96">
         <f>((VLOOKUP(J268,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>25.645316872198784</v>
+        <v>25.108458386951469</v>
       </c>
       <c r="Z268" t="b">
         <v>1</v>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="X269" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z269" t="b">
         <v>1</v>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="X270" s="96">
         <f>((VLOOKUP(J270,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>40.070807612810611</v>
+        <v>39.231966229611672</v>
       </c>
       <c r="Z270" t="b">
         <v>1</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="X271" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z271" t="b">
         <v>1</v>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="X272" s="96">
         <f>((VLOOKUP(J272,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>62.610636895016569</v>
+        <v>61.299947233768236</v>
       </c>
       <c r="Z272" t="b">
         <v>1</v>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="X273" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z273" t="b">
         <v>1</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="X274" s="96">
         <f>((VLOOKUP(J274,References!$A$1:$B$23,2,0)/2)^2)*PI()*Prices!$G$110*5.5*12</f>
-        <v>102.58126748879513</v>
+        <v>100.43383354780588</v>
       </c>
       <c r="Z274" t="b">
         <v>1</v>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="X275" s="96">
         <f>Prices!$G$110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="Z275" t="b">
         <v>1</v>
@@ -22355,7 +22355,7 @@
         <v>94</v>
       </c>
       <c r="X504" s="97">
-        <f t="shared" ref="X504:X514" si="0">X503*12</f>
+        <f t="shared" ref="X504" si="0">X503*12</f>
         <v>11.290355252830185</v>
       </c>
       <c r="Z504" t="b">
@@ -22427,7 +22427,7 @@
         <v>94</v>
       </c>
       <c r="X506" s="97">
-        <f t="shared" ref="X506:X514" si="1">X505*12</f>
+        <f t="shared" ref="X506" si="1">X505*12</f>
         <v>21.041116607547163</v>
       </c>
       <c r="Z506" t="b">
@@ -22499,7 +22499,7 @@
         <v>94</v>
       </c>
       <c r="X508" s="97">
-        <f t="shared" ref="X508:X514" si="2">X507*12</f>
+        <f t="shared" ref="X508" si="2">X507*12</f>
         <v>37.150400761471687</v>
       </c>
       <c r="Z508" t="b">
@@ -22571,7 +22571,7 @@
         <v>94</v>
       </c>
       <c r="X510" s="97">
-        <f t="shared" ref="X510:X514" si="3">X509*12</f>
+        <f t="shared" ref="X510" si="3">X509*12</f>
         <v>41.80852763320754</v>
       </c>
       <c r="Z510" t="b">
@@ -22643,7 +22643,7 @@
         <v>94</v>
       </c>
       <c r="X512" s="97">
-        <f t="shared" ref="X512:X514" si="4">X511*12</f>
+        <f t="shared" ref="X512" si="4">X511*12</f>
         <v>71.259248244226399</v>
       </c>
       <c r="Z512" t="b">
@@ -22738,8 +22738,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
@@ -24655,8 +24655,8 @@
       </c>
       <c r="C104" s="91"/>
       <c r="D104" s="91">
-        <f>C78/H104</f>
-        <v>78.333333333333343</v>
+        <f>D110+2</f>
+        <v>72.044709388971683</v>
       </c>
       <c r="E104" s="90"/>
       <c r="F104" s="90" t="s">
@@ -24679,8 +24679,8 @@
       </c>
       <c r="C105" s="91"/>
       <c r="D105" s="91">
-        <f>C78/H105</f>
-        <v>75.806451612903231</v>
+        <f t="shared" ref="D105:D107" si="0">D111+2</f>
+        <v>69.72334293948127</v>
       </c>
       <c r="E105" s="90"/>
       <c r="F105" s="90"/>
@@ -24695,8 +24695,8 @@
       </c>
       <c r="C106" s="91"/>
       <c r="D106" s="91">
-        <f>C78/H106</f>
-        <v>72.307692307692307</v>
+        <f t="shared" si="0"/>
+        <v>68.197183098591552</v>
       </c>
       <c r="E106" s="90"/>
       <c r="F106" s="90" t="s">
@@ -24715,8 +24715,8 @@
       </c>
       <c r="C107" s="91"/>
       <c r="D107" s="91">
-        <f>C78/H107</f>
-        <v>68.613138686131379</v>
+        <f t="shared" si="0"/>
+        <v>67.734265734265733</v>
       </c>
       <c r="E107" s="90"/>
       <c r="F107" s="90" t="s">
@@ -24758,7 +24758,7 @@
       <c r="C110" s="91"/>
       <c r="D110" s="91">
         <f>C78/H110</f>
-        <v>72.53086419753086</v>
+        <v>70.044709388971683</v>
       </c>
       <c r="E110" s="90"/>
       <c r="F110" s="90" t="s">
@@ -24766,13 +24766,13 @@
       </c>
       <c r="G110" s="92">
         <f>C78/I110</f>
-        <v>77.30263157894737</v>
+        <v>75.684380032206121</v>
       </c>
       <c r="H110" s="93">
-        <v>0.64800000000000002</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I110">
-        <v>0.60799999999999998</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="18" customHeight="1">
@@ -24782,7 +24782,7 @@
       <c r="C111" s="91"/>
       <c r="D111" s="91">
         <f>C78/H111</f>
-        <v>70.149253731343279</v>
+        <v>67.72334293948127</v>
       </c>
       <c r="E111" s="90"/>
       <c r="F111" s="90" t="s">
@@ -24790,13 +24790,13 @@
       </c>
       <c r="G111" s="92">
         <f>C78/I111</f>
-        <v>77.049180327868854</v>
+        <v>75.441412520064205</v>
       </c>
       <c r="H111" s="93">
-        <v>0.67</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="I111">
-        <v>0.61</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="18" customHeight="1">
@@ -24806,7 +24806,7 @@
       <c r="C112" s="91"/>
       <c r="D112" s="91">
         <f>C78/H112</f>
-        <v>68.613138686131379</v>
+        <v>66.197183098591552</v>
       </c>
       <c r="E112" s="90"/>
       <c r="F112" s="90" t="s">
@@ -24814,13 +24814,13 @@
       </c>
       <c r="G112" s="92">
         <f>C78/I112</f>
-        <v>72.53086419753086</v>
+        <v>70.996978851963746</v>
       </c>
       <c r="H112" s="93">
-        <v>0.68500000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="I112">
-        <v>0.64800000000000002</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="18" customHeight="1">
@@ -24830,7 +24830,7 @@
       <c r="C113" s="91"/>
       <c r="D113" s="91">
         <f>C78/H113</f>
-        <v>68.115942028985515</v>
+        <v>65.734265734265733</v>
       </c>
       <c r="E113" s="90"/>
       <c r="F113" s="90" t="s">
@@ -24838,13 +24838,13 @@
       </c>
       <c r="G113" s="92">
         <f>C78/I113</f>
-        <v>70.149253731343279</v>
+        <v>68.713450292397653</v>
       </c>
       <c r="H113" s="93">
-        <v>0.69</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I113">
-        <v>0.67</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="114" spans="2:9">

--- a/your_workbook.xlsx
+++ b/your_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABDB422-328B-4A28-962C-5EFE85484581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1B6C3-EBC8-4266-B0D4-C5287AF65F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -1531,24 +1531,12 @@
     <t>Value</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/ChatGPTImageJan13_2026_03_12_12PM.png?v=1768335359</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/ChatGPTImageJan13_2026_02_44_14PM.png?v=1768333868</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/ChatGPTImageJan13_2026_03_14_10PM.png?v=1768335416</t>
-  </si>
-  <si>
     <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-sterling-silver-half-round-wire-sterling-silver-half-round-wire-1216455161.png?v=1768336567</t>
   </si>
   <si>
     <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-sterling-silver-square-wire-sterling-silver-square-wire-1216455159.png?v=1768336508</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/ChatGPTImageJan13_2026_03_40_15PM.png?v=1768337010</t>
-  </si>
-  <si>
     <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-fine-silver-bezel-wire-fine-silver-bezel-wire-1216455160.png?v=1768336449</t>
   </si>
   <si>
@@ -1561,13 +1549,25 @@
     <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-14k-green-half-round-wire-14k-green-half-round-wire-1216455164.png?v=1768336268</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/ChatGPTImageJan13_2026_02_43_19PM.png?v=1768333757</t>
-  </si>
-  <si>
     <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-sterling-silver-flat-wire-sterling-silver-flat-wire-1216455165.png?v=1768336209</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/ChatGPTImageJan13_2026_03_08_55PM.png?v=1768335339</t>
+    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-14k-yellow-square-wire-14k-yellow-square-wire-1216589152.png?v=1768422608</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-sterling-silver-round-tubing-sterling-silver-round-tubing-1216707910.png?v=1768487410</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-14k-pink-gold-round-wire-14k-pink-gold-round-wire-1216589150.png?v=1768422789</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-10k-yellow-gold-round-wire-10k-yellow-gold-round-wire-1216589149.png?v=1768422668</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-14k-white-gold-round-wire-14k-white-gold-round-wire-1216461506.png?v=1768415408</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0471/8677/2118/files/myron-toback-inc-14k-green-gold-round-wire-14k-green-gold-round-wire-1216589151.png?v=1768422729</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2269,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F466" sqref="F466"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S465" sqref="S465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AD94">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AD162">
         <v>1</v>
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AD176">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AD178">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AC250" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AD250">
         <v>1</v>
@@ -13521,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="AC276" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AD276">
         <v>1</v>
@@ -14028,7 +14028,7 @@
         <v>1</v>
       </c>
       <c r="AC289" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AD289">
         <v>1</v>
@@ -15435,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="AC327" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AD327">
         <v>1</v>
@@ -16842,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="AC365" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AD365">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>1</v>
       </c>
       <c r="AC376" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AD376">
         <v>1</v>
@@ -18504,7 +18504,7 @@
         <v>1</v>
       </c>
       <c r="AC409" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AD409">
         <v>1</v>
@@ -19515,7 +19515,7 @@
         <v>1</v>
       </c>
       <c r="AC436" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AD436">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         <v>1</v>
       </c>
       <c r="AC455" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AD455">
         <v>1</v>
